--- a/Marketing/odu.roomme.xlsx
+++ b/Marketing/odu.roomme.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Followers" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B665"/>
+  <dimension ref="A1:B434"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,12 +422,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Follower</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Contacted</t>
         </is>
@@ -448,6640 +436,4330 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>danielstomov</t>
+          <t>ilynasia</t>
         </is>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>courtney.r.16</t>
+          <t>mol_seevounm23</t>
         </is>
       </c>
       <c r="B3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>sillylucifer666</t>
+          <t>superswagsarah</t>
         </is>
       </c>
       <c r="B4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>pov_drew12</t>
+          <t>so_itsdamari</t>
         </is>
       </c>
       <c r="B5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>danielle_fayeeee</t>
+          <t>1pacco_</t>
         </is>
       </c>
       <c r="B6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>thenormalcris</t>
+          <t>_diana._.r</t>
         </is>
       </c>
       <c r="B7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>niycore</t>
+          <t>codename.ajj</t>
         </is>
       </c>
       <c r="B8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ayostackkss</t>
+          <t>ha.alle</t>
         </is>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>chaosmxri</t>
+          <t>omegaphialphaodu</t>
         </is>
       </c>
       <c r="B10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>sunnythe4th</t>
+          <t>brey.anna_</t>
         </is>
       </c>
       <c r="B11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>envyjudy._</t>
+          <t>eman__walker</t>
         </is>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ugh.niiiii</t>
+          <t>marissa_.h._</t>
         </is>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>tsankner</t>
+          <t>shavarrr</t>
         </is>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>kjh._277</t>
+          <t>panintheabyss</t>
         </is>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isthat.harmony</t>
+          <t>summyhill</t>
         </is>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>777.giannaa</t>
+          <t>__c.h.a.s.e._</t>
         </is>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>40ksantana</t>
+          <t>_tname.kala</t>
         </is>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>leeleeana_</t>
+          <t>stephanievaleriaaa</t>
         </is>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>lisaawisaa_</t>
+          <t>kjh._277</t>
         </is>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>sir_savage_ok</t>
+          <t>kaayniicole</t>
         </is>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>rrpayne24</t>
+          <t>boonnneeeee_____</t>
         </is>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>okayy.ky</t>
+          <t>itsfatmataaa</t>
         </is>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>kirsten.palm</t>
+          <t>kev.tottin</t>
         </is>
       </c>
       <c r="B24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>kdeezy_._</t>
+          <t>_samyrahh_</t>
         </is>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>slaughtersb1</t>
+          <t>code_i.b</t>
         </is>
       </c>
       <c r="B26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>daniniia</t>
+          <t>elhxdg</t>
         </is>
       </c>
       <c r="B27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>cheycrazy_3805</t>
+          <t>envyjudy._</t>
         </is>
       </c>
       <c r="B28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>_.ashlyngrace</t>
+          <t>alexa_evans_</t>
         </is>
       </c>
       <c r="B29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>reagan.wales</t>
+          <t>t1juann_</t>
         </is>
       </c>
       <c r="B30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>t.eelah</t>
+          <t>imm.jadaa</t>
         </is>
       </c>
       <c r="B31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>jeremiah_p13</t>
+          <t>_chrissyg_03</t>
         </is>
       </c>
       <c r="B32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>iam_colinn_</t>
+          <t>exoticliyah__</t>
         </is>
       </c>
       <c r="B33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>noahdess24</t>
+          <t>alisaromannnn</t>
         </is>
       </c>
       <c r="B34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>mi.4nn4</t>
+          <t>puma2xx._</t>
         </is>
       </c>
       <c r="B35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>fbx.chrome</t>
+          <t>say._baker</t>
         </is>
       </c>
       <c r="B36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>mariamj.n</t>
+          <t>eriicadawn</t>
         </is>
       </c>
       <c r="B37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>t.timberlin10</t>
+          <t>noeliamccaffery</t>
         </is>
       </c>
       <c r="B38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>_.maddie._.elise.__</t>
+          <t>syyd.ni</t>
         </is>
       </c>
       <c r="B39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>sylva.xd</t>
+          <t>dejarochae</t>
         </is>
       </c>
       <c r="B40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>sierra.haun</t>
+          <t>liyahnicole.03</t>
         </is>
       </c>
       <c r="B41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>katie.pfeiler</t>
+          <t>_.genesis25._</t>
         </is>
       </c>
       <c r="B42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>liv_alauna.25k</t>
+          <t>_l.eslie._</t>
         </is>
       </c>
       <c r="B43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>j._.niah</t>
+          <t>_tiyaaa.xo</t>
         </is>
       </c>
       <c r="B44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>thesweetestsour722</t>
+          <t>amirra.aaa</t>
         </is>
       </c>
       <c r="B45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>anzures_sanchez</t>
+          <t>t.timberlin10</t>
         </is>
       </c>
       <c r="B46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>stevenswitzer_</t>
+          <t>meraki._creationz</t>
         </is>
       </c>
       <c r="B47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>korevet</t>
+          <t>frogparty9</t>
         </is>
       </c>
       <c r="B48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>anna_banana2705</t>
+          <t>i.am.drew3x</t>
         </is>
       </c>
       <c r="B49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>jadaawaydaaa__</t>
+          <t>charleighshay</t>
         </is>
       </c>
       <c r="B50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>mayleen113</t>
+          <t>neckomata</t>
         </is>
       </c>
       <c r="B51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>brenttont</t>
+          <t>its.markeiraaa</t>
         </is>
       </c>
       <c r="B52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>francescaa.dimare</t>
+          <t>akosuuaa</t>
         </is>
       </c>
       <c r="B53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>henryzmonroe</t>
+          <t>mylesw5</t>
         </is>
       </c>
       <c r="B54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>annasdelacruzz</t>
+          <t>jereemiaahh</t>
         </is>
       </c>
       <c r="B55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>_joshalyn_mlh_</t>
+          <t>mattmalpaya</t>
         </is>
       </c>
       <c r="B56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>fictional_sam</t>
+          <t>ethanstopperich</t>
         </is>
       </c>
       <c r="B57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>_.shiino._</t>
+          <t>tjolsen13</t>
         </is>
       </c>
       <c r="B58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>brady._.j</t>
+          <t>liljessie_motts</t>
         </is>
       </c>
       <c r="B59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>vishal.moudgill30</t>
+          <t>sstarsey</t>
         </is>
       </c>
       <c r="B60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>1jmanny</t>
+          <t>eelenammarie</t>
         </is>
       </c>
       <c r="B61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>lulldiaaa_</t>
+          <t>btomlinson152</t>
         </is>
       </c>
       <c r="B62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>72_tribbey</t>
+          <t>bribri_msdiva</t>
         </is>
       </c>
       <c r="B63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>murvintaylor</t>
+          <t>tania.anyaa</t>
         </is>
       </c>
       <c r="B64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>kaaymakhia</t>
+          <t>theylovemiyaa._</t>
         </is>
       </c>
       <c r="B65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>chrissy._.17</t>
+          <t>odu_fits</t>
         </is>
       </c>
       <c r="B66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>elijah2active</t>
+          <t>connor_p28</t>
         </is>
       </c>
       <c r="B67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ilynasia</t>
+          <t>briannakirchner</t>
         </is>
       </c>
       <c r="B68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>dxllface._</t>
+          <t>sarah.phil_</t>
         </is>
       </c>
       <c r="B69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>diary.of.christi</t>
+          <t>scootj.5</t>
         </is>
       </c>
       <c r="B70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>issa_cadance</t>
+          <t>_aayanna._</t>
         </is>
       </c>
       <c r="B71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>baller.maliyah</t>
+          <t>aneesareel</t>
         </is>
       </c>
       <c r="B72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>luva.laney</t>
+          <t>_xo.torii</t>
         </is>
       </c>
       <c r="B73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>marco_pontorno1</t>
+          <t>itsmeyasmineee</t>
         </is>
       </c>
       <c r="B74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>koby.lonzell</t>
+          <t>klassiccdolll</t>
         </is>
       </c>
       <c r="B75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>scootj.5</t>
+          <t>marco_pontorno1</t>
         </is>
       </c>
       <c r="B76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>itsdesbtw</t>
+          <t>thebonnetburglar</t>
         </is>
       </c>
       <c r="B77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>luxurious.minkz</t>
+          <t>luva.laney</t>
         </is>
       </c>
       <c r="B78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>natalieolsonnnn</t>
+          <t>x.o.evie</t>
         </is>
       </c>
       <c r="B79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>el_monito_o</t>
+          <t>carolinneemitchelll</t>
         </is>
       </c>
       <c r="B80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>tis.mont</t>
+          <t>bby_.monet_</t>
         </is>
       </c>
       <c r="B81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>benji_collawn</t>
+          <t>peyton.milania</t>
         </is>
       </c>
       <c r="B82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>_mobbin.matt_</t>
+          <t>bandupmari_</t>
         </is>
       </c>
       <c r="B83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>alisaromannnn</t>
+          <t>themachine1278</t>
         </is>
       </c>
       <c r="B84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>oduphc</t>
+          <t>str8rawtv</t>
         </is>
       </c>
       <c r="B85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>khemaniiii</t>
+          <t>rando_guy1234</t>
         </is>
       </c>
       <c r="B86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>jen.asha</t>
+          <t>k.i.t.t.a.n.a</t>
         </is>
       </c>
       <c r="B87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>just.jamir_</t>
+          <t>lingyunhu</t>
         </is>
       </c>
       <c r="B88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>poundtown_e</t>
+          <t>_.maddie._.elise.__</t>
         </is>
       </c>
       <c r="B89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>maliyah.terry</t>
+          <t>audrakaeperry</t>
         </is>
       </c>
       <c r="B90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>toriaanicoleee</t>
+          <t>1i1chick</t>
         </is>
       </c>
       <c r="B91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>a.stxckzspamzzz</t>
+          <t>symonehopeee</t>
         </is>
       </c>
       <c r="B92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>okidokihuman</t>
+          <t>goated_dom</t>
         </is>
       </c>
       <c r="B93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>j.allen.07</t>
+          <t>whyh8._ty</t>
         </is>
       </c>
       <c r="B94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>_sarahelgarhy_</t>
+          <t>jeremiahboyyd</t>
         </is>
       </c>
       <c r="B95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>queenliz4ev</t>
+          <t>walkerwoood</t>
         </is>
       </c>
       <c r="B96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>ciarrathurston</t>
+          <t>toriaanicoleee</t>
         </is>
       </c>
       <c r="B97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>serenity.deann</t>
+          <t>tolu._3</t>
         </is>
       </c>
       <c r="B98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>ayoo.quii</t>
+          <t>xoxo.lunise</t>
         </is>
       </c>
       <c r="B99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>arsema_m2</t>
+          <t>daniniia</t>
         </is>
       </c>
       <c r="B100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>jay.dinnnnn</t>
+          <t>deamonteeee</t>
         </is>
       </c>
       <c r="B101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>kittytruthy</t>
+          <t>urxsin</t>
         </is>
       </c>
       <c r="B102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>shayy.yyy</t>
+          <t>ps.quanya</t>
         </is>
       </c>
       <c r="B103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>dag.ayelee</t>
+          <t>poundtown_e</t>
         </is>
       </c>
       <c r="B104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>1.only_christian</t>
+          <t>quanowtff</t>
         </is>
       </c>
       <c r="B105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>niaw0e</t>
+          <t>kaytooliitforyallpeople</t>
         </is>
       </c>
       <c r="B106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>boonnneeeee_____</t>
+          <t>ethan.hampton_</t>
         </is>
       </c>
       <c r="B107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>alyssaronann</t>
+          <t>gswilliams10</t>
         </is>
       </c>
       <c r="B108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>drizz.dk</t>
+          <t>niaw0e</t>
         </is>
       </c>
       <c r="B109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>mulatto___jay</t>
+          <t>bagchasnx</t>
         </is>
       </c>
       <c r="B110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>raphael_joseph_777</t>
+          <t>a.wdyma</t>
         </is>
       </c>
       <c r="B111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>ari.stone_30</t>
+          <t>ciaramuug</t>
         </is>
       </c>
       <c r="B112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>emilyanaliesee</t>
+          <t>sweet_tangerine_dreams</t>
         </is>
       </c>
       <c r="B113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>its.markeiraaa</t>
+          <t>lilia._.rae</t>
         </is>
       </c>
       <c r="B114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>deeazyyt</t>
+          <t>riley.lyles</t>
         </is>
       </c>
       <c r="B115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>queen_panther_og</t>
+          <t>ag_whalen</t>
         </is>
       </c>
       <c r="B116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>ayden.garcia00</t>
+          <t>dmv_bereket</t>
         </is>
       </c>
       <c r="B117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>bdbr3n</t>
+          <t>ok_.tay</t>
         </is>
       </c>
       <c r="B118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>shortyyy.kara</t>
+          <t>meyahgardner</t>
         </is>
       </c>
       <c r="B119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>_camdlewax</t>
+          <t>dmv.jazz</t>
         </is>
       </c>
       <c r="B120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>odufsl</t>
+          <t>madi.abrielleee</t>
         </is>
       </c>
       <c r="B121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>cch.rle</t>
+          <t>ripbjay</t>
         </is>
       </c>
       <c r="B122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>therealcapois</t>
+          <t>mol_tamora23</t>
         </is>
       </c>
       <c r="B123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>amyaajanaee</t>
+          <t>salazar.madeleine</t>
         </is>
       </c>
       <c r="B124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>insignificant_biscuit</t>
+          <t>cam.in.general</t>
         </is>
       </c>
       <c r="B125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>nicole_011105</t>
+          <t>insignificant_biscuit</t>
         </is>
       </c>
       <c r="B126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>bribri_msdiva</t>
+          <t>br0wnnsugga_</t>
         </is>
       </c>
       <c r="B127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>just._.khamari</t>
+          <t>yourfavoriteoppsdot</t>
         </is>
       </c>
       <c r="B128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>kier_needs_a_nap</t>
+          <t>lov3gabbiee</t>
         </is>
       </c>
       <c r="B129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>96skieee</t>
+          <t>_jayla.morch_</t>
         </is>
       </c>
       <c r="B130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>heylyssaaa</t>
+          <t>queen_panther_og</t>
         </is>
       </c>
       <c r="B131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>russell465__</t>
+          <t>heluvvmiahh</t>
         </is>
       </c>
       <c r="B132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>_nadia.2x</t>
+          <t>angel_012104</t>
         </is>
       </c>
       <c r="B133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>cristian.argint</t>
+          <t>t.eelah</t>
         </is>
       </c>
       <c r="B134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>kaytooliitforyallpeople</t>
+          <t>odumonarchmayhem</t>
         </is>
       </c>
       <c r="B135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>muchluv444._lae</t>
+          <t>nyybabyy._</t>
         </is>
       </c>
       <c r="B136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>a.machae</t>
+          <t>drizz.dk</t>
         </is>
       </c>
       <c r="B137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>dmv.jazz</t>
+          <t>lay_layyy6</t>
         </is>
       </c>
       <c r="B138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>t.quinn15</t>
+          <t>arinbatu_1164</t>
         </is>
       </c>
       <c r="B139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>court21380</t>
+          <t>aaymaaxco</t>
         </is>
       </c>
       <c r="B140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>ffltality</t>
+          <t>dom.blackston</t>
         </is>
       </c>
       <c r="B141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>djmercer</t>
+          <t>is_it_ky</t>
         </is>
       </c>
       <c r="B142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>awtsgegeboss</t>
+          <t>noluv._.shad__</t>
         </is>
       </c>
       <c r="B143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>emily.ruck_</t>
+          <t>fbx.chrome</t>
         </is>
       </c>
       <c r="B144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>_.bpayne._</t>
+          <t>thesweetestsour722</t>
         </is>
       </c>
       <c r="B145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>mike.tosaucy</t>
+          <t>iirieara</t>
         </is>
       </c>
       <c r="B146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>kaayniicole</t>
+          <t>mol_jacob23</t>
         </is>
       </c>
       <c r="B147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>r1l3yyy_</t>
+          <t>_fran.m27</t>
         </is>
       </c>
       <c r="B148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>deezybiggavelli</t>
+          <t>danielle_fayeeee</t>
         </is>
       </c>
       <c r="B149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>say._baker</t>
+          <t>jvst_dr3</t>
         </is>
       </c>
       <c r="B150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>2x.taee</t>
+          <t>ari.stone_30</t>
         </is>
       </c>
       <c r="B151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>i.am.drew3x</t>
+          <t>care.degss</t>
         </is>
       </c>
       <c r="B152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>moc_milena23</t>
+          <t>bev__waz__here</t>
         </is>
       </c>
       <c r="B153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>nasir.2x</t>
+          <t>leeleeana_</t>
         </is>
       </c>
       <c r="B154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>donthavusername</t>
+          <t>reesehaulenbeek</t>
         </is>
       </c>
       <c r="B155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>claudiavidal_09</t>
+          <t>itgir1p</t>
         </is>
       </c>
       <c r="B156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>_annikaaaa__</t>
+          <t>tsankner</t>
         </is>
       </c>
       <c r="B157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>aynakojhen</t>
+          <t>peyton_banuski_</t>
         </is>
       </c>
       <c r="B158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>imjusttae1</t>
+          <t>kayy.kurlss</t>
         </is>
       </c>
       <c r="B159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>amariyahlashay</t>
+          <t>elusive.geegee</t>
         </is>
       </c>
       <c r="B160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>luv.catieee</t>
+          <t>k_.hump</t>
         </is>
       </c>
       <c r="B161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>olivia._colleen</t>
+          <t>jasminpiggott</t>
         </is>
       </c>
       <c r="B162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>koko_goddess</t>
+          <t>god.com_plex</t>
         </is>
       </c>
       <c r="B163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>_.jameslangley</t>
+          <t>maliyah.terry</t>
         </is>
       </c>
       <c r="B164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>stuckoncd_</t>
+          <t>austins0625</t>
         </is>
       </c>
       <c r="B165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>m.4dds</t>
+          <t>tis.mont</t>
         </is>
       </c>
       <c r="B166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>nyybabyy._</t>
+          <t>richards_emersonn</t>
         </is>
       </c>
       <c r="B167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>vishuu_r.a.o</t>
+          <t>sxpremechi</t>
         </is>
       </c>
       <c r="B168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>kendall._.swift</t>
+          <t>nevaehkendal</t>
         </is>
       </c>
       <c r="B169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>kelydeleonn</t>
+          <t>2xmiah</t>
         </is>
       </c>
       <c r="B170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>_leroyyates_</t>
+          <t>_alicia.lynn</t>
         </is>
       </c>
       <c r="B171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>marky_21_</t>
+          <t>_cassidy_na</t>
         </is>
       </c>
       <c r="B172" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>jakeiraannae</t>
+          <t>alinamc7777</t>
         </is>
       </c>
       <c r="B173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>shygotstacks</t>
+          <t>npc.von</t>
         </is>
       </c>
       <c r="B174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>_chrissy.yy</t>
+          <t>weluv.dannii</t>
         </is>
       </c>
       <c r="B175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>it_parker12</t>
+          <t>_cashdollar_</t>
         </is>
       </c>
       <c r="B176" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>coriiscoco</t>
+          <t>alyssaronann</t>
         </is>
       </c>
       <c r="B177" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>laneyluvs_u</t>
+          <t>mekhicooper_</t>
         </is>
       </c>
       <c r="B178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>_summerstevens</t>
+          <t>levizamiskie</t>
         </is>
       </c>
       <c r="B179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>prestyn_diarra</t>
+          <t>lanie_fuller14</t>
         </is>
       </c>
       <c r="B180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>noluv._.shad__</t>
+          <t>taylorzareno</t>
         </is>
       </c>
       <c r="B181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>itssss._sydney_</t>
+          <t>odusfinest25</t>
         </is>
       </c>
       <c r="B182" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>brionniii</t>
+          <t>cjsucks87</t>
         </is>
       </c>
       <c r="B183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>briannakeys15</t>
+          <t>divine._._.warrior</t>
         </is>
       </c>
       <c r="B184" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>_2vague_</t>
+          <t>3k.drayko</t>
         </is>
       </c>
       <c r="B185" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>levizamiskie</t>
+          <t>javieri_04</t>
         </is>
       </c>
       <c r="B186" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>diaryofahheadcrack._</t>
+          <t>fictional_sam</t>
         </is>
       </c>
       <c r="B187" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>knockoffbillylenz</t>
+          <t>prettie500</t>
         </is>
       </c>
       <c r="B188" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>brixnnanicole_</t>
+          <t>ffltality</t>
         </is>
       </c>
       <c r="B189" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>deamonteeee</t>
+          <t>j.cbfw</t>
         </is>
       </c>
       <c r="B190" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>juicemygoose6</t>
+          <t>justin.jayg</t>
         </is>
       </c>
       <c r="B191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>pretty_lil_bree_</t>
+          <t>chloe.bastiaans</t>
         </is>
       </c>
       <c r="B192" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>dmv_bereket</t>
+          <t>ciarrathurston</t>
         </is>
       </c>
       <c r="B193" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>richards_emersonn</t>
+          <t>kreative_kiera</t>
         </is>
       </c>
       <c r="B194" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>jacob.henders</t>
+          <t>teeee543</t>
         </is>
       </c>
       <c r="B195" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>breno__williams</t>
+          <t>lillian_copeland_15</t>
         </is>
       </c>
       <c r="B196" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>nevaehkendal</t>
+          <t>megann.rogers</t>
         </is>
       </c>
       <c r="B197" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>reesehaulenbeek</t>
+          <t>nicolehuttonshannon</t>
         </is>
       </c>
       <c r="B198" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>madisonfleger</t>
+          <t>odu_set</t>
         </is>
       </c>
       <c r="B199" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>myahhhhs._</t>
+          <t>_mariahjj_</t>
         </is>
       </c>
       <c r="B200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>_tname.kala</t>
+          <t>mariamj.n</t>
         </is>
       </c>
       <c r="B201" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>keeganschnupp</t>
+          <t>djmercer</t>
         </is>
       </c>
       <c r="B202" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>lenett.rayy</t>
+          <t>n0nl0vin.ny</t>
         </is>
       </c>
       <c r="B203" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>madi.abrielleee</t>
+          <t>ciaraaamichellee</t>
         </is>
       </c>
       <c r="B204" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>katielutz__</t>
+          <t>breno__williams</t>
         </is>
       </c>
       <c r="B205" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>amaldjibo</t>
+          <t>alexiselisadurand</t>
         </is>
       </c>
       <c r="B206" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>mahalnicole</t>
+          <t>vishal.moudgill30</t>
         </is>
       </c>
       <c r="B207" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>3k.drayko</t>
+          <t>odu_admissions</t>
         </is>
       </c>
       <c r="B208" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>mary_haney_</t>
+          <t>heylyssaaa</t>
         </is>
       </c>
       <c r="B209" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>theereallashayy</t>
+          <t>muchluv444._lae</t>
         </is>
       </c>
       <c r="B210" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>la.mikaaaaa</t>
+          <t>oduvegans</t>
         </is>
       </c>
       <c r="B211" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>ky.naaa</t>
+          <t>madsciencist</t>
         </is>
       </c>
       <c r="B212" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>giannarios4105</t>
+          <t>issaaa.kay</t>
         </is>
       </c>
       <c r="B213" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>weluv.dannii</t>
+          <t>iramosyanez</t>
         </is>
       </c>
       <c r="B214" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>mylesw5</t>
+          <t>oduwomensgenderstudies</t>
         </is>
       </c>
       <c r="B215" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>lyssey__</t>
+          <t>niyahcamilla</t>
         </is>
       </c>
       <c r="B216" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>cam.in.general</t>
+          <t>sebas2x__</t>
         </is>
       </c>
       <c r="B217" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>ptsmithcruises</t>
+          <t>jadenrare</t>
         </is>
       </c>
       <c r="B218" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>amirra.aaa</t>
+          <t>cjsocool757</t>
         </is>
       </c>
       <c r="B219" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>immnott.nye_</t>
+          <t>braxtonnicolee_</t>
         </is>
       </c>
       <c r="B220" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>katie.latigona</t>
+          <t>_yoodev_</t>
         </is>
       </c>
       <c r="B221" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>vibeewithnyy</t>
+          <t>kit.rowan</t>
         </is>
       </c>
       <c r="B222" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>zeke.4x</t>
+          <t>sarah.richardsonnn</t>
         </is>
       </c>
       <c r="B223" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>lcve.trish</t>
+          <t>da_realjp</t>
         </is>
       </c>
       <c r="B224" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>danielwomack.19</t>
+          <t>___riiamariee</t>
         </is>
       </c>
       <c r="B225" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>_fran.m27</t>
+          <t>babyyyy.nasia</t>
         </is>
       </c>
       <c r="B226" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>j.brownvswrld2</t>
+          <t>rahshadthesungod</t>
         </is>
       </c>
       <c r="B227" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>amayamassie</t>
+          <t>nataleemarieee</t>
         </is>
       </c>
       <c r="B228" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>madi.hartel</t>
+          <t>myahdent</t>
         </is>
       </c>
       <c r="B229" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>ethanstopperich</t>
+          <t>b_thedon04</t>
         </is>
       </c>
       <c r="B230" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>kennedymarie.davis</t>
+          <t>korevet</t>
         </is>
       </c>
       <c r="B231" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>yourfavoriteoppsdot</t>
+          <t>_luvjadaaa</t>
         </is>
       </c>
       <c r="B232" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>ryotyz</t>
+          <t>757_jakek</t>
         </is>
       </c>
       <c r="B233" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>trishie.lizard</t>
+          <t>trefrm301</t>
         </is>
       </c>
       <c r="B234" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>rahshadthesungod</t>
+          <t>bruh_anyway</t>
         </is>
       </c>
       <c r="B235" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>theyluv.genisus</t>
+          <t>ssokoo_</t>
         </is>
       </c>
       <c r="B236" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>_nottmike</t>
+          <t>kyrayasmine</t>
         </is>
       </c>
       <c r="B237" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>richard.p.reese.iv</t>
+          <t>oduintervarsity</t>
         </is>
       </c>
       <c r="B238" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>elhxdg</t>
+          <t>jt.blk_well</t>
         </is>
       </c>
       <c r="B239" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>laughing_hiker</t>
+          <t>_trixiebankss_</t>
         </is>
       </c>
       <c r="B240" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>is_it_ky</t>
+          <t>804_doni</t>
         </is>
       </c>
       <c r="B241" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>kvngxjay5</t>
+          <t>knockoffbillylenz</t>
         </is>
       </c>
       <c r="B242" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>najamanaee</t>
+          <t>__trah__</t>
         </is>
       </c>
       <c r="B243" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>braxy.z</t>
+          <t>allyson.abraham</t>
         </is>
       </c>
       <c r="B244" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>idontknow507834</t>
+          <t>_.llouieee</t>
         </is>
       </c>
       <c r="B245" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>meraki._creationz</t>
+          <t>baller.maliyah</t>
         </is>
       </c>
       <c r="B246" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>klassiccdolll</t>
+          <t>miamontague</t>
         </is>
       </c>
       <c r="B247" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>o.camara_</t>
+          <t>__.iambree</t>
         </is>
       </c>
       <c r="B248" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>222.megannn</t>
+          <t>amarisa.__</t>
         </is>
       </c>
       <c r="B249" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>explcit.marquess</t>
+          <t>tonyidowu._</t>
         </is>
       </c>
       <c r="B250" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>le_lovebell</t>
+          <t>taahthe7th</t>
         </is>
       </c>
       <c r="B251" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>theyluvv.kyrie1</t>
+          <t>olivia._colleen</t>
         </is>
       </c>
       <c r="B252" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>lizgroe</t>
+          <t>i.miachka</t>
         </is>
       </c>
       <c r="B253" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>eestrella.m</t>
+          <t>deanna._.kay</t>
         </is>
       </c>
       <c r="B254" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>_.llouieee</t>
+          <t>_.kaylaa5</t>
         </is>
       </c>
       <c r="B255" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>heluvvmiahh</t>
+          <t>theonlymantha</t>
         </is>
       </c>
       <c r="B256" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>rae.___.cox</t>
+          <t>rocky2fast</t>
         </is>
       </c>
       <c r="B257" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>sarahbrinell</t>
+          <t>theereallashayy</t>
         </is>
       </c>
       <c r="B258" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>just_.ivyy</t>
+          <t>cj.rbh</t>
         </is>
       </c>
       <c r="B259" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>niyah_rishea04</t>
+          <t>brianna_kala_</t>
         </is>
       </c>
       <c r="B260" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>1b0ss._e</t>
+          <t>_summeer.lovee</t>
         </is>
       </c>
       <c r="B261" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>artoo_223</t>
+          <t>kylie.lesina</t>
         </is>
       </c>
       <c r="B262" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>sirena._.rane</t>
+          <t>oliviancottrell</t>
         </is>
       </c>
       <c r="B263" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>jereemiaahh</t>
+          <t>yo_marshawn</t>
         </is>
       </c>
       <c r="B264" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>real_marksamuel</t>
+          <t>nbajayd007</t>
         </is>
       </c>
       <c r="B265" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>adrianaaa.niculae</t>
+          <t>earth.2summerrr</t>
         </is>
       </c>
       <c r="B266" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>jalyn.k_</t>
+          <t>_annikaaaa__</t>
         </is>
       </c>
       <c r="B267" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>lloganstancill</t>
+          <t>brockboy808</t>
         </is>
       </c>
       <c r="B268" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>god.com_plex</t>
+          <t>craxy_beautiful143</t>
         </is>
       </c>
       <c r="B269" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>ps.quanya</t>
+          <t>ij_rey</t>
         </is>
       </c>
       <c r="B270" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>hio_pando</t>
+          <t>amberrlaurenn</t>
         </is>
       </c>
       <c r="B271" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>jaylen_newman1</t>
+          <t>nibir05</t>
         </is>
       </c>
       <c r="B272" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>xoxo.lunise</t>
+          <t>lil_leprechaun24</t>
         </is>
       </c>
       <c r="B273" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>akosuuaa</t>
+          <t>72_tribbey</t>
         </is>
       </c>
       <c r="B274" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>trinxbabyy</t>
+          <t>yrn._.malxolm</t>
         </is>
       </c>
       <c r="B275" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>amandaawilsonn_</t>
+          <t>bratlyn1998</t>
         </is>
       </c>
       <c r="B276" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>jack_gattoni14</t>
+          <t>sophie.cluck</t>
         </is>
       </c>
       <c r="B277" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>_diana._.r</t>
+          <t>jazzy.j_3</t>
         </is>
       </c>
       <c r="B278" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>yuhboochie</t>
+          <t>lilianamilaniii</t>
         </is>
       </c>
       <c r="B279" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>oduvegans</t>
+          <t>nyssanoemii</t>
         </is>
       </c>
       <c r="B280" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>zo.outside</t>
+          <t>laneca2</t>
         </is>
       </c>
       <c r="B281" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>i.miachka</t>
+          <t>jen.asha</t>
         </is>
       </c>
       <c r="B282" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>ciaraaamichellee</t>
+          <t>a.machae</t>
         </is>
       </c>
       <c r="B283" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>nyaamilanoo</t>
+          <t>_nadia.2x</t>
         </is>
       </c>
       <c r="B284" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>itgir1p</t>
+          <t>angeloliotta12</t>
         </is>
       </c>
       <c r="B285" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>br0wnnsugga_</t>
+          <t>_good.vibes.2x_</t>
         </is>
       </c>
       <c r="B286" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>_wasup37</t>
+          <t>riah_moneee</t>
         </is>
       </c>
       <c r="B287" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>wxrmtxxl</t>
+          <t>gelohavinn</t>
         </is>
       </c>
       <c r="B288" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>threelittlebirdsva</t>
+          <t>jameraakoto</t>
         </is>
       </c>
       <c r="B289" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>scaredmui</t>
+          <t>may.life757</t>
         </is>
       </c>
       <c r="B290" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>miamontague</t>
+          <t>cxmvirtuoso</t>
         </is>
       </c>
       <c r="B291" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>ariellies</t>
+          <t>m.moseleyjr</t>
         </is>
       </c>
       <c r="B292" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>jameraakoto</t>
+          <t>nehae005</t>
         </is>
       </c>
       <c r="B293" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>zander_curl</t>
+          <t>diaryofahheadcrack._</t>
         </is>
       </c>
       <c r="B294" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>a.mywelborn</t>
+          <t>itsjust__jasmine</t>
         </is>
       </c>
       <c r="B295" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>clarence4._</t>
+          <t>anti_rockksss</t>
         </is>
       </c>
       <c r="B296" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>qutieee.t</t>
+          <t>sirena._.rane</t>
         </is>
       </c>
       <c r="B297" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>odumonarchmayhem</t>
+          <t>yuhboochie</t>
         </is>
       </c>
       <c r="B298" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>lanie_fuller14</t>
+          <t>altanaphobiaa</t>
         </is>
       </c>
       <c r="B299" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>odurugby</t>
+          <t>1jmanny</t>
         </is>
       </c>
       <c r="B300" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>makaylaboney</t>
+          <t>kurly_mauii</t>
         </is>
       </c>
       <c r="B301" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>richyreignnn</t>
+          <t>darius_.d1</t>
         </is>
       </c>
       <c r="B302" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>tajjani_</t>
+          <t>luke.ydwog</t>
         </is>
       </c>
       <c r="B303" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>rocky2fast</t>
+          <t>lanah.skye</t>
         </is>
       </c>
       <c r="B304" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>niah.pt.2</t>
+          <t>makaylaboney</t>
         </is>
       </c>
       <c r="B305" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>grayson.757</t>
+          <t>seun_olayinka15</t>
         </is>
       </c>
       <c r="B306" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>red789000</t>
+          <t>chrissy._.17</t>
         </is>
       </c>
       <c r="B307" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>reilly_houper</t>
+          <t>russell465__</t>
         </is>
       </c>
       <c r="B308" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>kev.tottin</t>
+          <t>this_is_normal_alright</t>
         </is>
       </c>
       <c r="B309" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>aalvarado.18</t>
+          <t>nyyali._</t>
         </is>
       </c>
       <c r="B310" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>da.nasia.aa</t>
+          <t>madisonxhales</t>
         </is>
       </c>
       <c r="B311" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>nikki_welp</t>
+          <t>dag.ayelee</t>
         </is>
       </c>
       <c r="B312" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>sadie.fosback</t>
+          <t>erikasakoma</t>
         </is>
       </c>
       <c r="B313" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>__.iambree</t>
+          <t>jarellg_</t>
         </is>
       </c>
       <c r="B314" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>drewscox</t>
+          <t>drea_bynum</t>
         </is>
       </c>
       <c r="B315" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>itsfatmataaa</t>
+          <t>iamgstacks</t>
         </is>
       </c>
       <c r="B316" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>_mocha.exe</t>
+          <t>jadaawaydaaa__</t>
         </is>
       </c>
       <c r="B317" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>bandupmari_</t>
+          <t>melody_alfred</t>
         </is>
       </c>
       <c r="B318" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>jackf004</t>
+          <t>mariska_love23</t>
         </is>
       </c>
       <c r="B319" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>madsciencist</t>
+          <t>jordan.hobbs.921</t>
         </is>
       </c>
       <c r="B320" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>angeloliotta12</t>
+          <t>jay.dinnnnn</t>
         </is>
       </c>
       <c r="B321" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>gia2tiicck</t>
+          <t>j._.niah</t>
         </is>
       </c>
       <c r="B322" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>kyjarts</t>
+          <t>trinaaa.nguyen</t>
         </is>
       </c>
       <c r="B323" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>lovely.myana</t>
+          <t>juicemygoose6</t>
         </is>
       </c>
       <c r="B324" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>wicc.nate</t>
+          <t>mariahvitari</t>
         </is>
       </c>
       <c r="B325" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>24k_.g</t>
+          <t>masonh1871</t>
         </is>
       </c>
       <c r="B326" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>anzennnnnn</t>
+          <t>jaylen_newman1</t>
         </is>
       </c>
       <c r="B327" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>m.quette</t>
+          <t>yeh.dii_</t>
         </is>
       </c>
       <c r="B328" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>ikaros._ssbu</t>
+          <t>mallorryy.b</t>
         </is>
       </c>
       <c r="B329" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>omegaphialphaodu</t>
+          <t>diary.of.christi</t>
         </is>
       </c>
       <c r="B330" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>ca.nani</t>
+          <t>px_pgy21</t>
         </is>
       </c>
       <c r="B331" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>nadia.boggz</t>
+          <t>_dabrattjae</t>
         </is>
       </c>
       <c r="B332" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>joymoneybaby2</t>
+          <t>joooleyah</t>
         </is>
       </c>
       <c r="B333" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>kkeiramac</t>
+          <t>eia_l_j_h</t>
         </is>
       </c>
       <c r="B334" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>johnftw_</t>
+          <t>itsjuss.aysia</t>
         </is>
       </c>
       <c r="B335" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>xyomajix</t>
+          <t>just._.khamari</t>
         </is>
       </c>
       <c r="B336" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>behanzin.2x</t>
+          <t>amandaawilsonn_</t>
         </is>
       </c>
       <c r="B337" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>iluvkeilani</t>
+          <t>ryan.gmx</t>
         </is>
       </c>
       <c r="B338" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>odu_admissions</t>
+          <t>jmarrriiii</t>
         </is>
       </c>
       <c r="B339" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>j9inee__</t>
+          <t>1st_ladydrea</t>
         </is>
       </c>
       <c r="B340" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>stargrrllll</t>
+          <t>maddieecochran</t>
         </is>
       </c>
       <c r="B341" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>love_nicky04</t>
+          <t>renaycionna</t>
         </is>
       </c>
       <c r="B342" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>vishnoyv</t>
+          <t>brayandem</t>
         </is>
       </c>
       <c r="B343" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>lissette_.tenesaca</t>
+          <t>__.xza.__</t>
         </is>
       </c>
       <c r="B344" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>deanna._.kay</t>
+          <t>sarahbrinell</t>
         </is>
       </c>
       <c r="B345" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>nyssanoemii</t>
+          <t>scaredmui</t>
         </is>
       </c>
       <c r="B346" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>2xmiah</t>
+          <t>lijah__original</t>
         </is>
       </c>
       <c r="B347" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>804_doni</t>
+          <t>braeden_megenity</t>
         </is>
       </c>
       <c r="B348" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>s.crawford8</t>
+          <t>vr_tre</t>
         </is>
       </c>
       <c r="B349" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>lik2x_</t>
+          <t>stevenswitzer_</t>
         </is>
       </c>
       <c r="B350" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>ky.meah</t>
+          <t>222.megannn</t>
         </is>
       </c>
       <c r="B351" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>kylaa.angel</t>
+          <t>justlivin__lj05</t>
         </is>
       </c>
       <c r="B352" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>arow010305</t>
+          <t>cch.rle</t>
         </is>
       </c>
       <c r="B353" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>brey.anna_</t>
+          <t>itss._jojo</t>
         </is>
       </c>
       <c r="B354" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>taahthe7th</t>
+          <t>its.jakaylam</t>
         </is>
       </c>
       <c r="B355" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>__trah__</t>
+          <t>aynakojhen</t>
         </is>
       </c>
       <c r="B356" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>alexiselisadurand</t>
+          <t>jamayaaaa__</t>
         </is>
       </c>
       <c r="B357" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>kyrayasmine</t>
+          <t>breah.shenell</t>
         </is>
       </c>
       <c r="B358" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>dom.blackston</t>
+          <t>chandlerryannee</t>
         </is>
       </c>
       <c r="B359" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>_aayanna._</t>
+          <t>_.bossupjaay._</t>
         </is>
       </c>
       <c r="B360" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>pyttt.noelle</t>
+          <t>isthat.harmony</t>
         </is>
       </c>
       <c r="B361" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>liljessie_motts</t>
+          <t>vb.sean</t>
         </is>
       </c>
       <c r="B362" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>e.turner.21</t>
+          <t>_pipermccoy</t>
         </is>
       </c>
       <c r="B363" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>itsjust__jasmine</t>
+          <t>jan_.niece</t>
         </is>
       </c>
       <c r="B364" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>804._leekk</t>
+          <t>sillylucifer666</t>
         </is>
       </c>
       <c r="B365" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>jacksonphil15</t>
+          <t>reilly_houper</t>
         </is>
       </c>
       <c r="B366" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>lowkeyavi03</t>
+          <t>chx._nel</t>
         </is>
       </c>
       <c r="B367" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>briannakirchner</t>
+          <t>kiyadivinee</t>
         </is>
       </c>
       <c r="B368" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>_.r.x.ch.x.l._</t>
+          <t>desthagoatt</t>
         </is>
       </c>
       <c r="B369" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>emma70000847744747_</t>
+          <t>kdeezy_._</t>
         </is>
       </c>
       <c r="B370" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>craxy_beautiful143</t>
+          <t>bayeisenhour</t>
         </is>
       </c>
       <c r="B371" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>ayanna_j1943</t>
+          <t>blakeemitchell</t>
         </is>
       </c>
       <c r="B372" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>largedarkrooster</t>
+          <t>noah.caliendo</t>
         </is>
       </c>
       <c r="B373" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>_.shanttiii._</t>
+          <t>offical.jareddonegan</t>
         </is>
       </c>
       <c r="B374" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>ash.kenworthy</t>
+          <t>kirsten.palm</t>
         </is>
       </c>
       <c r="B375" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>jasmineleigh.png</t>
+          <t>laneyluvs_u</t>
         </is>
       </c>
       <c r="B376" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>david_hertzler</t>
+          <t>amourxdana</t>
         </is>
       </c>
       <c r="B377" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>3journee3</t>
+          <t>ky.meah</t>
         </is>
       </c>
       <c r="B378" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>elib_53</t>
+          <t>hearts4khii444</t>
         </is>
       </c>
       <c r="B379" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>bby_.monet_</t>
+          <t>_glama_gurl_</t>
         </is>
       </c>
       <c r="B380" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>lucaspgowdy</t>
+          <t>tdmcv_girl</t>
         </is>
       </c>
       <c r="B381" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>melody_alfred</t>
+          <t>nataly_diaz23</t>
         </is>
       </c>
       <c r="B382" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>redisnotokay</t>
+          <t>ionkno.nb</t>
         </is>
       </c>
       <c r="B383" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>_good.vibes.2x_</t>
+          <t>a.fraley6</t>
         </is>
       </c>
       <c r="B384" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>viviennegsoto</t>
+          <t>eyonnamonaeee</t>
         </is>
       </c>
       <c r="B385" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>xxlaurenhubb</t>
+          <t>jojo_26x</t>
         </is>
       </c>
       <c r="B386" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>becca72101</t>
+          <t>vivhammondd</t>
         </is>
       </c>
       <c r="B387" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>cawterr_</t>
+          <t>alexandrajay._</t>
         </is>
       </c>
       <c r="B388" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>ok_.tay</t>
+          <t>murvintaylor</t>
         </is>
       </c>
       <c r="B389" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>jarellg_</t>
+          <t>kelydeleonn</t>
         </is>
       </c>
       <c r="B390" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>kevinbgloverll</t>
+          <t>eli_w445</t>
         </is>
       </c>
       <c r="B391" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>amelia_valentinaa</t>
+          <t>madi.hartel</t>
         </is>
       </c>
       <c r="B392" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>yeahhitssniinaa</t>
+          <t>rhealevinn</t>
         </is>
       </c>
       <c r="B393" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>mikaylawomack</t>
+          <t>e_marching19</t>
         </is>
       </c>
       <c r="B394" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>kiyadivinee</t>
+          <t>labonte.abbey</t>
         </is>
       </c>
       <c r="B395" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>meminsley</t>
+          <t>aniyahxnicole</t>
         </is>
       </c>
       <c r="B396" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>bryana_destiny</t>
+          <t>onetake.christian_</t>
         </is>
       </c>
       <c r="B397" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>gowdy_lifts</t>
+          <t>vibeewithnyy</t>
         </is>
       </c>
       <c r="B398" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>tjolsen13</t>
+          <t>koby.lonzell</t>
         </is>
       </c>
       <c r="B399" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>deyfwkazjah</t>
+          <t>sadlytoons</t>
         </is>
       </c>
       <c r="B400" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>lilia._.rae</t>
+          <t>mahalnicole</t>
         </is>
       </c>
       <c r="B401" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>samyahxmonet</t>
+          <t>heem_2valid</t>
         </is>
       </c>
       <c r="B402" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>kayylapowwell</t>
+          <t>lik2x_</t>
         </is>
       </c>
       <c r="B403" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>alexmendrinos17</t>
+          <t>abrrry15</t>
         </is>
       </c>
       <c r="B404" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>alinamc7777</t>
+          <t>zander_curl</t>
         </is>
       </c>
       <c r="B405" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>zonnie101</t>
+          <t>lenett.rayy</t>
         </is>
       </c>
       <c r="B406" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>leahsundead</t>
+          <t>becca72101</t>
         </is>
       </c>
       <c r="B407" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>_rylielittle_</t>
+          <t>thebrittanyrachel</t>
         </is>
       </c>
       <c r="B408" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>ceedy640</t>
+          <t>smoovehomes</t>
         </is>
       </c>
       <c r="B409" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>carolinneemitchelll</t>
+          <t>itsdesbtw</t>
         </is>
       </c>
       <c r="B410" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>ty.harr245</t>
+          <t>elizabean1211</t>
         </is>
       </c>
       <c r="B411" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>kit.rowan</t>
+          <t>ny_a4</t>
         </is>
       </c>
       <c r="B412" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>va.caudd_</t>
+          <t>gowdy_lifts</t>
         </is>
       </c>
       <c r="B413" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>drock_913</t>
+          <t>nicole_011105</t>
         </is>
       </c>
       <c r="B414" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>wondering_sk</t>
+          <t>lloganstancill</t>
         </is>
       </c>
       <c r="B415" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>odusfinest25</t>
+          <t>stuckoncd_</t>
         </is>
       </c>
       <c r="B416" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>lexiluthor05</t>
+          <t>_k.xnnedy</t>
         </is>
       </c>
       <c r="B417" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>brockboy808</t>
+          <t>reagan.wales</t>
         </is>
       </c>
       <c r="B418" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>viisinterlude</t>
+          <t>reginaeeeeee</t>
         </is>
       </c>
       <c r="B419" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>eman__walker</t>
+          <t>777.giannaa</t>
         </is>
       </c>
       <c r="B420" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>itstatian.aa</t>
+          <t>nayamelanie</t>
         </is>
       </c>
       <c r="B421" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>jakaylaaaaa_</t>
+          <t>jackf004</t>
         </is>
       </c>
       <c r="B422" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>itsahd8</t>
+          <t>222.rita</t>
         </is>
       </c>
       <c r="B423" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>dylan_t29</t>
+          <t>nika_pathak</t>
         </is>
       </c>
       <c r="B424" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>kxalla</t>
+          <t>serenity.deann</t>
         </is>
       </c>
       <c r="B425" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>kennythadj</t>
+          <t>_.shiino._</t>
         </is>
       </c>
       <c r="B426" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>heem_2valid</t>
+          <t>tajjani_</t>
         </is>
       </c>
       <c r="B427" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>thanixcadee_5x</t>
+          <t>giannarios4105</t>
         </is>
       </c>
       <c r="B428" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>ny_a4</t>
+          <t>an.dy0405</t>
         </is>
       </c>
       <c r="B429" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>renaycionna</t>
+          <t>n_amxni</t>
         </is>
       </c>
       <c r="B430" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>wangotbandz._</t>
+          <t>xottic.franny</t>
         </is>
       </c>
       <c r="B431" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>jsnathann</t>
+          <t>ash.kenworthy</t>
         </is>
       </c>
       <c r="B432" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>amarisa.__</t>
+          <t>ahluwaliasarab</t>
         </is>
       </c>
       <c r="B433" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>brbnata</t>
+          <t>_maddy_wright_</t>
         </is>
       </c>
       <c r="B434" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="435">
-      <c r="A435" t="inlineStr">
-        <is>
-          <t>alexa_evans_</t>
-        </is>
-      </c>
-      <c r="B435" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="436">
-      <c r="A436" t="inlineStr">
-        <is>
-          <t>jenny.fr_</t>
-        </is>
-      </c>
-      <c r="B436" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="437">
-      <c r="A437" t="inlineStr">
-        <is>
-          <t>jasminpiggott</t>
-        </is>
-      </c>
-      <c r="B437" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="438">
-      <c r="A438" t="inlineStr">
-        <is>
-          <t>mackenzienicollee</t>
-        </is>
-      </c>
-      <c r="B438" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="439">
-      <c r="A439" t="inlineStr">
-        <is>
-          <t>npc.von</t>
-        </is>
-      </c>
-      <c r="B439" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="440">
-      <c r="A440" t="inlineStr">
-        <is>
-          <t>vivhammondd</t>
-        </is>
-      </c>
-      <c r="B440" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="441">
-      <c r="A441" t="inlineStr">
-        <is>
-          <t>tim.o_h.thee</t>
-        </is>
-      </c>
-      <c r="B441" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="442">
-      <c r="A442" t="inlineStr">
-        <is>
-          <t>reginaeeeeee</t>
-        </is>
-      </c>
-      <c r="B442" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="443">
-      <c r="A443" t="inlineStr">
-        <is>
-          <t>its_just_dannyg</t>
-        </is>
-      </c>
-      <c r="B443" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="444">
-      <c r="A444" t="inlineStr">
-        <is>
-          <t>1pacco_</t>
-        </is>
-      </c>
-      <c r="B444" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="445">
-      <c r="A445" t="inlineStr">
-        <is>
-          <t>mal.ikaaa3</t>
-        </is>
-      </c>
-      <c r="B445" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="446">
-      <c r="A446" t="inlineStr">
-        <is>
-          <t>k.i.t.t.a.n.a</t>
-        </is>
-      </c>
-      <c r="B446" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="447">
-      <c r="A447" t="inlineStr">
-        <is>
-          <t>n_amxni</t>
-        </is>
-      </c>
-      <c r="B447" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="448">
-      <c r="A448" t="inlineStr">
-        <is>
-          <t>literallyvictoria</t>
-        </is>
-      </c>
-      <c r="B448" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="449">
-      <c r="A449" t="inlineStr">
-        <is>
-          <t>harpersapisces</t>
-        </is>
-      </c>
-      <c r="B449" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="450">
-      <c r="A450" t="inlineStr">
-        <is>
-          <t>jackscalaa</t>
-        </is>
-      </c>
-      <c r="B450" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="451">
-      <c r="A451" t="inlineStr">
-        <is>
-          <t>mar_mar9491</t>
-        </is>
-      </c>
-      <c r="B451" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="452">
-      <c r="A452" t="inlineStr">
-        <is>
-          <t>jesse.4am</t>
-        </is>
-      </c>
-      <c r="B452" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="453">
-      <c r="A453" t="inlineStr">
-        <is>
-          <t>patty__rick_</t>
-        </is>
-      </c>
-      <c r="B453" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="454">
-      <c r="A454" t="inlineStr">
-        <is>
-          <t>a.fraley6</t>
-        </is>
-      </c>
-      <c r="B454" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="455">
-      <c r="A455" t="inlineStr">
-        <is>
-          <t>mikeyla.bagley</t>
-        </is>
-      </c>
-      <c r="B455" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="456">
-      <c r="A456" t="inlineStr">
-        <is>
-          <t>bemnet1.6</t>
-        </is>
-      </c>
-      <c r="B456" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="457">
-      <c r="A457" t="inlineStr">
-        <is>
-          <t>justimki</t>
-        </is>
-      </c>
-      <c r="B457" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="458">
-      <c r="A458" t="inlineStr">
-        <is>
-          <t>harrisonb_smith</t>
-        </is>
-      </c>
-      <c r="B458" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="459">
-      <c r="A459" t="inlineStr">
-        <is>
-          <t>t4y1orxx</t>
-        </is>
-      </c>
-      <c r="B459" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="460">
-      <c r="A460" t="inlineStr">
-        <is>
-          <t>lik2hawd</t>
-        </is>
-      </c>
-      <c r="B460" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="461">
-      <c r="A461" t="inlineStr">
-        <is>
-          <t>neckomata</t>
-        </is>
-      </c>
-      <c r="B461" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="462">
-      <c r="A462" t="inlineStr">
-        <is>
-          <t>jadenduckedoff</t>
-        </is>
-      </c>
-      <c r="B462" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="463">
-      <c r="A463" t="inlineStr">
-        <is>
-          <t>joooleyah</t>
-        </is>
-      </c>
-      <c r="B463" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="464">
-      <c r="A464" t="inlineStr">
-        <is>
-          <t>javieri_04</t>
-        </is>
-      </c>
-      <c r="B464" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="465">
-      <c r="A465" t="inlineStr">
-        <is>
-          <t>moon.milkshake</t>
-        </is>
-      </c>
-      <c r="B465" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="466">
-      <c r="A466" t="inlineStr">
-        <is>
-          <t>brianna_kala_</t>
-        </is>
-      </c>
-      <c r="B466" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="467">
-      <c r="A467" t="inlineStr">
-        <is>
-          <t>itss._jojo</t>
-        </is>
-      </c>
-      <c r="B467" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="468">
-      <c r="A468" t="inlineStr">
-        <is>
-          <t>sooinluvvwithceyy</t>
-        </is>
-      </c>
-      <c r="B468" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="469">
-      <c r="A469" t="inlineStr">
-        <is>
-          <t>duchieeszn_</t>
-        </is>
-      </c>
-      <c r="B469" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="470">
-      <c r="A470" t="inlineStr">
-        <is>
-          <t>tiannanashe_</t>
-        </is>
-      </c>
-      <c r="B470" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="471">
-      <c r="A471" t="inlineStr">
-        <is>
-          <t>jt.blk_well</t>
-        </is>
-      </c>
-      <c r="B471" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="472">
-      <c r="A472" t="inlineStr">
-        <is>
-          <t>eia_l_j_h</t>
-        </is>
-      </c>
-      <c r="B472" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="473">
-      <c r="A473" t="inlineStr">
-        <is>
-          <t>ms.milaniaaa</t>
-        </is>
-      </c>
-      <c r="B473" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="474">
-      <c r="A474" t="inlineStr">
-        <is>
-          <t>itsmalikjayvonn</t>
-        </is>
-      </c>
-      <c r="B474" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="475">
-      <c r="A475" t="inlineStr">
-        <is>
-          <t>itzmdk_evong</t>
-        </is>
-      </c>
-      <c r="B475" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476" t="inlineStr">
-        <is>
-          <t>elizabean1211</t>
-        </is>
-      </c>
-      <c r="B476" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" t="inlineStr">
-        <is>
-          <t>odunphc</t>
-        </is>
-      </c>
-      <c r="B477" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" t="inlineStr">
-        <is>
-          <t>222.rita</t>
-        </is>
-      </c>
-      <c r="B478" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" t="inlineStr">
-        <is>
-          <t>tr4ph0us3.gasd3m0n</t>
-        </is>
-      </c>
-      <c r="B479" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480" t="inlineStr">
-        <is>
-          <t>tolu._3</t>
-        </is>
-      </c>
-      <c r="B480" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="481">
-      <c r="A481" t="inlineStr">
-        <is>
-          <t>peytonnshumate</t>
-        </is>
-      </c>
-      <c r="B481" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="482">
-      <c r="A482" t="inlineStr">
-        <is>
-          <t>_trixiebankss_</t>
-        </is>
-      </c>
-      <c r="B482" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="483">
-      <c r="A483" t="inlineStr">
-        <is>
-          <t>ciaramuug</t>
-        </is>
-      </c>
-      <c r="B483" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="484">
-      <c r="A484" t="inlineStr">
-        <is>
-          <t>eyonnamonaeee</t>
-        </is>
-      </c>
-      <c r="B484" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="485">
-      <c r="A485" t="inlineStr">
-        <is>
-          <t>justlivin__lj05</t>
-        </is>
-      </c>
-      <c r="B485" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="486">
-      <c r="A486" t="inlineStr">
-        <is>
-          <t>tdmcv_girl</t>
-        </is>
-      </c>
-      <c r="B486" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="487">
-      <c r="A487" t="inlineStr">
-        <is>
-          <t>kylahdenaee_</t>
-        </is>
-      </c>
-      <c r="B487" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="488">
-      <c r="A488" t="inlineStr">
-        <is>
-          <t>labonte.abbey</t>
-        </is>
-      </c>
-      <c r="B488" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="489">
-      <c r="A489" t="inlineStr">
-        <is>
-          <t>maelynaltman</t>
-        </is>
-      </c>
-      <c r="B489" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="490">
-      <c r="A490" t="inlineStr">
-        <is>
-          <t>miracle.carranza</t>
-        </is>
-      </c>
-      <c r="B490" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="491">
-      <c r="A491" t="inlineStr">
-        <is>
-          <t>m.magaro3</t>
-        </is>
-      </c>
-      <c r="B491" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="492">
-      <c r="A492" t="inlineStr">
-        <is>
-          <t>aaymaaxco</t>
-        </is>
-      </c>
-      <c r="B492" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="493">
-      <c r="A493" t="inlineStr">
-        <is>
-          <t>ngregory31</t>
-        </is>
-      </c>
-      <c r="B493" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="494">
-      <c r="A494" t="inlineStr">
-        <is>
-          <t>_samyrahh_</t>
-        </is>
-      </c>
-      <c r="B494" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="495">
-      <c r="A495" t="inlineStr">
-        <is>
-          <t>oduwomensgenderstudies</t>
-        </is>
-      </c>
-      <c r="B495" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="496">
-      <c r="A496" t="inlineStr">
-        <is>
-          <t>sarah.richardsonnn</t>
-        </is>
-      </c>
-      <c r="B496" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="497">
-      <c r="A497" t="inlineStr">
-        <is>
-          <t>shawnfii_</t>
-        </is>
-      </c>
-      <c r="B497" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="498">
-      <c r="A498" t="inlineStr">
-        <is>
-          <t>walkerwoood</t>
-        </is>
-      </c>
-      <c r="B498" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="499">
-      <c r="A499" t="inlineStr">
-        <is>
-          <t>jayshoelessspam</t>
-        </is>
-      </c>
-      <c r="B499" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="500">
-      <c r="A500" t="inlineStr">
-        <is>
-          <t>amylucia_2107</t>
-        </is>
-      </c>
-      <c r="B500" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="501">
-      <c r="A501" t="inlineStr">
-        <is>
-          <t>ajdimichele</t>
-        </is>
-      </c>
-      <c r="B501" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="502">
-      <c r="A502" t="inlineStr">
-        <is>
-          <t>bodenbeep._.sam</t>
-        </is>
-      </c>
-      <c r="B502" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="503">
-      <c r="A503" t="inlineStr">
-        <is>
-          <t>bellae.scott</t>
-        </is>
-      </c>
-      <c r="B503" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="504">
-      <c r="A504" t="inlineStr">
-        <is>
-          <t>malasiaaa.__</t>
-        </is>
-      </c>
-      <c r="B504" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="505">
-      <c r="A505" t="inlineStr">
-        <is>
-          <t>kitsuxmarie</t>
-        </is>
-      </c>
-      <c r="B505" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="506">
-      <c r="A506" t="inlineStr">
-        <is>
-          <t>chlo.southernnn</t>
-        </is>
-      </c>
-      <c r="B506" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="507">
-      <c r="A507" t="inlineStr">
-        <is>
-          <t>nayamelanie</t>
-        </is>
-      </c>
-      <c r="B507" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="508">
-      <c r="A508" t="inlineStr">
-        <is>
-          <t>cxmvirtuoso</t>
-        </is>
-      </c>
-      <c r="B508" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="509">
-      <c r="A509" t="inlineStr">
-        <is>
-          <t>itss.kyiaa</t>
-        </is>
-      </c>
-      <c r="B509" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="510">
-      <c r="A510" t="inlineStr">
-        <is>
-          <t>jddaavviiss</t>
-        </is>
-      </c>
-      <c r="B510" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="511">
-      <c r="A511" t="inlineStr">
-        <is>
-          <t>hello_kerri_</t>
-        </is>
-      </c>
-      <c r="B511" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="512">
-      <c r="A512" t="inlineStr">
-        <is>
-          <t>jmarrriiii</t>
-        </is>
-      </c>
-      <c r="B512" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="513">
-      <c r="A513" t="inlineStr">
-        <is>
-          <t>yanirachane1</t>
-        </is>
-      </c>
-      <c r="B513" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="514">
-      <c r="A514" t="inlineStr">
-        <is>
-          <t>panintheabyss</t>
-        </is>
-      </c>
-      <c r="B514" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="515">
-      <c r="A515" t="inlineStr">
-        <is>
-          <t>symonehopeee</t>
-        </is>
-      </c>
-      <c r="B515" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="516">
-      <c r="A516" t="inlineStr">
-        <is>
-          <t>goated_dom</t>
-        </is>
-      </c>
-      <c r="B516" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="517">
-      <c r="A517" t="inlineStr">
-        <is>
-          <t>colormeinkguy</t>
-        </is>
-      </c>
-      <c r="B517" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="518">
-      <c r="A518" t="inlineStr">
-        <is>
-          <t>desthagoatt</t>
-        </is>
-      </c>
-      <c r="B518" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="519">
-      <c r="A519" t="inlineStr">
-        <is>
-          <t>ha.alle</t>
-        </is>
-      </c>
-      <c r="B519" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="520">
-      <c r="A520" t="inlineStr">
-        <is>
-          <t>_cassidy_na</t>
-        </is>
-      </c>
-      <c r="B520" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="521">
-      <c r="A521" t="inlineStr">
-        <is>
-          <t>baydensajko</t>
-        </is>
-      </c>
-      <c r="B521" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="522">
-      <c r="A522" t="inlineStr">
-        <is>
-          <t>emjayfelder</t>
-        </is>
-      </c>
-      <c r="B522" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="523">
-      <c r="A523" t="inlineStr">
-        <is>
-          <t>m00n_boy222</t>
-        </is>
-      </c>
-      <c r="B523" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="524">
-      <c r="A524" t="inlineStr">
-        <is>
-          <t>stephmenendez04</t>
-        </is>
-      </c>
-      <c r="B524" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="525">
-      <c r="A525" t="inlineStr">
-        <is>
-          <t>theyadore._miracle</t>
-        </is>
-      </c>
-      <c r="B525" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="526">
-      <c r="A526" t="inlineStr">
-        <is>
-          <t>luvfatimah</t>
-        </is>
-      </c>
-      <c r="B526" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="527">
-      <c r="A527" t="inlineStr">
-        <is>
-          <t>alexisdrayton</t>
-        </is>
-      </c>
-      <c r="B527" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="528">
-      <c r="A528" t="inlineStr">
-        <is>
-          <t>noeliamccaffery</t>
-        </is>
-      </c>
-      <c r="B528" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="529">
-      <c r="A529" t="inlineStr">
-        <is>
-          <t>mol_jacob23</t>
-        </is>
-      </c>
-      <c r="B529" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="530">
-      <c r="A530" t="inlineStr">
-        <is>
-          <t>mol_tamora23</t>
-        </is>
-      </c>
-      <c r="B530" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="531">
-      <c r="A531" t="inlineStr">
-        <is>
-          <t>lucykenworthy3</t>
-        </is>
-      </c>
-      <c r="B531" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="532">
-      <c r="A532" t="inlineStr">
-        <is>
-          <t>hey.its_isabella</t>
-        </is>
-      </c>
-      <c r="B532" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="533">
-      <c r="A533" t="inlineStr">
-        <is>
-          <t>kreative_kiera</t>
-        </is>
-      </c>
-      <c r="B533" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="534">
-      <c r="A534" t="inlineStr">
-        <is>
-          <t>sarah.phil_</t>
-        </is>
-      </c>
-      <c r="B534" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="535">
-      <c r="A535" t="inlineStr">
-        <is>
-          <t>elijah.sledge</t>
-        </is>
-      </c>
-      <c r="B535" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="536">
-      <c r="A536" t="inlineStr">
-        <is>
-          <t>connor_p28</t>
-        </is>
-      </c>
-      <c r="B536" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="537">
-      <c r="A537" t="inlineStr">
-        <is>
-          <t>rae.ehde</t>
-        </is>
-      </c>
-      <c r="B537" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="538">
-      <c r="A538" t="inlineStr">
-        <is>
-          <t>may.life757</t>
-        </is>
-      </c>
-      <c r="B538" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="539">
-      <c r="A539" t="inlineStr">
-        <is>
-          <t>koko.klassics</t>
-        </is>
-      </c>
-      <c r="B539" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="540">
-      <c r="A540" t="inlineStr">
-        <is>
-          <t>myahdent</t>
-        </is>
-      </c>
-      <c r="B540" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="541">
-      <c r="A541" t="inlineStr">
-        <is>
-          <t>_tiyaaa.xo</t>
-        </is>
-      </c>
-      <c r="B541" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="542">
-      <c r="A542" t="inlineStr">
-        <is>
-          <t>elusive.geegee</t>
-        </is>
-      </c>
-      <c r="B542" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="543">
-      <c r="A543" t="inlineStr">
-        <is>
-          <t>rafaeljimenez0</t>
-        </is>
-      </c>
-      <c r="B543" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="544">
-      <c r="A544" t="inlineStr">
-        <is>
-          <t>carlisahh._</t>
-        </is>
-      </c>
-      <c r="B544" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="545">
-      <c r="A545" t="inlineStr">
-        <is>
-          <t>riley.lyles</t>
-        </is>
-      </c>
-      <c r="B545" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="546">
-      <c r="A546" t="inlineStr">
-        <is>
-          <t>baddlike.de</t>
-        </is>
-      </c>
-      <c r="B546" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="547">
-      <c r="A547" t="inlineStr">
-        <is>
-          <t>gelohavinn</t>
-        </is>
-      </c>
-      <c r="B547" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="548">
-      <c r="A548" t="inlineStr">
-        <is>
-          <t>rebeccasaniaa</t>
-        </is>
-      </c>
-      <c r="B548" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="549">
-      <c r="A549" t="inlineStr">
-        <is>
-          <t>makayyy.xo</t>
-        </is>
-      </c>
-      <c r="B549" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="550">
-      <c r="A550" t="inlineStr">
-        <is>
-          <t>lillian_copeland_15</t>
-        </is>
-      </c>
-      <c r="B550" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="551">
-      <c r="A551" t="inlineStr">
-        <is>
-          <t>_dabrattjae</t>
-        </is>
-      </c>
-      <c r="B551" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="552">
-      <c r="A552" t="inlineStr">
-        <is>
-          <t>evanjk13</t>
-        </is>
-      </c>
-      <c r="B552" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="553">
-      <c r="A553" t="inlineStr">
-        <is>
-          <t>noah.caliendo</t>
-        </is>
-      </c>
-      <c r="B553" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="554">
-      <c r="A554" t="inlineStr">
-        <is>
-          <t>r1anr31d</t>
-        </is>
-      </c>
-      <c r="B554" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="555">
-      <c r="A555" t="inlineStr">
-        <is>
-          <t>eriicadawn</t>
-        </is>
-      </c>
-      <c r="B555" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="556">
-      <c r="A556" t="inlineStr">
-        <is>
-          <t>757_jakek</t>
-        </is>
-      </c>
-      <c r="B556" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="557">
-      <c r="A557" t="inlineStr">
-        <is>
-          <t>sophie.cluck</t>
-        </is>
-      </c>
-      <c r="B557" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="558">
-      <c r="A558" t="inlineStr">
-        <is>
-          <t>kayy.kurlss</t>
-        </is>
-      </c>
-      <c r="B558" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="559">
-      <c r="A559" t="inlineStr">
-        <is>
-          <t>storyof0nesty</t>
-        </is>
-      </c>
-      <c r="B559" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="560">
-      <c r="A560" t="inlineStr">
-        <is>
-          <t>benn.wells</t>
-        </is>
-      </c>
-      <c r="B560" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="561">
-      <c r="A561" t="inlineStr">
-        <is>
-          <t>nataleemarieee</t>
-        </is>
-      </c>
-      <c r="B561" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="562">
-      <c r="A562" t="inlineStr">
-        <is>
-          <t>odu_set</t>
-        </is>
-      </c>
-      <c r="B562" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="563">
-      <c r="A563" t="inlineStr">
-        <is>
-          <t>thatprettyscorpio</t>
-        </is>
-      </c>
-      <c r="B563" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="564">
-      <c r="A564" t="inlineStr">
-        <is>
-          <t>monarchdining</t>
-        </is>
-      </c>
-      <c r="B564" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="565">
-      <c r="A565" t="inlineStr">
-        <is>
-          <t>codename.ajj</t>
-        </is>
-      </c>
-      <c r="B565" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="566">
-      <c r="A566" t="inlineStr">
-        <is>
-          <t>amour.oliviaa</t>
-        </is>
-      </c>
-      <c r="B566" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="567">
-      <c r="A567" t="inlineStr">
-        <is>
-          <t>757_reel_lady</t>
-        </is>
-      </c>
-      <c r="B567" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="568">
-      <c r="A568" t="inlineStr">
-        <is>
-          <t>lexiibiancaa</t>
-        </is>
-      </c>
-      <c r="B568" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="569">
-      <c r="A569" t="inlineStr">
-        <is>
-          <t>sidney.stith</t>
-        </is>
-      </c>
-      <c r="B569" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="570">
-      <c r="A570" t="inlineStr">
-        <is>
-          <t>janiicrepe_</t>
-        </is>
-      </c>
-      <c r="B570" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="571">
-      <c r="A571" t="inlineStr">
-        <is>
-          <t>hassanmo.11</t>
-        </is>
-      </c>
-      <c r="B571" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="572">
-      <c r="A572" t="inlineStr">
-        <is>
-          <t>domhavinn</t>
-        </is>
-      </c>
-      <c r="B572" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="573">
-      <c r="A573" t="inlineStr">
-        <is>
-          <t>mariellexsamson</t>
-        </is>
-      </c>
-      <c r="B573" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="574">
-      <c r="A574" t="inlineStr">
-        <is>
-          <t>sophia_sharnnnn</t>
-        </is>
-      </c>
-      <c r="B574" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="575">
-      <c r="A575" t="inlineStr">
-        <is>
-          <t>vb.sean</t>
-        </is>
-      </c>
-      <c r="B575" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="576">
-      <c r="A576" t="inlineStr">
-        <is>
-          <t>naja.brielle</t>
-        </is>
-      </c>
-      <c r="B576" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="577">
-      <c r="A577" t="inlineStr">
-        <is>
-          <t>channyn_b</t>
-        </is>
-      </c>
-      <c r="B577" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="578">
-      <c r="A578" t="inlineStr">
-        <is>
-          <t>malzxl</t>
-        </is>
-      </c>
-      <c r="B578" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="579">
-      <c r="A579" t="inlineStr">
-        <is>
-          <t>jsith44</t>
-        </is>
-      </c>
-      <c r="B579" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="580">
-      <c r="A580" t="inlineStr">
-        <is>
-          <t>bratlyn1998</t>
-        </is>
-      </c>
-      <c r="B580" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="581">
-      <c r="A581" t="inlineStr">
-        <is>
-          <t>oliviaashardae</t>
-        </is>
-      </c>
-      <c r="B581" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="582">
-      <c r="A582" t="inlineStr">
-        <is>
-          <t>audrakaeperry</t>
-        </is>
-      </c>
-      <c r="B582" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="583">
-      <c r="A583" t="inlineStr">
-        <is>
-          <t>trefrm301</t>
-        </is>
-      </c>
-      <c r="B583" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="584">
-      <c r="A584" t="inlineStr">
-        <is>
-          <t>tania.anyaa</t>
-        </is>
-      </c>
-      <c r="B584" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="585">
-      <c r="A585" t="inlineStr">
-        <is>
-          <t>allyselene_</t>
-        </is>
-      </c>
-      <c r="B585" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="586">
-      <c r="A586" t="inlineStr">
-        <is>
-          <t>kylie.lesina</t>
-        </is>
-      </c>
-      <c r="B586" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="587">
-      <c r="A587" t="inlineStr">
-        <is>
-          <t>cityboykari</t>
-        </is>
-      </c>
-      <c r="B587" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="588">
-      <c r="A588" t="inlineStr">
-        <is>
-          <t>its_a_no_from.me</t>
-        </is>
-      </c>
-      <c r="B588" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="589">
-      <c r="A589" t="inlineStr">
-        <is>
-          <t>dj_.miahhh</t>
-        </is>
-      </c>
-      <c r="B589" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="590">
-      <c r="A590" t="inlineStr">
-        <is>
-          <t>cjsucks87</t>
-        </is>
-      </c>
-      <c r="B590" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="591">
-      <c r="A591" t="inlineStr">
-        <is>
-          <t>lilianamilaniii</t>
-        </is>
-      </c>
-      <c r="B591" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="592">
-      <c r="A592" t="inlineStr">
-        <is>
-          <t>trinaaa.nguyen</t>
-        </is>
-      </c>
-      <c r="B592" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="593">
-      <c r="A593" t="inlineStr">
-        <is>
-          <t>rj_the_goat_</t>
-        </is>
-      </c>
-      <c r="B593" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="594">
-      <c r="A594" t="inlineStr">
-        <is>
-          <t>care.degss</t>
-        </is>
-      </c>
-      <c r="B594" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="595">
-      <c r="A595" t="inlineStr">
-        <is>
-          <t>issa.bellax</t>
-        </is>
-      </c>
-      <c r="B595" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="596">
-      <c r="A596" t="inlineStr">
-        <is>
-          <t>denimroberson</t>
-        </is>
-      </c>
-      <c r="B596" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="597">
-      <c r="A597" t="inlineStr">
-        <is>
-          <t>oliviaphillips._</t>
-        </is>
-      </c>
-      <c r="B597" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="598">
-      <c r="A598" t="inlineStr">
-        <is>
-          <t>mol_seevounm23</t>
-        </is>
-      </c>
-      <c r="B598" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="599">
-      <c r="A599" t="inlineStr">
-        <is>
-          <t>aniyahxnicole</t>
-        </is>
-      </c>
-      <c r="B599" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="600">
-      <c r="A600" t="inlineStr">
-        <is>
-          <t>alexandrajay._</t>
-        </is>
-      </c>
-      <c r="B600" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="601">
-      <c r="A601" t="inlineStr">
-        <is>
-          <t>1i1chick</t>
-        </is>
-      </c>
-      <c r="B601" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="602">
-      <c r="A602" t="inlineStr">
-        <is>
-          <t>yeh.dii_</t>
-        </is>
-      </c>
-      <c r="B602" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="603">
-      <c r="A603" t="inlineStr">
-        <is>
-          <t>maddieecochran</t>
-        </is>
-      </c>
-      <c r="B603" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="604">
-      <c r="A604" t="inlineStr">
-        <is>
-          <t>puma2xx._</t>
-        </is>
-      </c>
-      <c r="B604" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="605">
-      <c r="A605" t="inlineStr">
-        <is>
-          <t>nolawit.a</t>
-        </is>
-      </c>
-      <c r="B605" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="606">
-      <c r="A606" t="inlineStr">
-        <is>
-          <t>_adriiana.gc</t>
-        </is>
-      </c>
-      <c r="B606" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="607">
-      <c r="A607" t="inlineStr">
-        <is>
-          <t>so_itsdamari</t>
-        </is>
-      </c>
-      <c r="B607" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="608">
-      <c r="A608" t="inlineStr">
-        <is>
-          <t>sweet_tangerine_dreams</t>
-        </is>
-      </c>
-      <c r="B608" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="609">
-      <c r="A609" t="inlineStr">
-        <is>
-          <t>theyounginn__</t>
-        </is>
-      </c>
-      <c r="B609" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="610">
-      <c r="A610" t="inlineStr">
-        <is>
-          <t>x.o.evie</t>
-        </is>
-      </c>
-      <c r="B610" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="611">
-      <c r="A611" t="inlineStr">
-        <is>
-          <t>q2timesss</t>
-        </is>
-      </c>
-      <c r="B611" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="612">
-      <c r="A612" t="inlineStr">
-        <is>
-          <t>ryaahdagreat</t>
-        </is>
-      </c>
-      <c r="B612" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="613">
-      <c r="A613" t="inlineStr">
-        <is>
-          <t>ag_whalen</t>
-        </is>
-      </c>
-      <c r="B613" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="614">
-      <c r="A614" t="inlineStr">
-        <is>
-          <t>marquiswarrennn</t>
-        </is>
-      </c>
-      <c r="B614" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="615">
-      <c r="A615" t="inlineStr">
-        <is>
-          <t>kiyahbby_</t>
-        </is>
-      </c>
-      <c r="B615" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="616">
-      <c r="A616" t="inlineStr">
-        <is>
-          <t>_jayla.morch_</t>
-        </is>
-      </c>
-      <c r="B616" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="617">
-      <c r="A617" t="inlineStr">
-        <is>
-          <t>jenna.kocen</t>
-        </is>
-      </c>
-      <c r="B617" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="618">
-      <c r="A618" t="inlineStr">
-        <is>
-          <t>shynotlow</t>
-        </is>
-      </c>
-      <c r="B618" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="619">
-      <c r="A619" t="inlineStr">
-        <is>
-          <t>lilyamaris</t>
-        </is>
-      </c>
-      <c r="B619" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="620">
-      <c r="A620" t="inlineStr">
-        <is>
-          <t>gabby.amarti</t>
-        </is>
-      </c>
-      <c r="B620" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="621">
-      <c r="A621" t="inlineStr">
-        <is>
-          <t>thebonnetburglar</t>
-        </is>
-      </c>
-      <c r="B621" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="622">
-      <c r="A622" t="inlineStr">
-        <is>
-          <t>teeee543</t>
-        </is>
-      </c>
-      <c r="B622" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="623">
-      <c r="A623" t="inlineStr">
-        <is>
-          <t>motionnmanmike</t>
-        </is>
-      </c>
-      <c r="B623" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="624">
-      <c r="A624" t="inlineStr">
-        <is>
-          <t>d.eme.tria</t>
-        </is>
-      </c>
-      <c r="B624" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="625">
-      <c r="A625" t="inlineStr">
-        <is>
-          <t>odu_fits</t>
-        </is>
-      </c>
-      <c r="B625" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="626">
-      <c r="A626" t="inlineStr">
-        <is>
-          <t>_jayneshe</t>
-        </is>
-      </c>
-      <c r="B626" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="627">
-      <c r="A627" t="inlineStr">
-        <is>
-          <t>_glama_gurl_</t>
-        </is>
-      </c>
-      <c r="B627" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="628">
-      <c r="A628" t="inlineStr">
-        <is>
-          <t>ciarahdudley</t>
-        </is>
-      </c>
-      <c r="B628" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="629">
-      <c r="A629" t="inlineStr">
-        <is>
-          <t>_maddy_wright_</t>
-        </is>
-      </c>
-      <c r="B629" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="630">
-      <c r="A630" t="inlineStr">
-        <is>
-          <t>mochav.exe</t>
-        </is>
-      </c>
-      <c r="B630" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="631">
-      <c r="A631" t="inlineStr">
-        <is>
-          <t>yofavv_miraa</t>
-        </is>
-      </c>
-      <c r="B631" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="632">
-      <c r="A632" t="inlineStr">
-        <is>
-          <t>aanyyarenee</t>
-        </is>
-      </c>
-      <c r="B632" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="633">
-      <c r="A633" t="inlineStr">
-        <is>
-          <t>__itz_ashley__</t>
-        </is>
-      </c>
-      <c r="B633" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="634">
-      <c r="A634" t="inlineStr">
-        <is>
-          <t>quanowtff</t>
-        </is>
-      </c>
-      <c r="B634" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="635">
-      <c r="A635" t="inlineStr">
-        <is>
-          <t>_.genesis25._</t>
-        </is>
-      </c>
-      <c r="B635" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="636">
-      <c r="A636" t="inlineStr">
-        <is>
-          <t>relaxcc_</t>
-        </is>
-      </c>
-      <c r="B636" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="637">
-      <c r="A637" t="inlineStr">
-        <is>
-          <t>eelenammarie</t>
-        </is>
-      </c>
-      <c r="B637" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="638">
-      <c r="A638" t="inlineStr">
-        <is>
-          <t>_duhhitsneee</t>
-        </is>
-      </c>
-      <c r="B638" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="639">
-      <c r="A639" t="inlineStr">
-        <is>
-          <t>cassieradfordd</t>
-        </is>
-      </c>
-      <c r="B639" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="640">
-      <c r="A640" t="inlineStr">
-        <is>
-          <t>jordann1x1</t>
-        </is>
-      </c>
-      <c r="B640" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="641">
-      <c r="A641" t="inlineStr">
-        <is>
-          <t>kayla_8105</t>
-        </is>
-      </c>
-      <c r="B641" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="642">
-      <c r="A642" t="inlineStr">
-        <is>
-          <t>jan_.niece</t>
-        </is>
-      </c>
-      <c r="B642" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="643">
-      <c r="A643" t="inlineStr">
-        <is>
-          <t>nataly_diaz23</t>
-        </is>
-      </c>
-      <c r="B643" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="644">
-      <c r="A644" t="inlineStr">
-        <is>
-          <t>a_tray_ee</t>
-        </is>
-      </c>
-      <c r="B644" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="645">
-      <c r="A645" t="inlineStr">
-        <is>
-          <t>iiaamlizz__</t>
-        </is>
-      </c>
-      <c r="B645" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="646">
-      <c r="A646" t="inlineStr">
-        <is>
-          <t>mearose27</t>
-        </is>
-      </c>
-      <c r="B646" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="647">
-      <c r="A647" t="inlineStr">
-        <is>
-          <t>greycannaday</t>
-        </is>
-      </c>
-      <c r="B647" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="648">
-      <c r="A648" t="inlineStr">
-        <is>
-          <t>almst2perfctn</t>
-        </is>
-      </c>
-      <c r="B648" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="649">
-      <c r="A649" t="inlineStr">
-        <is>
-          <t>amberrlaurenn</t>
-        </is>
-      </c>
-      <c r="B649" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="650">
-      <c r="A650" t="inlineStr">
-        <is>
-          <t>m0ney.mink_</t>
-        </is>
-      </c>
-      <c r="B650" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="651">
-      <c r="A651" t="inlineStr">
-        <is>
-          <t>amariya_13</t>
-        </is>
-      </c>
-      <c r="B651" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="652">
-      <c r="A652" t="inlineStr">
-        <is>
-          <t>yrn._.malxolm</t>
-        </is>
-      </c>
-      <c r="B652" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="653">
-      <c r="A653" t="inlineStr">
-        <is>
-          <t>1nonly_dez</t>
-        </is>
-      </c>
-      <c r="B653" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="654">
-      <c r="A654" t="inlineStr">
-        <is>
-          <t>_summeer.lovee</t>
-        </is>
-      </c>
-      <c r="B654" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="655">
-      <c r="A655" t="inlineStr">
-        <is>
-          <t>_xo.torii</t>
-        </is>
-      </c>
-      <c r="B655" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="656">
-      <c r="A656" t="inlineStr">
-        <is>
-          <t>k_knobl</t>
-        </is>
-      </c>
-      <c r="B656" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="657">
-      <c r="A657" t="inlineStr">
-        <is>
-          <t>chandlerryannee</t>
-        </is>
-      </c>
-      <c r="B657" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="658">
-      <c r="A658" t="inlineStr">
-        <is>
-          <t>niyahcamilla</t>
-        </is>
-      </c>
-      <c r="B658" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="659">
-      <c r="A659" t="inlineStr">
-        <is>
-          <t>jeremiahboyyd</t>
-        </is>
-      </c>
-      <c r="B659" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="660">
-      <c r="A660" t="inlineStr">
-        <is>
-          <t>_liltori</t>
-        </is>
-      </c>
-      <c r="B660" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="661">
-      <c r="A661" t="inlineStr">
-        <is>
-          <t>meyahgardner</t>
-        </is>
-      </c>
-      <c r="B661" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="662">
-      <c r="A662" t="inlineStr">
-        <is>
-          <t>cierra.333</t>
-        </is>
-      </c>
-      <c r="B662" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="663">
-      <c r="A663" t="inlineStr">
-        <is>
-          <t>ethan.hampton_</t>
-        </is>
-      </c>
-      <c r="B663" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="664">
-      <c r="A664" t="inlineStr">
-        <is>
-          <t>exoticliyah__</t>
-        </is>
-      </c>
-      <c r="B664" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="665">
-      <c r="A665" t="inlineStr">
-        <is>
-          <t>xoxo.monte_</t>
-        </is>
-      </c>
-      <c r="B665" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Marketing/odu.roomme.xlsx
+++ b/Marketing/odu.roomme.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Followers" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -422,12 +434,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Follower</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Contacted</t>
         </is>
@@ -440,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -450,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -460,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -470,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -480,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -500,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -510,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -520,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -530,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -540,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -550,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -560,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -570,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -580,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -590,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -600,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -610,7 +622,7 @@
         </is>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -620,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -630,7 +642,7 @@
         </is>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -640,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -650,7 +662,7 @@
         </is>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -660,7 +672,7 @@
         </is>
       </c>
       <c r="B24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -670,7 +682,7 @@
         </is>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -680,7 +692,7 @@
         </is>
       </c>
       <c r="B26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -690,7 +702,7 @@
         </is>
       </c>
       <c r="B27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -700,7 +712,7 @@
         </is>
       </c>
       <c r="B28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -710,7 +722,7 @@
         </is>
       </c>
       <c r="B29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -720,7 +732,7 @@
         </is>
       </c>
       <c r="B30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -730,7 +742,7 @@
         </is>
       </c>
       <c r="B31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -740,7 +752,7 @@
         </is>
       </c>
       <c r="B32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -750,7 +762,7 @@
         </is>
       </c>
       <c r="B33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -760,7 +772,7 @@
         </is>
       </c>
       <c r="B34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -770,7 +782,7 @@
         </is>
       </c>
       <c r="B35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -780,7 +792,7 @@
         </is>
       </c>
       <c r="B36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -790,7 +802,7 @@
         </is>
       </c>
       <c r="B37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -800,7 +812,7 @@
         </is>
       </c>
       <c r="B38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -810,7 +822,7 @@
         </is>
       </c>
       <c r="B39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -820,7 +832,7 @@
         </is>
       </c>
       <c r="B40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -830,7 +842,7 @@
         </is>
       </c>
       <c r="B41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -840,7 +852,7 @@
         </is>
       </c>
       <c r="B42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -850,7 +862,7 @@
         </is>
       </c>
       <c r="B43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -860,7 +872,7 @@
         </is>
       </c>
       <c r="B44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -870,7 +882,7 @@
         </is>
       </c>
       <c r="B45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -880,7 +892,7 @@
         </is>
       </c>
       <c r="B46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -890,7 +902,7 @@
         </is>
       </c>
       <c r="B47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -900,7 +912,7 @@
         </is>
       </c>
       <c r="B48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -910,7 +922,7 @@
         </is>
       </c>
       <c r="B49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -920,7 +932,7 @@
         </is>
       </c>
       <c r="B50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -930,7 +942,7 @@
         </is>
       </c>
       <c r="B51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -940,7 +952,7 @@
         </is>
       </c>
       <c r="B52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -950,7 +962,7 @@
         </is>
       </c>
       <c r="B53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -960,7 +972,7 @@
         </is>
       </c>
       <c r="B54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -970,7 +982,7 @@
         </is>
       </c>
       <c r="B55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +992,7 @@
         </is>
       </c>
       <c r="B56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -990,7 +1002,7 @@
         </is>
       </c>
       <c r="B57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -1000,7 +1012,7 @@
         </is>
       </c>
       <c r="B58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -1010,7 +1022,7 @@
         </is>
       </c>
       <c r="B59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -1020,7 +1032,7 @@
         </is>
       </c>
       <c r="B60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -1030,7 +1042,7 @@
         </is>
       </c>
       <c r="B61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -1040,7 +1052,7 @@
         </is>
       </c>
       <c r="B62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -1050,7 +1062,7 @@
         </is>
       </c>
       <c r="B63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -1060,7 +1072,7 @@
         </is>
       </c>
       <c r="B64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -1070,7 +1082,7 @@
         </is>
       </c>
       <c r="B65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -1080,7 +1092,7 @@
         </is>
       </c>
       <c r="B66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -1090,7 +1102,7 @@
         </is>
       </c>
       <c r="B67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -1100,7 +1112,7 @@
         </is>
       </c>
       <c r="B68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -1110,7 +1122,7 @@
         </is>
       </c>
       <c r="B69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -1120,7 +1132,7 @@
         </is>
       </c>
       <c r="B70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -1130,7 +1142,7 @@
         </is>
       </c>
       <c r="B71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -1140,7 +1152,7 @@
         </is>
       </c>
       <c r="B72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -1150,7 +1162,7 @@
         </is>
       </c>
       <c r="B73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -1160,7 +1172,7 @@
         </is>
       </c>
       <c r="B74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -1170,7 +1182,7 @@
         </is>
       </c>
       <c r="B75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -1180,7 +1192,7 @@
         </is>
       </c>
       <c r="B76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -1190,7 +1202,7 @@
         </is>
       </c>
       <c r="B77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -1200,7 +1212,7 @@
         </is>
       </c>
       <c r="B78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -1210,7 +1222,7 @@
         </is>
       </c>
       <c r="B79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -1220,7 +1232,7 @@
         </is>
       </c>
       <c r="B80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -1230,7 +1242,7 @@
         </is>
       </c>
       <c r="B81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -1240,7 +1252,7 @@
         </is>
       </c>
       <c r="B82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -1250,7 +1262,7 @@
         </is>
       </c>
       <c r="B83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -1260,7 +1272,7 @@
         </is>
       </c>
       <c r="B84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -1270,7 +1282,7 @@
         </is>
       </c>
       <c r="B85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -1280,7 +1292,7 @@
         </is>
       </c>
       <c r="B86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -1290,7 +1302,7 @@
         </is>
       </c>
       <c r="B87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -1300,7 +1312,7 @@
         </is>
       </c>
       <c r="B88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -1310,7 +1322,7 @@
         </is>
       </c>
       <c r="B89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -1320,7 +1332,7 @@
         </is>
       </c>
       <c r="B90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -1330,7 +1342,7 @@
         </is>
       </c>
       <c r="B91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -1340,7 +1352,7 @@
         </is>
       </c>
       <c r="B92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -1350,7 +1362,7 @@
         </is>
       </c>
       <c r="B93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -1360,7 +1372,7 @@
         </is>
       </c>
       <c r="B94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -1370,7 +1382,7 @@
         </is>
       </c>
       <c r="B95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -1380,7 +1392,7 @@
         </is>
       </c>
       <c r="B96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -1390,7 +1402,7 @@
         </is>
       </c>
       <c r="B97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -1400,7 +1412,7 @@
         </is>
       </c>
       <c r="B98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -1410,7 +1422,7 @@
         </is>
       </c>
       <c r="B99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -1420,7 +1432,7 @@
         </is>
       </c>
       <c r="B100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -1430,7 +1442,7 @@
         </is>
       </c>
       <c r="B101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -1440,7 +1452,7 @@
         </is>
       </c>
       <c r="B102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -1450,7 +1462,7 @@
         </is>
       </c>
       <c r="B103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -1460,7 +1472,7 @@
         </is>
       </c>
       <c r="B104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -1470,7 +1482,7 @@
         </is>
       </c>
       <c r="B105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -1480,7 +1492,7 @@
         </is>
       </c>
       <c r="B106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -1490,7 +1502,7 @@
         </is>
       </c>
       <c r="B107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -1500,7 +1512,7 @@
         </is>
       </c>
       <c r="B108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -1510,7 +1522,7 @@
         </is>
       </c>
       <c r="B109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -1520,7 +1532,7 @@
         </is>
       </c>
       <c r="B110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -1530,7 +1542,7 @@
         </is>
       </c>
       <c r="B111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -1540,7 +1552,7 @@
         </is>
       </c>
       <c r="B112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -1550,7 +1562,7 @@
         </is>
       </c>
       <c r="B113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -1560,7 +1572,7 @@
         </is>
       </c>
       <c r="B114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -1570,7 +1582,7 @@
         </is>
       </c>
       <c r="B115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -1580,7 +1592,7 @@
         </is>
       </c>
       <c r="B116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -1590,7 +1602,7 @@
         </is>
       </c>
       <c r="B117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -1600,7 +1612,7 @@
         </is>
       </c>
       <c r="B118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -1610,7 +1622,7 @@
         </is>
       </c>
       <c r="B119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -1620,7 +1632,7 @@
         </is>
       </c>
       <c r="B120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -1630,7 +1642,7 @@
         </is>
       </c>
       <c r="B121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">

--- a/Marketing/odu.roomme.xlsx
+++ b/Marketing/odu.roomme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B434"/>
+  <dimension ref="A1:B446"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ilynasia</t>
+          <t>sammy_leigh86</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>mol_seevounm23</t>
+          <t>_tname.kala</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -468,7 +468,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>superswagsarah</t>
+          <t>clarence4._</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -478,7 +478,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>so_itsdamari</t>
+          <t>_summeer.lovee</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -488,7 +488,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1pacco_</t>
+          <t>m.moseleyjr</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -498,7 +498,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>_diana._.r</t>
+          <t>_glama_gurl_</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>codename.ajj</t>
+          <t>xottic.franny</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ha.alle</t>
+          <t>ffltality</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>omegaphialphaodu</t>
+          <t>tajjani_</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -538,7 +538,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>brey.anna_</t>
+          <t>blakebennett05</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -548,7 +548,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>eman__walker</t>
+          <t>ciaramuug</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>marissa_.h._</t>
+          <t>walkerwoood</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>shavarrr</t>
+          <t>ps.quanya</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>panintheabyss</t>
+          <t>mochav.exe</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -588,7 +588,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>summyhill</t>
+          <t>khemaniiii</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -598,7 +598,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>__c.h.a.s.e._</t>
+          <t>kyrayasmine</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -608,7 +608,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>_tname.kala</t>
+          <t>oduvegans</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>stephanievaleriaaa</t>
+          <t>aashle1ghh</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -628,7 +628,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>kjh._277</t>
+          <t>masonh1871</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -638,7 +638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>kaayniicole</t>
+          <t>kayy.kurlss</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -648,7 +648,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>boonnneeeee_____</t>
+          <t>theyluvv.kyrie1</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -658,7 +658,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>itsfatmataaa</t>
+          <t>kylahdenaee_</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -668,7 +668,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>kev.tottin</t>
+          <t>eia_l_j_h</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -678,7 +678,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>_samyrahh_</t>
+          <t>sebas2x__</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>code_i.b</t>
+          <t>gswilliams10</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -698,7 +698,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>elhxdg</t>
+          <t>kevinbgloverll</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -708,7 +708,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>envyjudy._</t>
+          <t>m.quette</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -718,7 +718,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>alexa_evans_</t>
+          <t>divine._._.warrior</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -728,7 +728,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>t1juann_</t>
+          <t>babyyyy.nasia</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -738,7 +738,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>imm.jadaa</t>
+          <t>yeh.dii_</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -748,7 +748,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>_chrissyg_03</t>
+          <t>2xmiah</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -758,7 +758,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>exoticliyah__</t>
+          <t>k.i.t.t.a.n.a</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -768,7 +768,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>alisaromannnn</t>
+          <t>ariiibabiii_</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -778,7 +778,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>puma2xx._</t>
+          <t>patty__rick_</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -788,7 +788,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>say._baker</t>
+          <t>carlisahh._</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -798,7 +798,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>eriicadawn</t>
+          <t>quanowtff</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -808,7 +808,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>noeliamccaffery</t>
+          <t>_.r.x.ch.x.l._</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -818,7 +818,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>syyd.ni</t>
+          <t>jeremiahboyyd</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -828,7 +828,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>dejarochae</t>
+          <t>chrissy._.17</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -838,7 +838,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>liyahnicole.03</t>
+          <t>_jayneshe</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -848,7 +848,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>_.genesis25._</t>
+          <t>xoxo.monte_</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -858,7 +858,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>_l.eslie._</t>
+          <t>_.genesis25._</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -868,7 +868,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>_tiyaaa.xo</t>
+          <t>__stewart001</t>
         </is>
       </c>
       <c r="B44" t="b">
@@ -878,7 +878,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>amirra.aaa</t>
+          <t>joooleyah</t>
         </is>
       </c>
       <c r="B45" t="b">
@@ -888,7 +888,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>t.timberlin10</t>
+          <t>maliyah.terry</t>
         </is>
       </c>
       <c r="B46" t="b">
@@ -898,7 +898,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>meraki._creationz</t>
+          <t>makaylaboney</t>
         </is>
       </c>
       <c r="B47" t="b">
@@ -908,7 +908,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>frogparty9</t>
+          <t>shiannig_</t>
         </is>
       </c>
       <c r="B48" t="b">
@@ -918,7 +918,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>i.am.drew3x</t>
+          <t>chandlerryannee</t>
         </is>
       </c>
       <c r="B49" t="b">
@@ -928,7 +928,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>charleighshay</t>
+          <t>odusfinest25</t>
         </is>
       </c>
       <c r="B50" t="b">
@@ -938,7 +938,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>neckomata</t>
+          <t>charleighshay</t>
         </is>
       </c>
       <c r="B51" t="b">
@@ -948,7 +948,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>its.markeiraaa</t>
+          <t>klassiccdolll</t>
         </is>
       </c>
       <c r="B52" t="b">
@@ -958,7 +958,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>akosuuaa</t>
+          <t>jen.asha</t>
         </is>
       </c>
       <c r="B53" t="b">
@@ -968,7 +968,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>mylesw5</t>
+          <t>24k_.g</t>
         </is>
       </c>
       <c r="B54" t="b">
@@ -978,7 +978,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>jereemiaahh</t>
+          <t>_.jt2hott</t>
         </is>
       </c>
       <c r="B55" t="b">
@@ -988,7 +988,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>mattmalpaya</t>
+          <t>j.brownvswrld2</t>
         </is>
       </c>
       <c r="B56" t="b">
@@ -998,7 +998,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ethanstopperich</t>
+          <t>an.dy0405</t>
         </is>
       </c>
       <c r="B57" t="b">
@@ -1008,7 +1008,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>tjolsen13</t>
+          <t>say._baker</t>
         </is>
       </c>
       <c r="B58" t="b">
@@ -1018,7 +1018,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>liljessie_motts</t>
+          <t>v.hoang23</t>
         </is>
       </c>
       <c r="B59" t="b">
@@ -1028,7 +1028,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>sstarsey</t>
+          <t>sophie.cluck</t>
         </is>
       </c>
       <c r="B60" t="b">
@@ -1038,7 +1038,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>eelenammarie</t>
+          <t>moc_milena23</t>
         </is>
       </c>
       <c r="B61" t="b">
@@ -1048,7 +1048,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>btomlinson152</t>
+          <t>1pacco_</t>
         </is>
       </c>
       <c r="B62" t="b">
@@ -1058,7 +1058,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>bribri_msdiva</t>
+          <t>___sameea</t>
         </is>
       </c>
       <c r="B63" t="b">
@@ -1068,7 +1068,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>tania.anyaa</t>
+          <t>kvshmari</t>
         </is>
       </c>
       <c r="B64" t="b">
@@ -1078,7 +1078,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>theylovemiyaa._</t>
+          <t>kelydeleonn</t>
         </is>
       </c>
       <c r="B65" t="b">
@@ -1088,7 +1088,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>odu_fits</t>
+          <t>liljazzy214</t>
         </is>
       </c>
       <c r="B66" t="b">
@@ -1098,7 +1098,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>connor_p28</t>
+          <t>levizamiskie</t>
         </is>
       </c>
       <c r="B67" t="b">
@@ -1108,7 +1108,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>briannakirchner</t>
+          <t>alexisdrayton</t>
         </is>
       </c>
       <c r="B68" t="b">
@@ -1118,7 +1118,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>sarah.phil_</t>
+          <t>rafaeljimenez0</t>
         </is>
       </c>
       <c r="B69" t="b">
@@ -1128,7 +1128,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>scootj.5</t>
+          <t>itsmalikjayvonn</t>
         </is>
       </c>
       <c r="B70" t="b">
@@ -1138,7 +1138,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>_aayanna._</t>
+          <t>3xmiah</t>
         </is>
       </c>
       <c r="B71" t="b">
@@ -1148,7 +1148,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>aneesareel</t>
+          <t>luke.ydwog</t>
         </is>
       </c>
       <c r="B72" t="b">
@@ -1158,7 +1158,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>_xo.torii</t>
+          <t>nadia.boggz</t>
         </is>
       </c>
       <c r="B73" t="b">
@@ -1168,7 +1168,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>itsmeyasmineee</t>
+          <t>itgir1p</t>
         </is>
       </c>
       <c r="B74" t="b">
@@ -1178,7 +1178,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>klassiccdolll</t>
+          <t>jalyn.k_</t>
         </is>
       </c>
       <c r="B75" t="b">
@@ -1188,7 +1188,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>marco_pontorno1</t>
+          <t>gowdy.ekul</t>
         </is>
       </c>
       <c r="B76" t="b">
@@ -1198,7 +1198,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>thebonnetburglar</t>
+          <t>brianna_kala_</t>
         </is>
       </c>
       <c r="B77" t="b">
@@ -1208,7 +1208,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>luva.laney</t>
+          <t>rhealevinn</t>
         </is>
       </c>
       <c r="B78" t="b">
@@ -1218,7 +1218,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>x.o.evie</t>
+          <t>lunarlili.03</t>
         </is>
       </c>
       <c r="B79" t="b">
@@ -1228,7 +1228,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>carolinneemitchelll</t>
+          <t>taylorzareno</t>
         </is>
       </c>
       <c r="B80" t="b">
@@ -1238,7 +1238,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>bby_.monet_</t>
+          <t>riah_moneee</t>
         </is>
       </c>
       <c r="B81" t="b">
@@ -1248,7 +1248,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>peyton.milania</t>
+          <t>rebeccasaniaa</t>
         </is>
       </c>
       <c r="B82" t="b">
@@ -1258,7 +1258,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>bandupmari_</t>
+          <t>trinitycole_</t>
         </is>
       </c>
       <c r="B83" t="b">
@@ -1268,7 +1268,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>themachine1278</t>
+          <t>sweet_tangerine_dreams</t>
         </is>
       </c>
       <c r="B84" t="b">
@@ -1278,7 +1278,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>str8rawtv</t>
+          <t>the_weird_girl_katie</t>
         </is>
       </c>
       <c r="B85" t="b">
@@ -1288,7 +1288,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>rando_guy1234</t>
+          <t>lay_layyy6</t>
         </is>
       </c>
       <c r="B86" t="b">
@@ -1298,7 +1298,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>k.i.t.t.a.n.a</t>
+          <t>shaniyadanielleee</t>
         </is>
       </c>
       <c r="B87" t="b">
@@ -1308,7 +1308,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>lingyunhu</t>
+          <t>a.machae</t>
         </is>
       </c>
       <c r="B88" t="b">
@@ -1318,7 +1318,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>_.maddie._.elise.__</t>
+          <t>pablo.m1randa</t>
         </is>
       </c>
       <c r="B89" t="b">
@@ -1328,7 +1328,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>audrakaeperry</t>
+          <t>jmarrriiii</t>
         </is>
       </c>
       <c r="B90" t="b">
@@ -1338,7 +1338,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>1i1chick</t>
+          <t>jameraakoto</t>
         </is>
       </c>
       <c r="B91" t="b">
@@ -1348,7 +1348,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>symonehopeee</t>
+          <t>bev__waz__here</t>
         </is>
       </c>
       <c r="B92" t="b">
@@ -1358,7 +1358,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>goated_dom</t>
+          <t>thereallquis</t>
         </is>
       </c>
       <c r="B93" t="b">
@@ -1368,7 +1368,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>whyh8._ty</t>
+          <t>theonlymantha</t>
         </is>
       </c>
       <c r="B94" t="b">
@@ -1378,7 +1378,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>jeremiahboyyd</t>
+          <t>mary_haney_</t>
         </is>
       </c>
       <c r="B95" t="b">
@@ -1388,7 +1388,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>walkerwoood</t>
+          <t>frogparty9</t>
         </is>
       </c>
       <c r="B96" t="b">
@@ -1398,7 +1398,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>toriaanicoleee</t>
+          <t>naja.brielle</t>
         </is>
       </c>
       <c r="B97" t="b">
@@ -1408,7 +1408,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>tolu._3</t>
+          <t>god.com_plex</t>
         </is>
       </c>
       <c r="B98" t="b">
@@ -1418,7 +1418,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>xoxo.lunise</t>
+          <t>tis.mont</t>
         </is>
       </c>
       <c r="B99" t="b">
@@ -1428,7 +1428,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>daniniia</t>
+          <t>muchluv444._lae</t>
         </is>
       </c>
       <c r="B100" t="b">
@@ -1438,7 +1438,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>deamonteeee</t>
+          <t>_good.vibes.2x_</t>
         </is>
       </c>
       <c r="B101" t="b">
@@ -1448,7 +1448,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>urxsin</t>
+          <t>angeloliotta12</t>
         </is>
       </c>
       <c r="B102" t="b">
@@ -1458,7 +1458,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>ps.quanya</t>
+          <t>nyssanoemii</t>
         </is>
       </c>
       <c r="B103" t="b">
@@ -1468,7 +1468,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>poundtown_e</t>
+          <t>destanybrace</t>
         </is>
       </c>
       <c r="B104" t="b">
@@ -1478,7 +1478,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>quanowtff</t>
+          <t>lilyamaris</t>
         </is>
       </c>
       <c r="B105" t="b">
@@ -1488,7 +1488,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>kaytooliitforyallpeople</t>
+          <t>lillian_copeland_15</t>
         </is>
       </c>
       <c r="B106" t="b">
@@ -1498,7 +1498,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>ethan.hampton_</t>
+          <t>lingyunhu</t>
         </is>
       </c>
       <c r="B107" t="b">
@@ -1508,7 +1508,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>gswilliams10</t>
+          <t>viviennegsoto</t>
         </is>
       </c>
       <c r="B108" t="b">
@@ -1518,7 +1518,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>niaw0e</t>
+          <t>ugh.niiiii</t>
         </is>
       </c>
       <c r="B109" t="b">
@@ -1528,7 +1528,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>bagchasnx</t>
+          <t>puma2xx._</t>
         </is>
       </c>
       <c r="B110" t="b">
@@ -1538,7 +1538,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>a.wdyma</t>
+          <t>maddieecochran</t>
         </is>
       </c>
       <c r="B111" t="b">
@@ -1548,7 +1548,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>ciaramuug</t>
+          <t>txrriion</t>
         </is>
       </c>
       <c r="B112" t="b">
@@ -1558,7 +1558,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>sweet_tangerine_dreams</t>
+          <t>scaredmui</t>
         </is>
       </c>
       <c r="B113" t="b">
@@ -1568,7 +1568,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>lilia._.rae</t>
+          <t>m.4dds</t>
         </is>
       </c>
       <c r="B114" t="b">
@@ -1578,7 +1578,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>riley.lyles</t>
+          <t>is_it_ky</t>
         </is>
       </c>
       <c r="B115" t="b">
@@ -1588,7 +1588,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>ag_whalen</t>
+          <t>amayamassie</t>
         </is>
       </c>
       <c r="B116" t="b">
@@ -1598,7 +1598,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>dmv_bereket</t>
+          <t>theyluv.genisus</t>
         </is>
       </c>
       <c r="B117" t="b">
@@ -1608,7 +1608,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>ok_.tay</t>
+          <t>vivhammondd</t>
         </is>
       </c>
       <c r="B118" t="b">
@@ -1618,7 +1618,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>meyahgardner</t>
+          <t>nika_pathak</t>
         </is>
       </c>
       <c r="B119" t="b">
@@ -1628,7 +1628,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>dmv.jazz</t>
+          <t>brey.anna_</t>
         </is>
       </c>
       <c r="B120" t="b">
@@ -1638,7 +1638,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>madi.abrielleee</t>
+          <t>_estchandler_</t>
         </is>
       </c>
       <c r="B121" t="b">
@@ -1648,1407 +1648,1407 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>ripbjay</t>
+          <t>heylyssaaa</t>
         </is>
       </c>
       <c r="B122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>mol_tamora23</t>
+          <t>222.rita</t>
         </is>
       </c>
       <c r="B123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>salazar.madeleine</t>
+          <t>ariellies</t>
         </is>
       </c>
       <c r="B124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>cam.in.general</t>
+          <t>urxsin</t>
         </is>
       </c>
       <c r="B125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>insignificant_biscuit</t>
+          <t>denimroberson</t>
         </is>
       </c>
       <c r="B126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>br0wnnsugga_</t>
+          <t>mariska_love23</t>
         </is>
       </c>
       <c r="B127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>yourfavoriteoppsdot</t>
+          <t>sadlytoons</t>
         </is>
       </c>
       <c r="B128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>lov3gabbiee</t>
+          <t>wxrmtxxl</t>
         </is>
       </c>
       <c r="B129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>_jayla.morch_</t>
+          <t>j.xiiiovu</t>
         </is>
       </c>
       <c r="B130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>queen_panther_og</t>
+          <t>ag_whalen</t>
         </is>
       </c>
       <c r="B131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>heluvvmiahh</t>
+          <t>_yoodev_</t>
         </is>
       </c>
       <c r="B132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>angel_012104</t>
+          <t>bodenbeep._.sam</t>
         </is>
       </c>
       <c r="B133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>t.eelah</t>
+          <t>mylesw5</t>
         </is>
       </c>
       <c r="B134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>odumonarchmayhem</t>
+          <t>channyn_b</t>
         </is>
       </c>
       <c r="B135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>nyybabyy._</t>
+          <t>aniyahxnicole</t>
         </is>
       </c>
       <c r="B136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>drizz.dk</t>
+          <t>t.timberlin10</t>
         </is>
       </c>
       <c r="B137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>lay_layyy6</t>
+          <t>erikasakoma</t>
         </is>
       </c>
       <c r="B138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>arinbatu_1164</t>
+          <t>o.camara_</t>
         </is>
       </c>
       <c r="B139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>aaymaaxco</t>
+          <t>nyyali._</t>
         </is>
       </c>
       <c r="B140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>dom.blackston</t>
+          <t>elhxdg</t>
         </is>
       </c>
       <c r="B141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>is_it_ky</t>
+          <t>audrakaeperry</t>
         </is>
       </c>
       <c r="B142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>noluv._.shad__</t>
+          <t>amandaawilsonn_</t>
         </is>
       </c>
       <c r="B143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>fbx.chrome</t>
+          <t>jasminpiggott</t>
         </is>
       </c>
       <c r="B144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>thesweetestsour722</t>
+          <t>shavarrr</t>
         </is>
       </c>
       <c r="B145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>iirieara</t>
+          <t>lik2x_</t>
         </is>
       </c>
       <c r="B146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>mol_jacob23</t>
+          <t>themachine1278</t>
         </is>
       </c>
       <c r="B147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>_fran.m27</t>
+          <t>lloganstancill</t>
         </is>
       </c>
       <c r="B148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>danielle_fayeeee</t>
+          <t>shynotlow</t>
         </is>
       </c>
       <c r="B149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>jvst_dr3</t>
+          <t>_tiyaaa.xo</t>
         </is>
       </c>
       <c r="B150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>ari.stone_30</t>
+          <t>zach_may.ffl</t>
         </is>
       </c>
       <c r="B151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>care.degss</t>
+          <t>jakeiraannae</t>
         </is>
       </c>
       <c r="B152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>bev__waz__here</t>
+          <t>_.iiamlaaay</t>
         </is>
       </c>
       <c r="B153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>leeleeana_</t>
+          <t>neckomata</t>
         </is>
       </c>
       <c r="B154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>reesehaulenbeek</t>
+          <t>iammarionnn</t>
         </is>
       </c>
       <c r="B155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>itgir1p</t>
+          <t>stelluhc</t>
         </is>
       </c>
       <c r="B156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>tsankner</t>
+          <t>rae.___.cox</t>
         </is>
       </c>
       <c r="B157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>peyton_banuski_</t>
+          <t>poundtown_e</t>
         </is>
       </c>
       <c r="B158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>kayy.kurlss</t>
+          <t>_annikaaaa__</t>
         </is>
       </c>
       <c r="B159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>elusive.geegee</t>
+          <t>iirieara</t>
         </is>
       </c>
       <c r="B160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>k_.hump</t>
+          <t>bandupmari_</t>
         </is>
       </c>
       <c r="B161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>jasminpiggott</t>
+          <t>luva.laney</t>
         </is>
       </c>
       <c r="B162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>god.com_plex</t>
+          <t>meyahgardner</t>
         </is>
       </c>
       <c r="B163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>maliyah.terry</t>
+          <t>exoticliyah__</t>
         </is>
       </c>
       <c r="B164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>austins0625</t>
+          <t>lulldiaaa_</t>
         </is>
       </c>
       <c r="B165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>tis.mont</t>
+          <t>awtsgegeboss</t>
         </is>
       </c>
       <c r="B166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>richards_emersonn</t>
+          <t>slattyyyshttt</t>
         </is>
       </c>
       <c r="B167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>sxpremechi</t>
+          <t>_chrissyg_03</t>
         </is>
       </c>
       <c r="B168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>nevaehkendal</t>
+          <t>iramosyanez</t>
         </is>
       </c>
       <c r="B169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>2xmiah</t>
+          <t>pr0m133</t>
         </is>
       </c>
       <c r="B170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>_alicia.lynn</t>
+          <t>deamonteeee</t>
         </is>
       </c>
       <c r="B171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>_cassidy_na</t>
+          <t>ok_.tay</t>
         </is>
       </c>
       <c r="B172" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>alinamc7777</t>
+          <t>itssss._sydney_</t>
         </is>
       </c>
       <c r="B173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>npc.von</t>
+          <t>nicole_011105</t>
         </is>
       </c>
       <c r="B174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>weluv.dannii</t>
+          <t>giannarios4105</t>
         </is>
       </c>
       <c r="B175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>_cashdollar_</t>
+          <t>nbajayd007</t>
         </is>
       </c>
       <c r="B176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>alyssaronann</t>
+          <t>nas._g0krzy</t>
         </is>
       </c>
       <c r="B177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>mekhicooper_</t>
+          <t>taahthe7th</t>
         </is>
       </c>
       <c r="B178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>levizamiskie</t>
+          <t>le_lovebell</t>
         </is>
       </c>
       <c r="B179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>lanie_fuller14</t>
+          <t>jackf004</t>
         </is>
       </c>
       <c r="B180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>taylorzareno</t>
+          <t>its.jakaylam</t>
         </is>
       </c>
       <c r="B181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>odusfinest25</t>
+          <t>da.nasia.aa</t>
         </is>
       </c>
       <c r="B182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>cjsucks87</t>
+          <t>myahdent</t>
         </is>
       </c>
       <c r="B183" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>divine._._.warrior</t>
+          <t>red789000</t>
         </is>
       </c>
       <c r="B184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>3k.drayko</t>
+          <t>a.fraley6</t>
         </is>
       </c>
       <c r="B185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>javieri_04</t>
+          <t>oliviancottrell</t>
         </is>
       </c>
       <c r="B186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>fictional_sam</t>
+          <t>_2vague_</t>
         </is>
       </c>
       <c r="B187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>prettie500</t>
+          <t>knockoffbillylenz</t>
         </is>
       </c>
       <c r="B188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>ffltality</t>
+          <t>fictional_sam</t>
         </is>
       </c>
       <c r="B189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>j.cbfw</t>
+          <t>becca72101</t>
         </is>
       </c>
       <c r="B190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>justin.jayg</t>
+          <t>thebonnetburglar</t>
         </is>
       </c>
       <c r="B191" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>chloe.bastiaans</t>
+          <t>1b0ss._e</t>
         </is>
       </c>
       <c r="B192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>ciarrathurston</t>
+          <t>laneca2</t>
         </is>
       </c>
       <c r="B193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>kreative_kiera</t>
+          <t>j.allen.07</t>
         </is>
       </c>
       <c r="B194" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>teeee543</t>
+          <t>fbx.chrome</t>
         </is>
       </c>
       <c r="B195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>lillian_copeland_15</t>
+          <t>anna_banana2705</t>
         </is>
       </c>
       <c r="B196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>megann.rogers</t>
+          <t>_liltori</t>
         </is>
       </c>
       <c r="B197" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>nicolehuttonshannon</t>
+          <t>danielle_fayeeee</t>
         </is>
       </c>
       <c r="B198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>odu_set</t>
+          <t>_.ashleyll</t>
         </is>
       </c>
       <c r="B199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>_mariahjj_</t>
+          <t>omegaphialphaodu</t>
         </is>
       </c>
       <c r="B200" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>mariamj.n</t>
+          <t>breno__williams</t>
         </is>
       </c>
       <c r="B201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>djmercer</t>
+          <t>40ksantana</t>
         </is>
       </c>
       <c r="B202" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>n0nl0vin.ny</t>
+          <t>renaycionna</t>
         </is>
       </c>
       <c r="B203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>ciaraaamichellee</t>
+          <t>seun_olayinka15</t>
         </is>
       </c>
       <c r="B204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>breno__williams</t>
+          <t>koko.klassics</t>
         </is>
       </c>
       <c r="B205" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>alexiselisadurand</t>
+          <t>jamayaaaa__</t>
         </is>
       </c>
       <c r="B206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>vishal.moudgill30</t>
+          <t>vibeewithnyy</t>
         </is>
       </c>
       <c r="B207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>odu_admissions</t>
+          <t>sarah.phil_</t>
         </is>
       </c>
       <c r="B208" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>heylyssaaa</t>
+          <t>anti_rockksss</t>
         </is>
       </c>
       <c r="B209" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>muchluv444._lae</t>
+          <t>ayanna_j1943</t>
         </is>
       </c>
       <c r="B210" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>oduvegans</t>
+          <t>nyybabyy._</t>
         </is>
       </c>
       <c r="B211" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>madsciencist</t>
+          <t>marco_pontorno1</t>
         </is>
       </c>
       <c r="B212" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>issaaa.kay</t>
+          <t>richards_emersonn</t>
         </is>
       </c>
       <c r="B213" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>iramosyanez</t>
+          <t>harpersapisces</t>
         </is>
       </c>
       <c r="B214" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>oduwomensgenderstudies</t>
+          <t>ryaahdagreat</t>
         </is>
       </c>
       <c r="B215" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>niyahcamilla</t>
+          <t>m0ney.mink_</t>
         </is>
       </c>
       <c r="B216" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>sebas2x__</t>
+          <t>x.o.evie</t>
         </is>
       </c>
       <c r="B217" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>jadenrare</t>
+          <t>odu_admissions</t>
         </is>
       </c>
       <c r="B218" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>cjsocool757</t>
+          <t>deanna._.kay</t>
         </is>
       </c>
       <c r="B219" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>braxtonnicolee_</t>
+          <t>viisinterlude</t>
         </is>
       </c>
       <c r="B220" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>_yoodev_</t>
+          <t>literallyvictoria</t>
         </is>
       </c>
       <c r="B221" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>kit.rowan</t>
+          <t>earth.2summerrr</t>
         </is>
       </c>
       <c r="B222" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>sarah.richardsonnn</t>
+          <t>yo_marshawn</t>
         </is>
       </c>
       <c r="B223" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>da_realjp</t>
+          <t>ashley.altvater</t>
         </is>
       </c>
       <c r="B224" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>___riiamariee</t>
+          <t>desthagoatt</t>
         </is>
       </c>
       <c r="B225" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>babyyyy.nasia</t>
+          <t>issa_cadance</t>
         </is>
       </c>
       <c r="B226" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>rahshadthesungod</t>
+          <t>ethanstopperich</t>
         </is>
       </c>
       <c r="B227" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>nataleemarieee</t>
+          <t>jay.dinnnnn</t>
         </is>
       </c>
       <c r="B228" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>myahdent</t>
+          <t>imjusttae1</t>
         </is>
       </c>
       <c r="B229" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>b_thedon04</t>
+          <t>jaelynstrohl</t>
         </is>
       </c>
       <c r="B230" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>korevet</t>
+          <t>eyonnamonaeee</t>
         </is>
       </c>
       <c r="B231" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>_luvjadaaa</t>
+          <t>lexiibiancaa</t>
         </is>
       </c>
       <c r="B232" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>757_jakek</t>
+          <t>odunphc</t>
         </is>
       </c>
       <c r="B233" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>trefrm301</t>
+          <t>qutieee.t</t>
         </is>
       </c>
       <c r="B234" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>bruh_anyway</t>
+          <t>odumonarchmayhem</t>
         </is>
       </c>
       <c r="B235" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>ssokoo_</t>
+          <t>niyah_rishea04</t>
         </is>
       </c>
       <c r="B236" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>kyrayasmine</t>
+          <t>megann.rogers</t>
         </is>
       </c>
       <c r="B237" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>oduintervarsity</t>
+          <t>ash.kenworthy</t>
         </is>
       </c>
       <c r="B238" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>jt.blk_well</t>
+          <t>benn.wells</t>
         </is>
       </c>
       <c r="B239" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>_trixiebankss_</t>
+          <t>dag.ayelee</t>
         </is>
       </c>
       <c r="B240" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>804_doni</t>
+          <t>alexiselisadurand</t>
         </is>
       </c>
       <c r="B241" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>knockoffbillylenz</t>
+          <t>its.ayana15</t>
         </is>
       </c>
       <c r="B242" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>__trah__</t>
+          <t>lil_leprechaun24</t>
         </is>
       </c>
       <c r="B243" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>allyson.abraham</t>
+          <t>drea_bynum</t>
         </is>
       </c>
       <c r="B244" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>_.llouieee</t>
+          <t>trishie.lizard</t>
         </is>
       </c>
       <c r="B245" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>baller.maliyah</t>
+          <t>mol_zions23</t>
         </is>
       </c>
       <c r="B246" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>miamontague</t>
+          <t>mahalnicole</t>
         </is>
       </c>
       <c r="B247" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>__.iambree</t>
+          <t>david_hertzler</t>
         </is>
       </c>
       <c r="B248" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>amarisa.__</t>
+          <t>_itschari</t>
         </is>
       </c>
       <c r="B249" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>tonyidowu._</t>
+          <t>reginaeeeeee</t>
         </is>
       </c>
       <c r="B250" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>taahthe7th</t>
+          <t>ij_rey</t>
         </is>
       </c>
       <c r="B251" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>olivia._colleen</t>
+          <t>nibir05</t>
         </is>
       </c>
       <c r="B252" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>i.miachka</t>
+          <t>oduintervarsity</t>
         </is>
       </c>
       <c r="B253" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>deanna._.kay</t>
+          <t>804_doni</t>
         </is>
       </c>
       <c r="B254" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>_.kaylaa5</t>
+          <t>craxy_beautiful143</t>
         </is>
       </c>
       <c r="B255" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>theonlymantha</t>
+          <t>panintheabyss</t>
         </is>
       </c>
       <c r="B256" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>rocky2fast</t>
+          <t>777.giannaa</t>
         </is>
       </c>
       <c r="B257" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>theereallashayy</t>
+          <t>amelia_valentinaa</t>
         </is>
       </c>
       <c r="B258" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>cj.rbh</t>
+          <t>shawnfii_</t>
         </is>
       </c>
       <c r="B259" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>brianna_kala_</t>
+          <t>brbnata</t>
         </is>
       </c>
       <c r="B260" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>_summeer.lovee</t>
+          <t>heluvvmiahh</t>
         </is>
       </c>
       <c r="B261" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>kylie.lesina</t>
+          <t>mol_tamora23</t>
         </is>
       </c>
       <c r="B262" t="b">
@@ -3058,7 +3058,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>oliviancottrell</t>
+          <t>katie.latigona</t>
         </is>
       </c>
       <c r="B263" t="b">
@@ -3068,7 +3068,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>yo_marshawn</t>
+          <t>noluv._.shad__</t>
         </is>
       </c>
       <c r="B264" t="b">
@@ -3078,7 +3078,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>nbajayd007</t>
+          <t>pov_drew12</t>
         </is>
       </c>
       <c r="B265" t="b">
@@ -3088,7 +3088,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>earth.2summerrr</t>
+          <t>yonnii_g_film</t>
         </is>
       </c>
       <c r="B266" t="b">
@@ -3098,7 +3098,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>_annikaaaa__</t>
+          <t>t.quinn15</t>
         </is>
       </c>
       <c r="B267" t="b">
@@ -3108,7 +3108,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>brockboy808</t>
+          <t>ayoo.quii</t>
         </is>
       </c>
       <c r="B268" t="b">
@@ -3118,7 +3118,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>craxy_beautiful143</t>
+          <t>ssokoo_</t>
         </is>
       </c>
       <c r="B269" t="b">
@@ -3128,7 +3128,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>ij_rey</t>
+          <t>te.ss3341</t>
         </is>
       </c>
       <c r="B270" t="b">
@@ -3138,7 +3138,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>amberrlaurenn</t>
+          <t>arianaaa400</t>
         </is>
       </c>
       <c r="B271" t="b">
@@ -3148,7 +3148,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>nibir05</t>
+          <t>nyaamilanoo</t>
         </is>
       </c>
       <c r="B272" t="b">
@@ -3158,7 +3158,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>lil_leprechaun24</t>
+          <t>_xo.torii</t>
         </is>
       </c>
       <c r="B273" t="b">
@@ -3168,7 +3168,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>72_tribbey</t>
+          <t>natalieolsonnnn</t>
         </is>
       </c>
       <c r="B274" t="b">
@@ -3178,7 +3178,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>yrn._.malxolm</t>
+          <t>gelohavinn</t>
         </is>
       </c>
       <c r="B275" t="b">
@@ -3188,7 +3188,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>bratlyn1998</t>
+          <t>i.am.drew3x</t>
         </is>
       </c>
       <c r="B276" t="b">
@@ -3198,7 +3198,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>sophie.cluck</t>
+          <t>jenny.fr_</t>
         </is>
       </c>
       <c r="B277" t="b">
@@ -3208,7 +3208,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>jazzy.j_3</t>
+          <t>austins0625</t>
         </is>
       </c>
       <c r="B278" t="b">
@@ -3218,7 +3218,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>lilianamilaniii</t>
+          <t>rhett_taylor</t>
         </is>
       </c>
       <c r="B279" t="b">
@@ -3228,7 +3228,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>nyssanoemii</t>
+          <t>themaggiehaynes_</t>
         </is>
       </c>
       <c r="B280" t="b">
@@ -3238,7 +3238,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>laneca2</t>
+          <t>kit.rowan</t>
         </is>
       </c>
       <c r="B281" t="b">
@@ -3248,7 +3248,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>jen.asha</t>
+          <t>lilianamilaniii</t>
         </is>
       </c>
       <c r="B282" t="b">
@@ -3258,7 +3258,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>a.machae</t>
+          <t>1jmanny</t>
         </is>
       </c>
       <c r="B283" t="b">
@@ -3268,7 +3268,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>_nadia.2x</t>
+          <t>__.iambree</t>
         </is>
       </c>
       <c r="B284" t="b">
@@ -3278,7 +3278,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>angeloliotta12</t>
+          <t>_l.eslie._</t>
         </is>
       </c>
       <c r="B285" t="b">
@@ -3288,7 +3288,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>_good.vibes.2x_</t>
+          <t>noeliamccaffery</t>
         </is>
       </c>
       <c r="B286" t="b">
@@ -3298,7 +3298,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>riah_moneee</t>
+          <t>1i1chick</t>
         </is>
       </c>
       <c r="B287" t="b">
@@ -3308,7 +3308,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>gelohavinn</t>
+          <t>madi.hartel</t>
         </is>
       </c>
       <c r="B288" t="b">
@@ -3318,7 +3318,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>jameraakoto</t>
+          <t>just.jamir_</t>
         </is>
       </c>
       <c r="B289" t="b">
@@ -3328,7 +3328,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>may.life757</t>
+          <t>ej_kash</t>
         </is>
       </c>
       <c r="B290" t="b">
@@ -3338,7 +3338,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>cxmvirtuoso</t>
+          <t>itsjust__jasmine</t>
         </is>
       </c>
       <c r="B291" t="b">
@@ -3348,7 +3348,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>m.moseleyjr</t>
+          <t>madsciencist</t>
         </is>
       </c>
       <c r="B292" t="b">
@@ -3358,7 +3358,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>nehae005</t>
+          <t>goated_dom</t>
         </is>
       </c>
       <c r="B293" t="b">
@@ -3368,7 +3368,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>diaryofahheadcrack._</t>
+          <t>serenity.deann</t>
         </is>
       </c>
       <c r="B294" t="b">
@@ -3378,7 +3378,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>itsjust__jasmine</t>
+          <t>_luvjadaaa</t>
         </is>
       </c>
       <c r="B295" t="b">
@@ -3388,7 +3388,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>anti_rockksss</t>
+          <t>amyaajanaee</t>
         </is>
       </c>
       <c r="B296" t="b">
@@ -3398,7 +3398,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>sirena._.rane</t>
+          <t>iamgstacks</t>
         </is>
       </c>
       <c r="B297" t="b">
@@ -3408,7 +3408,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>yuhboochie</t>
+          <t>oliviaashardae</t>
         </is>
       </c>
       <c r="B298" t="b">
@@ -3418,7 +3418,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>altanaphobiaa</t>
+          <t>pyttt.noelle</t>
         </is>
       </c>
       <c r="B299" t="b">
@@ -3428,7 +3428,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>1jmanny</t>
+          <t>melody_alfred</t>
         </is>
       </c>
       <c r="B300" t="b">
@@ -3438,7 +3438,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>kurly_mauii</t>
+          <t>luv4thuy</t>
         </is>
       </c>
       <c r="B301" t="b">
@@ -3448,7 +3448,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>darius_.d1</t>
+          <t>zonnie101</t>
         </is>
       </c>
       <c r="B302" t="b">
@@ -3458,7 +3458,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>luke.ydwog</t>
+          <t>ajdimichele</t>
         </is>
       </c>
       <c r="B303" t="b">
@@ -3468,7 +3468,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>lanah.skye</t>
+          <t>ky.meah</t>
         </is>
       </c>
       <c r="B304" t="b">
@@ -3478,7 +3478,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>makaylaboney</t>
+          <t>thesweetestsour722</t>
         </is>
       </c>
       <c r="B305" t="b">
@@ -3488,7 +3488,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>seun_olayinka15</t>
+          <t>j._.niah</t>
         </is>
       </c>
       <c r="B306" t="b">
@@ -3498,7 +3498,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>chrissy._.17</t>
+          <t>care.degss</t>
         </is>
       </c>
       <c r="B307" t="b">
@@ -3508,7 +3508,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>russell465__</t>
+          <t>tania.anyaa</t>
         </is>
       </c>
       <c r="B308" t="b">
@@ -3518,7 +3518,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>this_is_normal_alright</t>
+          <t>issa.bellax</t>
         </is>
       </c>
       <c r="B309" t="b">
@@ -3528,7 +3528,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>nyyali._</t>
+          <t>tevionnn</t>
         </is>
       </c>
       <c r="B310" t="b">
@@ -3538,7 +3538,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>madisonxhales</t>
+          <t>tatyannaurquhart</t>
         </is>
       </c>
       <c r="B311" t="b">
@@ -3548,7 +3548,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>dag.ayelee</t>
+          <t>nataly_diaz23</t>
         </is>
       </c>
       <c r="B312" t="b">
@@ -3558,7 +3558,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>erikasakoma</t>
+          <t>nxtedworchak</t>
         </is>
       </c>
       <c r="B313" t="b">
@@ -3568,7 +3568,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>jarellg_</t>
+          <t>imm.jadaa</t>
         </is>
       </c>
       <c r="B314" t="b">
@@ -3578,7 +3578,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>drea_bynum</t>
+          <t>dmv.jazz</t>
         </is>
       </c>
       <c r="B315" t="b">
@@ -3588,7 +3588,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>iamgstacks</t>
+          <t>mattmalpaya</t>
         </is>
       </c>
       <c r="B316" t="b">
@@ -3598,7 +3598,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>jadaawaydaaa__</t>
+          <t>bagchasnx</t>
         </is>
       </c>
       <c r="B317" t="b">
@@ -3608,7 +3608,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>melody_alfred</t>
+          <t>lavenderthaylen</t>
         </is>
       </c>
       <c r="B318" t="b">
@@ -3618,7 +3618,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>mariska_love23</t>
+          <t>queen_panther_og</t>
         </is>
       </c>
       <c r="B319" t="b">
@@ -3628,7 +3628,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>jordan.hobbs.921</t>
+          <t>keeganschnupp</t>
         </is>
       </c>
       <c r="B320" t="b">
@@ -3638,7 +3638,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>jay.dinnnnn</t>
+          <t>itss._jojo</t>
         </is>
       </c>
       <c r="B321" t="b">
@@ -3648,7 +3648,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>j._.niah</t>
+          <t>cjsocool757</t>
         </is>
       </c>
       <c r="B322" t="b">
@@ -3658,7 +3658,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>trinaaa.nguyen</t>
+          <t>nx.gxlden</t>
         </is>
       </c>
       <c r="B323" t="b">
@@ -3668,7 +3668,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>juicemygoose6</t>
+          <t>vr_tre</t>
         </is>
       </c>
       <c r="B324" t="b">
@@ -3678,7 +3678,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>mariahvitari</t>
+          <t>redisnotokay</t>
         </is>
       </c>
       <c r="B325" t="b">
@@ -3688,7 +3688,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>masonh1871</t>
+          <t>braxtonnicolee_</t>
         </is>
       </c>
       <c r="B326" t="b">
@@ -3698,7 +3698,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>jaylen_newman1</t>
+          <t>jereemiaahh</t>
         </is>
       </c>
       <c r="B327" t="b">
@@ -3708,7 +3708,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>yeh.dii_</t>
+          <t>just_.ivyy</t>
         </is>
       </c>
       <c r="B328" t="b">
@@ -3718,7 +3718,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>mallorryy.b</t>
+          <t>a.wdyma</t>
         </is>
       </c>
       <c r="B329" t="b">
@@ -3728,7 +3728,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>diary.of.christi</t>
+          <t>tsankner</t>
         </is>
       </c>
       <c r="B330" t="b">
@@ -3738,7 +3738,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>px_pgy21</t>
+          <t>jadenrare</t>
         </is>
       </c>
       <c r="B331" t="b">
@@ -3748,7 +3748,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>_dabrattjae</t>
+          <t>jddaavviiss</t>
         </is>
       </c>
       <c r="B332" t="b">
@@ -3758,7 +3758,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>joooleyah</t>
+          <t>2xx_t</t>
         </is>
       </c>
       <c r="B333" t="b">
@@ -3768,7 +3768,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>eia_l_j_h</t>
+          <t>jayme_the_emby</t>
         </is>
       </c>
       <c r="B334" t="b">
@@ -3778,7 +3778,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>itsjuss.aysia</t>
+          <t>maelynaltman</t>
         </is>
       </c>
       <c r="B335" t="b">
@@ -3788,7 +3788,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>just._.khamari</t>
+          <t>galen.a.june</t>
         </is>
       </c>
       <c r="B336" t="b">
@@ -3798,7 +3798,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>amandaawilsonn_</t>
+          <t>tjolsen13</t>
         </is>
       </c>
       <c r="B337" t="b">
@@ -3808,7 +3808,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>ryan.gmx</t>
+          <t>_duhhitsneee</t>
         </is>
       </c>
       <c r="B338" t="b">
@@ -3818,7 +3818,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>jmarrriiii</t>
+          <t>kylie.lesina</t>
         </is>
       </c>
       <c r="B339" t="b">
@@ -3828,7 +3828,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>1st_ladydrea</t>
+          <t>okayy.ky</t>
         </is>
       </c>
       <c r="B340" t="b">
@@ -3838,7 +3838,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>maddieecochran</t>
+          <t>oduphc</t>
         </is>
       </c>
       <c r="B341" t="b">
@@ -3848,7 +3848,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>renaycionna</t>
+          <t>janiicrepe_</t>
         </is>
       </c>
       <c r="B342" t="b">
@@ -3858,7 +3858,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>brayandem</t>
+          <t>aud8ciously</t>
         </is>
       </c>
       <c r="B343" t="b">
@@ -3868,7 +3868,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>__.xza.__</t>
+          <t>eelenammarie</t>
         </is>
       </c>
       <c r="B344" t="b">
@@ -3878,7 +3878,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>sarahbrinell</t>
+          <t>nikki_welp</t>
         </is>
       </c>
       <c r="B345" t="b">
@@ -3888,7 +3888,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>scaredmui</t>
+          <t>ciarrathurston</t>
         </is>
       </c>
       <c r="B346" t="b">
@@ -3898,7 +3898,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>lijah__original</t>
+          <t>_fran.m27</t>
         </is>
       </c>
       <c r="B347" t="b">
@@ -3908,7 +3908,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>braeden_megenity</t>
+          <t>iluvkeilani</t>
         </is>
       </c>
       <c r="B348" t="b">
@@ -3918,7 +3918,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>vr_tre</t>
+          <t>trefrm301</t>
         </is>
       </c>
       <c r="B349" t="b">
@@ -3928,7 +3928,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>stevenswitzer_</t>
+          <t>tiannanashe_</t>
         </is>
       </c>
       <c r="B350" t="b">
@@ -3938,7 +3938,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>222.megannn</t>
+          <t>_aayanna._</t>
         </is>
       </c>
       <c r="B351" t="b">
@@ -3948,7 +3948,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>justlivin__lj05</t>
+          <t>grayson.757</t>
         </is>
       </c>
       <c r="B352" t="b">
@@ -3958,7 +3958,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>cch.rle</t>
+          <t>a.stxckz</t>
         </is>
       </c>
       <c r="B353" t="b">
@@ -3968,7 +3968,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>itss._jojo</t>
+          <t>ngregory31</t>
         </is>
       </c>
       <c r="B354" t="b">
@@ -3978,7 +3978,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>its.jakaylam</t>
+          <t>lov3gabbiee</t>
         </is>
       </c>
       <c r="B355" t="b">
@@ -3988,7 +3988,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>aynakojhen</t>
+          <t>_.kaylaa5</t>
         </is>
       </c>
       <c r="B356" t="b">
@@ -3998,7 +3998,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>jamayaaaa__</t>
+          <t>just._.khamari</t>
         </is>
       </c>
       <c r="B357" t="b">
@@ -4008,7 +4008,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>breah.shenell</t>
+          <t>kenroji</t>
         </is>
       </c>
       <c r="B358" t="b">
@@ -4018,7 +4018,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>chandlerryannee</t>
+          <t>_shamyyaa_</t>
         </is>
       </c>
       <c r="B359" t="b">
@@ -4028,7 +4028,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>_.bossupjaay._</t>
+          <t>liljessie_motts</t>
         </is>
       </c>
       <c r="B360" t="b">
@@ -4038,7 +4038,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>isthat.harmony</t>
+          <t>odurecwell</t>
         </is>
       </c>
       <c r="B361" t="b">
@@ -4048,7 +4048,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>vb.sean</t>
+          <t>patrickthetenor</t>
         </is>
       </c>
       <c r="B362" t="b">
@@ -4058,7 +4058,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>_pipermccoy</t>
+          <t>yourgurld3xxi</t>
         </is>
       </c>
       <c r="B363" t="b">
@@ -4068,7 +4068,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>jan_.niece</t>
+          <t>theereallashayy</t>
         </is>
       </c>
       <c r="B364" t="b">
@@ -4078,7 +4078,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>sillylucifer666</t>
+          <t>brixnnanicole_</t>
         </is>
       </c>
       <c r="B365" t="b">
@@ -4088,7 +4088,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>reilly_houper</t>
+          <t>jan_.niece</t>
         </is>
       </c>
       <c r="B366" t="b">
@@ -4098,7 +4098,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>chx._nel</t>
+          <t>justt.india</t>
         </is>
       </c>
       <c r="B367" t="b">
@@ -4108,7 +4108,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>kiyadivinee</t>
+          <t>vvillmarsh</t>
         </is>
       </c>
       <c r="B368" t="b">
@@ -4118,7 +4118,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>desthagoatt</t>
+          <t>itsjuss.aysia</t>
         </is>
       </c>
       <c r="B369" t="b">
@@ -4128,7 +4128,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>kdeezy_._</t>
+          <t>nasir.2x</t>
         </is>
       </c>
       <c r="B370" t="b">
@@ -4138,7 +4138,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>bayeisenhour</t>
+          <t>sarah.richardsonnn</t>
         </is>
       </c>
       <c r="B371" t="b">
@@ -4148,7 +4148,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>blakeemitchell</t>
+          <t>may.life757</t>
         </is>
       </c>
       <c r="B372" t="b">
@@ -4158,7 +4158,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>noah.caliendo</t>
+          <t>isthat.harmony</t>
         </is>
       </c>
       <c r="B373" t="b">
@@ -4168,7 +4168,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>offical.jareddonegan</t>
+          <t>theylovemiyaa._</t>
         </is>
       </c>
       <c r="B374" t="b">
@@ -4178,7 +4178,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>kirsten.palm</t>
+          <t>jordyn._.dior</t>
         </is>
       </c>
       <c r="B375" t="b">
@@ -4188,7 +4188,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>laneyluvs_u</t>
+          <t>alexa_evans_</t>
         </is>
       </c>
       <c r="B376" t="b">
@@ -4198,7 +4198,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>amourxdana</t>
+          <t>jayshoelessspam</t>
         </is>
       </c>
       <c r="B377" t="b">
@@ -4208,7 +4208,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>ky.meah</t>
+          <t>lik2hawd</t>
         </is>
       </c>
       <c r="B378" t="b">
@@ -4218,7 +4218,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>hearts4khii444</t>
+          <t>_samyrahh_</t>
         </is>
       </c>
       <c r="B379" t="b">
@@ -4228,7 +4228,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>_glama_gurl_</t>
+          <t>aaymaaxco</t>
         </is>
       </c>
       <c r="B380" t="b">
@@ -4238,7 +4238,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>tdmcv_girl</t>
+          <t>sooinluvvwithceyy</t>
         </is>
       </c>
       <c r="B381" t="b">
@@ -4248,7 +4248,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>nataly_diaz23</t>
+          <t>_rylielittle_</t>
         </is>
       </c>
       <c r="B382" t="b">
@@ -4258,7 +4258,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>ionkno.nb</t>
+          <t>sarahbrinell</t>
         </is>
       </c>
       <c r="B383" t="b">
@@ -4268,7 +4268,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>a.fraley6</t>
+          <t>yuhboochie</t>
         </is>
       </c>
       <c r="B384" t="b">
@@ -4278,7 +4278,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>eyonnamonaeee</t>
+          <t>behanzin.2x</t>
         </is>
       </c>
       <c r="B385" t="b">
@@ -4288,7 +4288,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>jojo_26x</t>
+          <t>elizabean1211</t>
         </is>
       </c>
       <c r="B386" t="b">
@@ -4298,7 +4298,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>vivhammondd</t>
+          <t>itsmeyasmineee</t>
         </is>
       </c>
       <c r="B387" t="b">
@@ -4308,7 +4308,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>alexandrajay._</t>
+          <t>justlivin__lj05</t>
         </is>
       </c>
       <c r="B388" t="b">
@@ -4318,7 +4318,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>murvintaylor</t>
+          <t>gabbylopardoo</t>
         </is>
       </c>
       <c r="B389" t="b">
@@ -4328,7 +4328,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>kelydeleonn</t>
+          <t>offical.jareddonegan</t>
         </is>
       </c>
       <c r="B390" t="b">
@@ -4338,7 +4338,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>eli_w445</t>
+          <t>rando_guy1234</t>
         </is>
       </c>
       <c r="B391" t="b">
@@ -4348,7 +4348,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>madi.hartel</t>
+          <t>1st_ladydrea</t>
         </is>
       </c>
       <c r="B392" t="b">
@@ -4358,7 +4358,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>rhealevinn</t>
+          <t>kaayniicole</t>
         </is>
       </c>
       <c r="B393" t="b">
@@ -4368,7 +4368,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>e_marching19</t>
+          <t>diary.of.christi</t>
         </is>
       </c>
       <c r="B394" t="b">
@@ -4378,7 +4378,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>labonte.abbey</t>
+          <t>niyahcamilla</t>
         </is>
       </c>
       <c r="B395" t="b">
@@ -4388,7 +4388,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>aniyahxnicole</t>
+          <t>n_amxni</t>
         </is>
       </c>
       <c r="B396" t="b">
@@ -4398,7 +4398,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>onetake.christian_</t>
+          <t>oliviaphillips._</t>
         </is>
       </c>
       <c r="B397" t="b">
@@ -4408,7 +4408,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>vibeewithnyy</t>
+          <t>odu_bov_rep</t>
         </is>
       </c>
       <c r="B398" t="b">
@@ -4418,7 +4418,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>koby.lonzell</t>
+          <t>sirena._.rane</t>
         </is>
       </c>
       <c r="B399" t="b">
@@ -4428,7 +4428,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>sadlytoons</t>
+          <t>_diana._.r</t>
         </is>
       </c>
       <c r="B400" t="b">
@@ -4438,7 +4438,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>mahalnicole</t>
+          <t>cj.rbh</t>
         </is>
       </c>
       <c r="B401" t="b">
@@ -4448,7 +4448,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>heem_2valid</t>
+          <t>prettie500</t>
         </is>
       </c>
       <c r="B402" t="b">
@@ -4458,7 +4458,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>lik2x_</t>
+          <t>_.shiino._</t>
         </is>
       </c>
       <c r="B403" t="b">
@@ -4468,7 +4468,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>abrrry15</t>
+          <t>trinaaa.nguyen</t>
         </is>
       </c>
       <c r="B404" t="b">
@@ -4478,7 +4478,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>zander_curl</t>
+          <t>itsfatmataaa</t>
         </is>
       </c>
       <c r="B405" t="b">
@@ -4488,7 +4488,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>lenett.rayy</t>
+          <t>baller.maliyah</t>
         </is>
       </c>
       <c r="B406" t="b">
@@ -4498,7 +4498,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>becca72101</t>
+          <t>rj_the_goat_</t>
         </is>
       </c>
       <c r="B407" t="b">
@@ -4508,7 +4508,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>thebrittanyrachel</t>
+          <t>kaytooliitforyallpeople</t>
         </is>
       </c>
       <c r="B408" t="b">
@@ -4518,7 +4518,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>smoovehomes</t>
+          <t>dom.blackston</t>
         </is>
       </c>
       <c r="B409" t="b">
@@ -4528,7 +4528,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>itsdesbtw</t>
+          <t>jordan.hobbs.921</t>
         </is>
       </c>
       <c r="B410" t="b">
@@ -4538,7 +4538,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>elizabean1211</t>
+          <t>eniazzirhk</t>
         </is>
       </c>
       <c r="B411" t="b">
@@ -4558,7 +4558,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>gowdy_lifts</t>
+          <t>daniniia</t>
         </is>
       </c>
       <c r="B413" t="b">
@@ -4568,7 +4568,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>nicole_011105</t>
+          <t>maddyrxse</t>
         </is>
       </c>
       <c r="B414" t="b">
@@ -4578,7 +4578,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>lloganstancill</t>
+          <t>str8rawtv</t>
         </is>
       </c>
       <c r="B415" t="b">
@@ -4588,7 +4588,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>stuckoncd_</t>
+          <t>wb_mk6</t>
         </is>
       </c>
       <c r="B416" t="b">
@@ -4598,7 +4598,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>_k.xnnedy</t>
+          <t>cjlanc777</t>
         </is>
       </c>
       <c r="B417" t="b">
@@ -4608,7 +4608,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>reagan.wales</t>
+          <t>okidokihuman</t>
         </is>
       </c>
       <c r="B418" t="b">
@@ -4618,7 +4618,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>reginaeeeeee</t>
+          <t>222.megannn</t>
         </is>
       </c>
       <c r="B419" t="b">
@@ -4628,7 +4628,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>777.giannaa</t>
+          <t>dats.so.kiyah</t>
         </is>
       </c>
       <c r="B420" t="b">
@@ -4638,7 +4638,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>nayamelanie</t>
+          <t>najamanaee</t>
         </is>
       </c>
       <c r="B421" t="b">
@@ -4648,7 +4648,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>jackf004</t>
+          <t>meraki._creationz</t>
         </is>
       </c>
       <c r="B422" t="b">
@@ -4658,7 +4658,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>222.rita</t>
+          <t>dejarochae</t>
         </is>
       </c>
       <c r="B423" t="b">
@@ -4668,7 +4668,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>nika_pathak</t>
+          <t>makayyy.xo</t>
         </is>
       </c>
       <c r="B424" t="b">
@@ -4678,7 +4678,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>serenity.deann</t>
+          <t>drizz.dk</t>
         </is>
       </c>
       <c r="B425" t="b">
@@ -4688,7 +4688,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>_.shiino._</t>
+          <t>mistaken_nii</t>
         </is>
       </c>
       <c r="B426" t="b">
@@ -4698,7 +4698,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>tajjani_</t>
+          <t>lowkeyavi03</t>
         </is>
       </c>
       <c r="B427" t="b">
@@ -4708,7 +4708,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>giannarios4105</t>
+          <t>vb.sean</t>
         </is>
       </c>
       <c r="B428" t="b">
@@ -4718,7 +4718,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>an.dy0405</t>
+          <t>br0wnnsugga_</t>
         </is>
       </c>
       <c r="B429" t="b">
@@ -4728,7 +4728,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>n_amxni</t>
+          <t>benji_collawn</t>
         </is>
       </c>
       <c r="B430" t="b">
@@ -4738,7 +4738,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>xottic.franny</t>
+          <t>colormeinkguy</t>
         </is>
       </c>
       <c r="B431" t="b">
@@ -4748,7 +4748,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>ash.kenworthy</t>
+          <t>72_tribbey</t>
         </is>
       </c>
       <c r="B432" t="b">
@@ -4758,7 +4758,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>ahluwaliasarab</t>
+          <t>allyson.abraham</t>
         </is>
       </c>
       <c r="B433" t="b">
@@ -4768,10 +4768,130 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>_maddy_wright_</t>
+          <t>j.cbfw</t>
         </is>
       </c>
       <c r="B434" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>akosuuaa</t>
+        </is>
+      </c>
+      <c r="B435" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>bakedwithrandy</t>
+        </is>
+      </c>
+      <c r="B436" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>niaw0e</t>
+        </is>
+      </c>
+      <c r="B437" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>btomlinson152</t>
+        </is>
+      </c>
+      <c r="B438" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>henryzmonroe</t>
+        </is>
+      </c>
+      <c r="B439" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>murvintaylor</t>
+        </is>
+      </c>
+      <c r="B440" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>monarchdining</t>
+        </is>
+      </c>
+      <c r="B441" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>peytonnshumate</t>
+        </is>
+      </c>
+      <c r="B442" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>jvst_dr3</t>
+        </is>
+      </c>
+      <c r="B443" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>whooiscici</t>
+        </is>
+      </c>
+      <c r="B444" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>angel_012104</t>
+        </is>
+      </c>
+      <c r="B445" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>yfosean2suave</t>
+        </is>
+      </c>
+      <c r="B446" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Marketing/odu.roomme.xlsx
+++ b/Marketing/odu.roomme.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Followers" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B446"/>
+  <dimension ref="A1:B433"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,12 +422,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Follower</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Contacted</t>
         </is>
@@ -448,881 +436,881 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>sammy_leigh86</t>
+          <t>rxssell._</t>
         </is>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>_tname.kala</t>
+          <t>domhavinn</t>
         </is>
       </c>
       <c r="B3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>clarence4._</t>
+          <t>rileyml_24</t>
         </is>
       </c>
       <c r="B4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>_summeer.lovee</t>
+          <t>symonehopeee</t>
         </is>
       </c>
       <c r="B5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>m.moseleyjr</t>
+          <t>rahshadthesungod</t>
         </is>
       </c>
       <c r="B6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>_glama_gurl_</t>
+          <t>pov_drew12</t>
         </is>
       </c>
       <c r="B7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>xottic.franny</t>
+          <t>gabby.amarti</t>
         </is>
       </c>
       <c r="B8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ffltality</t>
+          <t>carolinneemitchelll</t>
         </is>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>tajjani_</t>
+          <t>jazzy.j_3</t>
         </is>
       </c>
       <c r="B10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>blakebennett05</t>
+          <t>koko.klassics</t>
         </is>
       </c>
       <c r="B11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ciaramuug</t>
+          <t>ugh.niiiii</t>
         </is>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>walkerwoood</t>
+          <t>3k.drayko</t>
         </is>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ps.quanya</t>
+          <t>xoxo.monte_</t>
         </is>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>mochav.exe</t>
+          <t>cjlanc777</t>
         </is>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>khemaniiii</t>
+          <t>da_realjp</t>
         </is>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>kyrayasmine</t>
+          <t>m.moseleyjr</t>
         </is>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>oduvegans</t>
+          <t>reginaeeeeee</t>
         </is>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>aashle1ghh</t>
+          <t>bev__waz__here</t>
         </is>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>masonh1871</t>
+          <t>miracle.carranza</t>
         </is>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>kayy.kurlss</t>
+          <t>r1l3yyy_</t>
         </is>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>theyluvv.kyrie1</t>
+          <t>braxy.z</t>
         </is>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>kylahdenaee_</t>
+          <t>j.cbfw</t>
         </is>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>eia_l_j_h</t>
+          <t>hassanmo.11</t>
         </is>
       </c>
       <c r="B24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>sebas2x__</t>
+          <t>vb.sean</t>
         </is>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>gswilliams10</t>
+          <t>storyof0nesty</t>
         </is>
       </c>
       <c r="B26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>kevinbgloverll</t>
+          <t>ellie.lepley</t>
         </is>
       </c>
       <c r="B27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>m.quette</t>
+          <t>t.eelah</t>
         </is>
       </c>
       <c r="B28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>divine._._.warrior</t>
+          <t>nicole_011105</t>
         </is>
       </c>
       <c r="B29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>babyyyy.nasia</t>
+          <t>xoxo._.samara</t>
         </is>
       </c>
       <c r="B30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>yeh.dii_</t>
+          <t>charleighshay</t>
         </is>
       </c>
       <c r="B31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2xmiah</t>
+          <t>jaelynstrohl</t>
         </is>
       </c>
       <c r="B32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>k.i.t.t.a.n.a</t>
+          <t>djmercer</t>
         </is>
       </c>
       <c r="B33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ariiibabiii_</t>
+          <t>__.iambree</t>
         </is>
       </c>
       <c r="B34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>patty__rick_</t>
+          <t>care.degss</t>
         </is>
       </c>
       <c r="B35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>carlisahh._</t>
+          <t>scootj.5</t>
         </is>
       </c>
       <c r="B36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>quanowtff</t>
+          <t>aashle1ghh</t>
         </is>
       </c>
       <c r="B37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>_.r.x.ch.x.l._</t>
+          <t>marissa_.h._</t>
         </is>
       </c>
       <c r="B38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>jeremiahboyyd</t>
+          <t>trishie.lizard</t>
         </is>
       </c>
       <c r="B39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>chrissy._.17</t>
+          <t>thenormalcris</t>
         </is>
       </c>
       <c r="B40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>_jayneshe</t>
+          <t>korevet</t>
         </is>
       </c>
       <c r="B41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>xoxo.monte_</t>
+          <t>leeleeana_</t>
         </is>
       </c>
       <c r="B42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>_.genesis25._</t>
+          <t>emjayfelder</t>
         </is>
       </c>
       <c r="B43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>__stewart001</t>
+          <t>quanowtff</t>
         </is>
       </c>
       <c r="B44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>joooleyah</t>
+          <t>kiyadivinee</t>
         </is>
       </c>
       <c r="B45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>maliyah.terry</t>
+          <t>just_.ivyy</t>
         </is>
       </c>
       <c r="B46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>makaylaboney</t>
+          <t>ariiibabiii_</t>
         </is>
       </c>
       <c r="B47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>shiannig_</t>
+          <t>ky.naaa</t>
         </is>
       </c>
       <c r="B48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>chandlerryannee</t>
+          <t>ciaramuug</t>
         </is>
       </c>
       <c r="B49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>odusfinest25</t>
+          <t>tolu._3</t>
         </is>
       </c>
       <c r="B50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>charleighshay</t>
+          <t>iam_colinn_</t>
         </is>
       </c>
       <c r="B51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>klassiccdolll</t>
+          <t>galen.a.june</t>
         </is>
       </c>
       <c r="B52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>jen.asha</t>
+          <t>odurecwell</t>
         </is>
       </c>
       <c r="B53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>24k_.g</t>
+          <t>_xo.torii</t>
         </is>
       </c>
       <c r="B54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>_.jt2hott</t>
+          <t>vishal.moudgill30</t>
         </is>
       </c>
       <c r="B55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>j.brownvswrld2</t>
+          <t>kkeiramac</t>
         </is>
       </c>
       <c r="B56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>an.dy0405</t>
+          <t>becca72101</t>
         </is>
       </c>
       <c r="B57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>say._baker</t>
+          <t>_dershonormon4</t>
         </is>
       </c>
       <c r="B58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>v.hoang23</t>
+          <t>pyttt.noelle</t>
         </is>
       </c>
       <c r="B59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>sophie.cluck</t>
+          <t>maddyrxse</t>
         </is>
       </c>
       <c r="B60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>moc_milena23</t>
+          <t>queen_panther_og</t>
         </is>
       </c>
       <c r="B61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1pacco_</t>
+          <t>themaggiehaynes_</t>
         </is>
       </c>
       <c r="B62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>___sameea</t>
+          <t>renaycionna</t>
         </is>
       </c>
       <c r="B63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>kvshmari</t>
+          <t>zach_may.ffl</t>
         </is>
       </c>
       <c r="B64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>kelydeleonn</t>
+          <t>syyd.ni</t>
         </is>
       </c>
       <c r="B65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>liljazzy214</t>
+          <t>maliyah.terry</t>
         </is>
       </c>
       <c r="B66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>levizamiskie</t>
+          <t>benn.wells</t>
         </is>
       </c>
       <c r="B67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>alexisdrayton</t>
+          <t>theyluvv.kyrie1</t>
         </is>
       </c>
       <c r="B68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>rafaeljimenez0</t>
+          <t>mol_seevounm23</t>
         </is>
       </c>
       <c r="B69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>itsmalikjayvonn</t>
+          <t>_fran.m27</t>
         </is>
       </c>
       <c r="B70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>3xmiah</t>
+          <t>yo_marshawn</t>
         </is>
       </c>
       <c r="B71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>luke.ydwog</t>
+          <t>blakebennett05</t>
         </is>
       </c>
       <c r="B72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>nadia.boggz</t>
+          <t>makayyy.xo</t>
         </is>
       </c>
       <c r="B73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>itgir1p</t>
+          <t>tiannanashe_</t>
         </is>
       </c>
       <c r="B74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>jalyn.k_</t>
+          <t>alexisdrayton</t>
         </is>
       </c>
       <c r="B75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>gowdy.ekul</t>
+          <t>bodenbeep._.sam</t>
         </is>
       </c>
       <c r="B76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>brianna_kala_</t>
+          <t>kvshmari</t>
         </is>
       </c>
       <c r="B77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>rhealevinn</t>
+          <t>itsmalikjayvonn</t>
         </is>
       </c>
       <c r="B78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>lunarlili.03</t>
+          <t>theyluv.genisus</t>
         </is>
       </c>
       <c r="B79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>taylorzareno</t>
+          <t>phinajamanaee</t>
         </is>
       </c>
       <c r="B80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>riah_moneee</t>
+          <t>amourxdana</t>
         </is>
       </c>
       <c r="B81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>rebeccasaniaa</t>
+          <t>cierra.333</t>
         </is>
       </c>
       <c r="B82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>trinitycole_</t>
+          <t>luke.ydwog</t>
         </is>
       </c>
       <c r="B83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>sweet_tangerine_dreams</t>
+          <t>briannakirchner</t>
         </is>
       </c>
       <c r="B84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>the_weird_girl_katie</t>
+          <t>deezymartinez_</t>
         </is>
       </c>
       <c r="B85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>lay_layyy6</t>
+          <t>d.eme.tria</t>
         </is>
       </c>
       <c r="B86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>shaniyadanielleee</t>
+          <t>b_thedon04</t>
         </is>
       </c>
       <c r="B87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>a.machae</t>
+          <t>vivhammondd</t>
         </is>
       </c>
       <c r="B88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>pablo.m1randa</t>
+          <t>reagan.wales</t>
         </is>
       </c>
       <c r="B89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -1332,1723 +1320,1723 @@
         </is>
       </c>
       <c r="B90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>jameraakoto</t>
+          <t>wxrmtxxl</t>
         </is>
       </c>
       <c r="B91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>bev__waz__here</t>
+          <t>1jmanny</t>
         </is>
       </c>
       <c r="B92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>thereallquis</t>
+          <t>i.am.drew3x</t>
         </is>
       </c>
       <c r="B93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>theonlymantha</t>
+          <t>behanzin.2x</t>
         </is>
       </c>
       <c r="B94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>mary_haney_</t>
+          <t>benji_collawn</t>
         </is>
       </c>
       <c r="B95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>frogparty9</t>
+          <t>jeremiahboyyd</t>
         </is>
       </c>
       <c r="B96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>naja.brielle</t>
+          <t>rebehoni</t>
         </is>
       </c>
       <c r="B97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>god.com_plex</t>
+          <t>mekhicooper_</t>
         </is>
       </c>
       <c r="B98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>tis.mont</t>
+          <t>kev.tottin</t>
         </is>
       </c>
       <c r="B99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>muchluv444._lae</t>
+          <t>hello_kerri_</t>
         </is>
       </c>
       <c r="B100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>_good.vibes.2x_</t>
+          <t>nas._g0krzy</t>
         </is>
       </c>
       <c r="B101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>angeloliotta12</t>
+          <t>chismosa420</t>
         </is>
       </c>
       <c r="B102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>nyssanoemii</t>
+          <t>alexa_evans_</t>
         </is>
       </c>
       <c r="B103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>destanybrace</t>
+          <t>tonyidowu._</t>
         </is>
       </c>
       <c r="B104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>lilyamaris</t>
+          <t>noeliamccaffery</t>
         </is>
       </c>
       <c r="B105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>lillian_copeland_15</t>
+          <t>superswagsarah</t>
         </is>
       </c>
       <c r="B106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>lingyunhu</t>
+          <t>ha.alle</t>
         </is>
       </c>
       <c r="B107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>viviennegsoto</t>
+          <t>777.giannaa</t>
         </is>
       </c>
       <c r="B108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>ugh.niiiii</t>
+          <t>issa_cadance</t>
         </is>
       </c>
       <c r="B109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>puma2xx._</t>
+          <t>masonh1871</t>
         </is>
       </c>
       <c r="B110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>maddieecochran</t>
+          <t>melody_alfred</t>
         </is>
       </c>
       <c r="B111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>txrriion</t>
+          <t>2xmiah</t>
         </is>
       </c>
       <c r="B112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>scaredmui</t>
+          <t>jojo_26x</t>
         </is>
       </c>
       <c r="B113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>m.4dds</t>
+          <t>a_n_e_y_a</t>
         </is>
       </c>
       <c r="B114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>is_it_ky</t>
+          <t>ps.quanya</t>
         </is>
       </c>
       <c r="B115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>amayamassie</t>
+          <t>madi.abrielleee</t>
         </is>
       </c>
       <c r="B116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>theyluv.genisus</t>
+          <t>anna_banana2705</t>
         </is>
       </c>
       <c r="B117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>vivhammondd</t>
+          <t>chloe.bastiaans</t>
         </is>
       </c>
       <c r="B118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>nika_pathak</t>
+          <t>issa.bellax</t>
         </is>
       </c>
       <c r="B119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>brey.anna_</t>
+          <t>viviennegsoto</t>
         </is>
       </c>
       <c r="B120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>_estchandler_</t>
+          <t>niyahcamilla</t>
         </is>
       </c>
       <c r="B121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>heylyssaaa</t>
+          <t>lyssey__</t>
         </is>
       </c>
       <c r="B122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>222.rita</t>
+          <t>oduintervarsity</t>
         </is>
       </c>
       <c r="B123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>ariellies</t>
+          <t>lavenderthaylen</t>
         </is>
       </c>
       <c r="B124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>urxsin</t>
+          <t>thelux.experience_</t>
         </is>
       </c>
       <c r="B125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>denimroberson</t>
+          <t>liv_alauna.25k</t>
         </is>
       </c>
       <c r="B126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>mariska_love23</t>
+          <t>mochav.exe</t>
         </is>
       </c>
       <c r="B127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>sadlytoons</t>
+          <t>theylovemiyaa._</t>
         </is>
       </c>
       <c r="B128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>wxrmtxxl</t>
+          <t>a.stxckz</t>
         </is>
       </c>
       <c r="B129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>j.xiiiovu</t>
+          <t>ej_kash</t>
         </is>
       </c>
       <c r="B130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>ag_whalen</t>
+          <t>da.nasia.aa</t>
         </is>
       </c>
       <c r="B131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>_yoodev_</t>
+          <t>la.mikaaaaa</t>
         </is>
       </c>
       <c r="B132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>bodenbeep._.sam</t>
+          <t>niyah_rishea04</t>
         </is>
       </c>
       <c r="B133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>mylesw5</t>
+          <t>m0ney.mink_</t>
         </is>
       </c>
       <c r="B134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>channyn_b</t>
+          <t>klassiccdolll</t>
         </is>
       </c>
       <c r="B135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>aniyahxnicole</t>
+          <t>thesweetestsour722</t>
         </is>
       </c>
       <c r="B136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>t.timberlin10</t>
+          <t>serenity.deann</t>
         </is>
       </c>
       <c r="B137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>erikasakoma</t>
+          <t>cj.rbh</t>
         </is>
       </c>
       <c r="B138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>o.camara_</t>
+          <t>_.llouieee</t>
         </is>
       </c>
       <c r="B139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>nyyali._</t>
+          <t>vibeewithnyy</t>
         </is>
       </c>
       <c r="B140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>elhxdg</t>
+          <t>6penc0r</t>
         </is>
       </c>
       <c r="B141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>audrakaeperry</t>
+          <t>_k.xnnedy</t>
         </is>
       </c>
       <c r="B142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>amandaawilsonn_</t>
+          <t>hey.its_isabella</t>
         </is>
       </c>
       <c r="B143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>jasminpiggott</t>
+          <t>ryunsagee</t>
         </is>
       </c>
       <c r="B144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>shavarrr</t>
+          <t>moc_milena23</t>
         </is>
       </c>
       <c r="B145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>lik2x_</t>
+          <t>br0wnnsugga_</t>
         </is>
       </c>
       <c r="B146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>themachine1278</t>
+          <t>kdeezy_._</t>
         </is>
       </c>
       <c r="B147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>lloganstancill</t>
+          <t>dag.ayelee</t>
         </is>
       </c>
       <c r="B148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>shynotlow</t>
+          <t>toriaanicoleee</t>
         </is>
       </c>
       <c r="B149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>_tiyaaa.xo</t>
+          <t>nataly_diaz23</t>
         </is>
       </c>
       <c r="B150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>zach_may.ffl</t>
+          <t>k.i.t.t.a.n.a</t>
         </is>
       </c>
       <c r="B151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>jakeiraannae</t>
+          <t>tania.anyaa</t>
         </is>
       </c>
       <c r="B152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>_.iiamlaaay</t>
+          <t>ms.milaniaaa</t>
         </is>
       </c>
       <c r="B153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>neckomata</t>
+          <t>222.rita</t>
         </is>
       </c>
       <c r="B154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>iammarionnn</t>
+          <t>justlivin__lj05</t>
         </is>
       </c>
       <c r="B155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>stelluhc</t>
+          <t>odumonarchmayhem</t>
         </is>
       </c>
       <c r="B156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>rae.___.cox</t>
+          <t>luv.catieee</t>
         </is>
       </c>
       <c r="B157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>poundtown_e</t>
+          <t>itsjuss.aysia</t>
         </is>
       </c>
       <c r="B158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>_annikaaaa__</t>
+          <t>stelluhc</t>
         </is>
       </c>
       <c r="B159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>iirieara</t>
+          <t>richards_emersonn</t>
         </is>
       </c>
       <c r="B160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>bandupmari_</t>
+          <t>eyonnamonaeee</t>
         </is>
       </c>
       <c r="B161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>luva.laney</t>
+          <t>bratlyn1998</t>
         </is>
       </c>
       <c r="B162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>meyahgardner</t>
+          <t>laneca2</t>
         </is>
       </c>
       <c r="B163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>exoticliyah__</t>
+          <t>labonte.abbey</t>
         </is>
       </c>
       <c r="B164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>lulldiaaa_</t>
+          <t>dmv.jazz</t>
         </is>
       </c>
       <c r="B165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>awtsgegeboss</t>
+          <t>iiaamlizz__</t>
         </is>
       </c>
       <c r="B166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>slattyyyshttt</t>
+          <t>n0nl0vin.ny</t>
         </is>
       </c>
       <c r="B167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>_chrissyg_03</t>
+          <t>ilynasia</t>
         </is>
       </c>
       <c r="B168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>iramosyanez</t>
+          <t>ssokoo_</t>
         </is>
       </c>
       <c r="B169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>pr0m133</t>
+          <t>theonlymantha</t>
         </is>
       </c>
       <c r="B170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>deamonteeee</t>
+          <t>payton.wrighttt</t>
         </is>
       </c>
       <c r="B171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>ok_.tay</t>
+          <t>3xmiah</t>
         </is>
       </c>
       <c r="B172" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>itssss._sydney_</t>
+          <t>_tiyaaa.xo</t>
         </is>
       </c>
       <c r="B173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>nicole_011105</t>
+          <t>vr_tre</t>
         </is>
       </c>
       <c r="B174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>giannarios4105</t>
+          <t>itgir1p</t>
         </is>
       </c>
       <c r="B175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>nbajayd007</t>
+          <t>heylyssaaa</t>
         </is>
       </c>
       <c r="B176" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>nas._g0krzy</t>
+          <t>_joshalyn_mlh_</t>
         </is>
       </c>
       <c r="B177" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>taahthe7th</t>
+          <t>juliashrvz</t>
         </is>
       </c>
       <c r="B178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>le_lovebell</t>
+          <t>macyvmarshall</t>
         </is>
       </c>
       <c r="B179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>jackf004</t>
+          <t>_good.vibes.2x_</t>
         </is>
       </c>
       <c r="B180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>its.jakaylam</t>
+          <t>walkerwoood</t>
         </is>
       </c>
       <c r="B181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>da.nasia.aa</t>
+          <t>npc.von</t>
         </is>
       </c>
       <c r="B182" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>myahdent</t>
+          <t>zonnie101</t>
         </is>
       </c>
       <c r="B183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>red789000</t>
+          <t>_.genesis25._</t>
         </is>
       </c>
       <c r="B184" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>a.fraley6</t>
+          <t>eli_w445</t>
         </is>
       </c>
       <c r="B185" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>oliviancottrell</t>
+          <t>_pipermccoy</t>
         </is>
       </c>
       <c r="B186" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>_2vague_</t>
+          <t>tajjani_</t>
         </is>
       </c>
       <c r="B187" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>knockoffbillylenz</t>
+          <t>_tname.kala</t>
         </is>
       </c>
       <c r="B188" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>fictional_sam</t>
+          <t>donte_montague</t>
         </is>
       </c>
       <c r="B189" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>becca72101</t>
+          <t>sirena._.rane</t>
         </is>
       </c>
       <c r="B190" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>thebonnetburglar</t>
+          <t>_.jt2hott</t>
         </is>
       </c>
       <c r="B191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>1b0ss._e</t>
+          <t>cch.rle</t>
         </is>
       </c>
       <c r="B192" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>laneca2</t>
+          <t>itz_.aaron</t>
         </is>
       </c>
       <c r="B193" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>j.allen.07</t>
+          <t>code_i.b</t>
         </is>
       </c>
       <c r="B194" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>fbx.chrome</t>
+          <t>viisinterlude</t>
         </is>
       </c>
       <c r="B195" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>anna_banana2705</t>
+          <t>b_rizzleeeee</t>
         </is>
       </c>
       <c r="B196" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>_liltori</t>
+          <t>eelenammarie</t>
         </is>
       </c>
       <c r="B197" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>danielle_fayeeee</t>
+          <t>jen.asha</t>
         </is>
       </c>
       <c r="B198" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>_.ashleyll</t>
+          <t>eriicadawn</t>
         </is>
       </c>
       <c r="B199" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>omegaphialphaodu</t>
+          <t>alexandrajay._</t>
         </is>
       </c>
       <c r="B200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>breno__williams</t>
+          <t>mahalnicole</t>
         </is>
       </c>
       <c r="B201" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>40ksantana</t>
+          <t>colormeinkguy</t>
         </is>
       </c>
       <c r="B202" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>renaycionna</t>
+          <t>kevinbgloverll</t>
         </is>
       </c>
       <c r="B203" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>seun_olayinka15</t>
+          <t>brockboy808</t>
         </is>
       </c>
       <c r="B204" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>koko.klassics</t>
+          <t>yonnii_g_film</t>
         </is>
       </c>
       <c r="B205" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>jamayaaaa__</t>
+          <t>hey.itsdayyy_</t>
         </is>
       </c>
       <c r="B206" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>vibeewithnyy</t>
+          <t>jasminpiggott</t>
         </is>
       </c>
       <c r="B207" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>sarah.phil_</t>
+          <t>_nadia.2x</t>
         </is>
       </c>
       <c r="B208" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>anti_rockksss</t>
+          <t>jakeiraannae</t>
         </is>
       </c>
       <c r="B209" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>ayanna_j1943</t>
+          <t>_.bpayne._</t>
         </is>
       </c>
       <c r="B210" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>nyybabyy._</t>
+          <t>nolawit.a</t>
         </is>
       </c>
       <c r="B211" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>marco_pontorno1</t>
+          <t>k_knobl</t>
         </is>
       </c>
       <c r="B212" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>richards_emersonn</t>
+          <t>sierra.haun</t>
         </is>
       </c>
       <c r="B213" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>harpersapisces</t>
+          <t>thatprettyscorpio</t>
         </is>
       </c>
       <c r="B214" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>ryaahdagreat</t>
+          <t>noah.caliendo</t>
         </is>
       </c>
       <c r="B215" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>m0ney.mink_</t>
+          <t>so_itsdamari</t>
         </is>
       </c>
       <c r="B216" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>x.o.evie</t>
+          <t>_.davidjohnson_</t>
         </is>
       </c>
       <c r="B217" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>odu_admissions</t>
+          <t>truthfullyelise</t>
         </is>
       </c>
       <c r="B218" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>deanna._.kay</t>
+          <t>amandaawilsonn_</t>
         </is>
       </c>
       <c r="B219" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>viisinterlude</t>
+          <t>this_is_normal_alright</t>
         </is>
       </c>
       <c r="B220" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>literallyvictoria</t>
+          <t>nayamelanie</t>
         </is>
       </c>
       <c r="B221" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>earth.2summerrr</t>
+          <t>chx._nel</t>
         </is>
       </c>
       <c r="B222" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>yo_marshawn</t>
+          <t>monarchdining</t>
         </is>
       </c>
       <c r="B223" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>ashley.altvater</t>
+          <t>j9inee__</t>
         </is>
       </c>
       <c r="B224" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>desthagoatt</t>
+          <t>aloha.etc</t>
         </is>
       </c>
       <c r="B225" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>issa_cadance</t>
+          <t>is_it_ky</t>
         </is>
       </c>
       <c r="B226" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>ethanstopperich</t>
+          <t>sillylucifer666</t>
         </is>
       </c>
       <c r="B227" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>jay.dinnnnn</t>
+          <t>gowdy.ekul</t>
         </is>
       </c>
       <c r="B228" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>imjusttae1</t>
+          <t>lillian_copeland_15</t>
         </is>
       </c>
       <c r="B229" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>jaelynstrohl</t>
+          <t>marco_pontorno1</t>
         </is>
       </c>
       <c r="B230" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>eyonnamonaeee</t>
+          <t>aynakojhen</t>
         </is>
       </c>
       <c r="B231" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>lexiibiancaa</t>
+          <t>lilianamilaniii</t>
         </is>
       </c>
       <c r="B232" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>odunphc</t>
+          <t>jenny.fr_</t>
         </is>
       </c>
       <c r="B233" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>qutieee.t</t>
+          <t>emersyynj</t>
         </is>
       </c>
       <c r="B234" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>odumonarchmayhem</t>
+          <t>jalyn.k_</t>
         </is>
       </c>
       <c r="B235" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>niyah_rishea04</t>
+          <t>mary_haney_</t>
         </is>
       </c>
       <c r="B236" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>megann.rogers</t>
+          <t>ayanna_j1943</t>
         </is>
       </c>
       <c r="B237" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>ash.kenworthy</t>
+          <t>jayme_the_emby</t>
         </is>
       </c>
       <c r="B238" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>benn.wells</t>
+          <t>brbnata</t>
         </is>
       </c>
       <c r="B239" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>dag.ayelee</t>
+          <t>deeazyyt</t>
         </is>
       </c>
       <c r="B240" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>alexiselisadurand</t>
+          <t>knockoffbillylenz</t>
         </is>
       </c>
       <c r="B241" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>its.ayana15</t>
+          <t>v.hoang23</t>
         </is>
       </c>
       <c r="B242" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>lil_leprechaun24</t>
+          <t>rebeccasaniaa</t>
         </is>
       </c>
       <c r="B243" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>drea_bynum</t>
+          <t>katie.latigona</t>
         </is>
       </c>
       <c r="B244" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>trishie.lizard</t>
+          <t>arow010305</t>
         </is>
       </c>
       <c r="B245" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>mol_zions23</t>
+          <t>kyrayasmine</t>
         </is>
       </c>
       <c r="B246" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>mahalnicole</t>
+          <t>allyson.abraham</t>
         </is>
       </c>
       <c r="B247" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>david_hertzler</t>
+          <t>patty__rick_</t>
         </is>
       </c>
       <c r="B248" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>_itschari</t>
+          <t>yourgurld3xxi</t>
         </is>
       </c>
       <c r="B249" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>reginaeeeeee</t>
+          <t>duchieeszn_</t>
         </is>
       </c>
       <c r="B250" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>ij_rey</t>
+          <t>puma2xx._</t>
         </is>
       </c>
       <c r="B251" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>nibir05</t>
+          <t>kenroji</t>
         </is>
       </c>
       <c r="B252" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>oduintervarsity</t>
+          <t>ciarrathurston</t>
         </is>
       </c>
       <c r="B253" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>804_doni</t>
+          <t>rhealevinn</t>
         </is>
       </c>
       <c r="B254" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>craxy_beautiful143</t>
+          <t>shiannig_</t>
         </is>
       </c>
       <c r="B255" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>panintheabyss</t>
+          <t>mayleen113</t>
         </is>
       </c>
       <c r="B256" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>777.giannaa</t>
+          <t>sophie.cluck</t>
         </is>
       </c>
       <c r="B257" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>amelia_valentinaa</t>
+          <t>ayden.garcia00</t>
         </is>
       </c>
       <c r="B258" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>shawnfii_</t>
+          <t>justimki</t>
         </is>
       </c>
       <c r="B259" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>brbnata</t>
+          <t>african_giant_19</t>
         </is>
       </c>
       <c r="B260" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>heluvvmiahh</t>
+          <t>bri_era</t>
         </is>
       </c>
       <c r="B261" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>mol_tamora23</t>
+          <t>koby.lonzell</t>
         </is>
       </c>
       <c r="B262" t="b">
@@ -3058,7 +3046,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>katie.latigona</t>
+          <t>a.fraley6</t>
         </is>
       </c>
       <c r="B263" t="b">
@@ -3068,7 +3056,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>noluv._.shad__</t>
+          <t>breah.shenell</t>
         </is>
       </c>
       <c r="B264" t="b">
@@ -3078,7 +3066,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>pov_drew12</t>
+          <t>1i1chick</t>
         </is>
       </c>
       <c r="B265" t="b">
@@ -3088,7 +3076,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>yonnii_g_film</t>
+          <t>dats.so.kiyah</t>
         </is>
       </c>
       <c r="B266" t="b">
@@ -3098,7 +3086,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>t.quinn15</t>
+          <t>nataleemarieee</t>
         </is>
       </c>
       <c r="B267" t="b">
@@ -3108,7 +3096,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>ayoo.quii</t>
+          <t>_diana._.r</t>
         </is>
       </c>
       <c r="B268" t="b">
@@ -3118,7 +3106,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>ssokoo_</t>
+          <t>annasdelacruzz</t>
         </is>
       </c>
       <c r="B269" t="b">
@@ -3128,7 +3116,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>te.ss3341</t>
+          <t>ariellies</t>
         </is>
       </c>
       <c r="B270" t="b">
@@ -3138,7 +3126,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>arianaaa400</t>
+          <t>itsfatmataaa</t>
         </is>
       </c>
       <c r="B271" t="b">
@@ -3148,7 +3136,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>nyaamilanoo</t>
+          <t>just.jamir_</t>
         </is>
       </c>
       <c r="B272" t="b">
@@ -3158,7 +3146,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>_xo.torii</t>
+          <t>chrissy._.17</t>
         </is>
       </c>
       <c r="B273" t="b">
@@ -3168,7 +3156,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>natalieolsonnnn</t>
+          <t>alisaromannnn</t>
         </is>
       </c>
       <c r="B274" t="b">
@@ -3178,7 +3166,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>gelohavinn</t>
+          <t>brionniii</t>
         </is>
       </c>
       <c r="B275" t="b">
@@ -3188,7 +3176,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>i.am.drew3x</t>
+          <t>odusfinest25</t>
         </is>
       </c>
       <c r="B276" t="b">
@@ -3198,7 +3186,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>jenny.fr_</t>
+          <t>ripbjay</t>
         </is>
       </c>
       <c r="B277" t="b">
@@ -3208,7 +3196,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>austins0625</t>
+          <t>nyssanoemii</t>
         </is>
       </c>
       <c r="B278" t="b">
@@ -3218,7 +3206,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>rhett_taylor</t>
+          <t>siyannaaa</t>
         </is>
       </c>
       <c r="B279" t="b">
@@ -3228,7 +3216,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>themaggiehaynes_</t>
+          <t>riley.lyles</t>
         </is>
       </c>
       <c r="B280" t="b">
@@ -3238,7 +3226,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>kit.rowan</t>
+          <t>mallorryy.b</t>
         </is>
       </c>
       <c r="B281" t="b">
@@ -3248,7 +3236,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>lilianamilaniii</t>
+          <t>kylie.lesina</t>
         </is>
       </c>
       <c r="B282" t="b">
@@ -3258,7 +3246,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>1jmanny</t>
+          <t>saniaamichelleee_</t>
         </is>
       </c>
       <c r="B283" t="b">
@@ -3268,7 +3256,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>__.iambree</t>
+          <t>_rylielittle_</t>
         </is>
       </c>
       <c r="B284" t="b">
@@ -3278,7 +3266,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>_l.eslie._</t>
+          <t>_luvjadaaa</t>
         </is>
       </c>
       <c r="B285" t="b">
@@ -3288,7 +3276,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>noeliamccaffery</t>
+          <t>itsdesbtw</t>
         </is>
       </c>
       <c r="B286" t="b">
@@ -3298,7 +3286,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>1i1chick</t>
+          <t>sir_savage_ok</t>
         </is>
       </c>
       <c r="B287" t="b">
@@ -3308,7 +3296,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>madi.hartel</t>
+          <t>akosuuaa</t>
         </is>
       </c>
       <c r="B288" t="b">
@@ -3318,7 +3306,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>just.jamir_</t>
+          <t>just._.khamari</t>
         </is>
       </c>
       <c r="B289" t="b">
@@ -3328,7 +3316,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>ej_kash</t>
+          <t>rj_the_goat_</t>
         </is>
       </c>
       <c r="B290" t="b">
@@ -3348,7 +3336,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>madsciencist</t>
+          <t>natalieolsonnnn</t>
         </is>
       </c>
       <c r="B292" t="b">
@@ -3358,7 +3346,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>goated_dom</t>
+          <t>madsciencist</t>
         </is>
       </c>
       <c r="B293" t="b">
@@ -3368,7 +3356,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>serenity.deann</t>
+          <t>craxy_beautiful143</t>
         </is>
       </c>
       <c r="B294" t="b">
@@ -3378,7 +3366,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>_luvjadaaa</t>
+          <t>peyton.milania</t>
         </is>
       </c>
       <c r="B295" t="b">
@@ -3388,7 +3376,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>amyaajanaee</t>
+          <t>henryzmonroe</t>
         </is>
       </c>
       <c r="B296" t="b">
@@ -3398,7 +3386,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>iamgstacks</t>
+          <t>_duhhitsneee</t>
         </is>
       </c>
       <c r="B297" t="b">
@@ -3408,7 +3396,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>oliviaashardae</t>
+          <t>jsnathann</t>
         </is>
       </c>
       <c r="B298" t="b">
@@ -3418,7 +3406,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>pyttt.noelle</t>
+          <t>brixnnanicole_</t>
         </is>
       </c>
       <c r="B299" t="b">
@@ -3428,7 +3416,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>melody_alfred</t>
+          <t>omegaphialphaodu</t>
         </is>
       </c>
       <c r="B300" t="b">
@@ -3438,7 +3426,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>luv4thuy</t>
+          <t>804._leekk</t>
         </is>
       </c>
       <c r="B301" t="b">
@@ -3448,7 +3436,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>zonnie101</t>
+          <t>zeemontee</t>
         </is>
       </c>
       <c r="B302" t="b">
@@ -3458,7 +3446,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>ajdimichele</t>
+          <t>eia_l_j_h</t>
         </is>
       </c>
       <c r="B303" t="b">
@@ -3468,7 +3456,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>ky.meah</t>
+          <t>xxlaurenhubb</t>
         </is>
       </c>
       <c r="B304" t="b">
@@ -3478,7 +3466,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>thesweetestsour722</t>
+          <t>luv.smj</t>
         </is>
       </c>
       <c r="B305" t="b">
@@ -3488,7 +3476,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>j._.niah</t>
+          <t>k.gpld</t>
         </is>
       </c>
       <c r="B306" t="b">
@@ -3498,7 +3486,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>care.degss</t>
+          <t>_.ashlyngrace</t>
         </is>
       </c>
       <c r="B307" t="b">
@@ -3508,7 +3496,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>tania.anyaa</t>
+          <t>c.mcav</t>
         </is>
       </c>
       <c r="B308" t="b">
@@ -3518,7 +3506,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>issa.bellax</t>
+          <t>whyh8._ty</t>
         </is>
       </c>
       <c r="B309" t="b">
@@ -3528,7 +3516,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>tevionnn</t>
+          <t>clarence4._</t>
         </is>
       </c>
       <c r="B310" t="b">
@@ -3538,7 +3526,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>tatyannaurquhart</t>
+          <t>elizabean1211</t>
         </is>
       </c>
       <c r="B311" t="b">
@@ -3548,7 +3536,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>nataly_diaz23</t>
+          <t>ryaahdagreat</t>
         </is>
       </c>
       <c r="B312" t="b">
@@ -3558,7 +3546,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>nxtedworchak</t>
+          <t>heluvvmiahh</t>
         </is>
       </c>
       <c r="B313" t="b">
@@ -3568,7 +3556,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>imm.jadaa</t>
+          <t>naja.brielle</t>
         </is>
       </c>
       <c r="B314" t="b">
@@ -3578,7 +3566,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>dmv.jazz</t>
+          <t>222.megannn</t>
         </is>
       </c>
       <c r="B315" t="b">
@@ -3588,7 +3576,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>mattmalpaya</t>
+          <t>nevaehkendal</t>
         </is>
       </c>
       <c r="B316" t="b">
@@ -3598,7 +3586,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>bagchasnx</t>
+          <t>amour.oliviaa</t>
         </is>
       </c>
       <c r="B317" t="b">
@@ -3608,7 +3596,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>lavenderthaylen</t>
+          <t>ca.nani</t>
         </is>
       </c>
       <c r="B318" t="b">
@@ -3618,7 +3606,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>queen_panther_og</t>
+          <t>katielutz__</t>
         </is>
       </c>
       <c r="B319" t="b">
@@ -3628,7 +3616,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>keeganschnupp</t>
+          <t>codename.ajj</t>
         </is>
       </c>
       <c r="B320" t="b">
@@ -3638,7 +3626,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>itss._jojo</t>
+          <t>1b0ss._e</t>
         </is>
       </c>
       <c r="B321" t="b">
@@ -3648,7 +3636,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>cjsocool757</t>
+          <t>giannarios4105</t>
         </is>
       </c>
       <c r="B322" t="b">
@@ -3658,7 +3646,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>nx.gxlden</t>
+          <t>alyssaronann</t>
         </is>
       </c>
       <c r="B323" t="b">
@@ -3668,7 +3656,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>vr_tre</t>
+          <t>kayylapowwell</t>
         </is>
       </c>
       <c r="B324" t="b">
@@ -3678,7 +3666,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>redisnotokay</t>
+          <t>oliviaphillips._</t>
         </is>
       </c>
       <c r="B325" t="b">
@@ -3688,7 +3676,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>braxtonnicolee_</t>
+          <t>804_doni</t>
         </is>
       </c>
       <c r="B326" t="b">
@@ -3698,7 +3686,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>jereemiaahh</t>
+          <t>tara.sank</t>
         </is>
       </c>
       <c r="B327" t="b">
@@ -3708,7 +3696,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>just_.ivyy</t>
+          <t>dylan_t29</t>
         </is>
       </c>
       <c r="B328" t="b">
@@ -3718,7 +3706,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>a.wdyma</t>
+          <t>meyahgardner</t>
         </is>
       </c>
       <c r="B329" t="b">
@@ -3728,7 +3716,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>tsankner</t>
+          <t>__trah__</t>
         </is>
       </c>
       <c r="B330" t="b">
@@ -3738,7 +3726,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>jadenrare</t>
+          <t>jackf004</t>
         </is>
       </c>
       <c r="B331" t="b">
@@ -3748,7 +3736,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>jddaavviiss</t>
+          <t>__stewart001</t>
         </is>
       </c>
       <c r="B332" t="b">
@@ -3758,7 +3746,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>2xx_t</t>
+          <t>odu_set</t>
         </is>
       </c>
       <c r="B333" t="b">
@@ -3768,7 +3756,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>jayme_the_emby</t>
+          <t>elhxdg</t>
         </is>
       </c>
       <c r="B334" t="b">
@@ -3778,7 +3766,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>maelynaltman</t>
+          <t>_mariahjj_</t>
         </is>
       </c>
       <c r="B335" t="b">
@@ -3788,7 +3776,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>galen.a.june</t>
+          <t>shavarrr</t>
         </is>
       </c>
       <c r="B336" t="b">
@@ -3798,7 +3786,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>tjolsen13</t>
+          <t>lilyamaris</t>
         </is>
       </c>
       <c r="B337" t="b">
@@ -3808,7 +3796,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>_duhhitsneee</t>
+          <t>xottic.franny</t>
         </is>
       </c>
       <c r="B338" t="b">
@@ -3818,7 +3806,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>kylie.lesina</t>
+          <t>aaymaaxco</t>
         </is>
       </c>
       <c r="B339" t="b">
@@ -3828,7 +3816,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>okayy.ky</t>
+          <t>qutieee.t</t>
         </is>
       </c>
       <c r="B340" t="b">
@@ -3838,7 +3826,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>oduphc</t>
+          <t>_trixiebankss_</t>
         </is>
       </c>
       <c r="B341" t="b">
@@ -3858,7 +3846,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>aud8ciously</t>
+          <t>jadenrare</t>
         </is>
       </c>
       <c r="B343" t="b">
@@ -3868,7 +3856,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>eelenammarie</t>
+          <t>emilyanaliesee</t>
         </is>
       </c>
       <c r="B344" t="b">
@@ -3878,7 +3866,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>nikki_welp</t>
+          <t>summyhill</t>
         </is>
       </c>
       <c r="B345" t="b">
@@ -3888,7 +3876,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>ciarrathurston</t>
+          <t>brey.anna_</t>
         </is>
       </c>
       <c r="B346" t="b">
@@ -3898,7 +3886,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>_fran.m27</t>
+          <t>redisnotokay</t>
         </is>
       </c>
       <c r="B347" t="b">
@@ -3908,7 +3896,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>iluvkeilani</t>
+          <t>_maddy_wright_</t>
         </is>
       </c>
       <c r="B348" t="b">
@@ -3918,7 +3906,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>trefrm301</t>
+          <t>_.bossupjaay._</t>
         </is>
       </c>
       <c r="B349" t="b">
@@ -3928,7 +3916,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>tiannanashe_</t>
+          <t>_.maddie._.elise.__</t>
         </is>
       </c>
       <c r="B350" t="b">
@@ -3938,7 +3926,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>_aayanna._</t>
+          <t>nadia.boggz</t>
         </is>
       </c>
       <c r="B351" t="b">
@@ -3948,7 +3936,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>grayson.757</t>
+          <t>babyyyy.nasia</t>
         </is>
       </c>
       <c r="B352" t="b">
@@ -3958,7 +3946,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>a.stxckz</t>
+          <t>sarahbrinell</t>
         </is>
       </c>
       <c r="B353" t="b">
@@ -3968,7 +3956,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>ngregory31</t>
+          <t>srboone030627</t>
         </is>
       </c>
       <c r="B354" t="b">
@@ -3978,7 +3966,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>lov3gabbiee</t>
+          <t>_.kaylaa5</t>
         </is>
       </c>
       <c r="B355" t="b">
@@ -3988,7 +3976,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>_.kaylaa5</t>
+          <t>odu_admissions</t>
         </is>
       </c>
       <c r="B356" t="b">
@@ -3998,7 +3986,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>just._.khamari</t>
+          <t>olivia._colleen</t>
         </is>
       </c>
       <c r="B357" t="b">
@@ -4008,7 +3996,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>kenroji</t>
+          <t>angeloliotta12</t>
         </is>
       </c>
       <c r="B358" t="b">
@@ -4018,7 +4006,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>_shamyyaa_</t>
+          <t>rando_guy1234</t>
         </is>
       </c>
       <c r="B359" t="b">
@@ -4028,7 +4016,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>liljessie_motts</t>
+          <t>muchluv444._lae</t>
         </is>
       </c>
       <c r="B360" t="b">
@@ -4038,7 +4026,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>odurecwell</t>
+          <t>nyybabyy._</t>
         </is>
       </c>
       <c r="B361" t="b">
@@ -4048,7 +4036,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>patrickthetenor</t>
+          <t>jddaavviiss</t>
         </is>
       </c>
       <c r="B362" t="b">
@@ -4058,7 +4046,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>yourgurld3xxi</t>
+          <t>ionkno.nb</t>
         </is>
       </c>
       <c r="B363" t="b">
@@ -4068,7 +4056,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>theereallashayy</t>
+          <t>oduvegans</t>
         </is>
       </c>
       <c r="B364" t="b">
@@ -4078,7 +4066,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>brixnnanicole_</t>
+          <t>btomlinson152</t>
         </is>
       </c>
       <c r="B365" t="b">
@@ -4088,7 +4076,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>jan_.niece</t>
+          <t>chandlerryannee</t>
         </is>
       </c>
       <c r="B366" t="b">
@@ -4098,7 +4086,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>justt.india</t>
+          <t>blakeemitchell</t>
         </is>
       </c>
       <c r="B367" t="b">
@@ -4108,7 +4096,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>vvillmarsh</t>
+          <t>h.garrcia</t>
         </is>
       </c>
       <c r="B368" t="b">
@@ -4118,7 +4106,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>itsjuss.aysia</t>
+          <t>lulldiaaa_</t>
         </is>
       </c>
       <c r="B369" t="b">
@@ -4138,7 +4126,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>sarah.richardsonnn</t>
+          <t>ffltality</t>
         </is>
       </c>
       <c r="B371" t="b">
@@ -4148,7 +4136,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>may.life757</t>
+          <t>taylorzareno</t>
         </is>
       </c>
       <c r="B372" t="b">
@@ -4158,7 +4146,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>isthat.harmony</t>
+          <t>fbx.chrome</t>
         </is>
       </c>
       <c r="B373" t="b">
@@ -4168,7 +4156,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>theylovemiyaa._</t>
+          <t>j.xiiiovu</t>
         </is>
       </c>
       <c r="B374" t="b">
@@ -4178,7 +4166,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>jordyn._.dior</t>
+          <t>kjp4</t>
         </is>
       </c>
       <c r="B375" t="b">
@@ -4188,7 +4176,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>alexa_evans_</t>
+          <t>peytonnshumate</t>
         </is>
       </c>
       <c r="B376" t="b">
@@ -4198,7 +4186,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>jayshoelessspam</t>
+          <t>rae.ehde</t>
         </is>
       </c>
       <c r="B377" t="b">
@@ -4208,7 +4196,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>lik2hawd</t>
+          <t>_glama_gurl_</t>
         </is>
       </c>
       <c r="B378" t="b">
@@ -4218,7 +4206,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>_samyrahh_</t>
+          <t>nika_pathak</t>
         </is>
       </c>
       <c r="B379" t="b">
@@ -4228,7 +4216,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>aaymaaxco</t>
+          <t>justin.jayg</t>
         </is>
       </c>
       <c r="B380" t="b">
@@ -4238,7 +4226,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>sooinluvvwithceyy</t>
+          <t>amyaajanaee</t>
         </is>
       </c>
       <c r="B381" t="b">
@@ -4248,7 +4236,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>_rylielittle_</t>
+          <t>deanna._.kay</t>
         </is>
       </c>
       <c r="B382" t="b">
@@ -4258,7 +4246,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>sarahbrinell</t>
+          <t>nx.gxlden</t>
         </is>
       </c>
       <c r="B383" t="b">
@@ -4268,7 +4256,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>yuhboochie</t>
+          <t>amirra.aaa</t>
         </is>
       </c>
       <c r="B384" t="b">
@@ -4278,7 +4266,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>behanzin.2x</t>
+          <t>theereallashayy</t>
         </is>
       </c>
       <c r="B385" t="b">
@@ -4288,7 +4276,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>elizabean1211</t>
+          <t>luva.laney</t>
         </is>
       </c>
       <c r="B386" t="b">
@@ -4298,7 +4286,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>itsmeyasmineee</t>
+          <t>2xx_t</t>
         </is>
       </c>
       <c r="B387" t="b">
@@ -4308,7 +4296,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>justlivin__lj05</t>
+          <t>khemaniiii</t>
         </is>
       </c>
       <c r="B388" t="b">
@@ -4318,7 +4306,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>gabbylopardoo</t>
+          <t>odu_bov_rep</t>
         </is>
       </c>
       <c r="B389" t="b">
@@ -4328,7 +4316,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>offical.jareddonegan</t>
+          <t>_.shiino._</t>
         </is>
       </c>
       <c r="B390" t="b">
@@ -4338,7 +4326,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>rando_guy1234</t>
+          <t>elijah.sledge</t>
         </is>
       </c>
       <c r="B391" t="b">
@@ -4348,7 +4336,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>1st_ladydrea</t>
+          <t>danielle_fayeeee</t>
         </is>
       </c>
       <c r="B392" t="b">
@@ -4358,7 +4346,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>kaayniicole</t>
+          <t>joooleyah</t>
         </is>
       </c>
       <c r="B393" t="b">
@@ -4368,7 +4356,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>diary.of.christi</t>
+          <t>eman__walker</t>
         </is>
       </c>
       <c r="B394" t="b">
@@ -4378,7 +4366,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>niyahcamilla</t>
+          <t>ky.meah</t>
         </is>
       </c>
       <c r="B395" t="b">
@@ -4388,7 +4376,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>n_amxni</t>
+          <t>rafaeljimenez0</t>
         </is>
       </c>
       <c r="B396" t="b">
@@ -4398,7 +4386,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>oliviaphillips._</t>
+          <t>denimroberson</t>
         </is>
       </c>
       <c r="B397" t="b">
@@ -4408,7 +4396,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>odu_bov_rep</t>
+          <t>24k_.g</t>
         </is>
       </c>
       <c r="B398" t="b">
@@ -4418,7 +4406,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>sirena._.rane</t>
+          <t>kumor1._</t>
         </is>
       </c>
       <c r="B399" t="b">
@@ -4428,7 +4416,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>_diana._.r</t>
+          <t>odu_fits</t>
         </is>
       </c>
       <c r="B400" t="b">
@@ -4438,7 +4426,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>cj.rbh</t>
+          <t>malasiaaa.__</t>
         </is>
       </c>
       <c r="B401" t="b">
@@ -4448,7 +4436,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>prettie500</t>
+          <t>kayy.kurlss</t>
         </is>
       </c>
       <c r="B402" t="b">
@@ -4458,7 +4446,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>_.shiino._</t>
+          <t>sebas2x__</t>
         </is>
       </c>
       <c r="B403" t="b">
@@ -4468,7 +4456,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>trinaaa.nguyen</t>
+          <t>jamayaaaa__</t>
         </is>
       </c>
       <c r="B404" t="b">
@@ -4478,7 +4466,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>itsfatmataaa</t>
+          <t>scaredmui</t>
         </is>
       </c>
       <c r="B405" t="b">
@@ -4488,7 +4476,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>baller.maliyah</t>
+          <t>weluv.dannii</t>
         </is>
       </c>
       <c r="B406" t="b">
@@ -4498,7 +4486,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>rj_the_goat_</t>
+          <t>yeh.dii_</t>
         </is>
       </c>
       <c r="B407" t="b">
@@ -4508,7 +4496,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>kaytooliitforyallpeople</t>
+          <t>miamontague</t>
         </is>
       </c>
       <c r="B408" t="b">
@@ -4518,7 +4506,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>dom.blackston</t>
+          <t>_samyrahh_</t>
         </is>
       </c>
       <c r="B409" t="b">
@@ -4528,7 +4516,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>jordan.hobbs.921</t>
+          <t>megann.rogers</t>
         </is>
       </c>
       <c r="B410" t="b">
@@ -4538,7 +4526,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>eniazzirhk</t>
+          <t>it_parker12</t>
         </is>
       </c>
       <c r="B411" t="b">
@@ -4548,7 +4536,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>ny_a4</t>
+          <t>meraki._creationz</t>
         </is>
       </c>
       <c r="B412" t="b">
@@ -4558,7 +4546,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>daniniia</t>
+          <t>braeden_megenity</t>
         </is>
       </c>
       <c r="B413" t="b">
@@ -4568,7 +4556,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>maddyrxse</t>
+          <t>madisonfleger</t>
         </is>
       </c>
       <c r="B414" t="b">
@@ -4578,7 +4566,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>str8rawtv</t>
+          <t>ny_a4</t>
         </is>
       </c>
       <c r="B415" t="b">
@@ -4588,7 +4576,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>wb_mk6</t>
+          <t>frogparty9</t>
         </is>
       </c>
       <c r="B416" t="b">
@@ -4598,7 +4586,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>cjlanc777</t>
+          <t>_mobbin.matt_</t>
         </is>
       </c>
       <c r="B417" t="b">
@@ -4608,7 +4596,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>okidokihuman</t>
+          <t>sweet_tangerine_dreams</t>
         </is>
       </c>
       <c r="B418" t="b">
@@ -4618,7 +4606,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>222.megannn</t>
+          <t>aneesareel</t>
         </is>
       </c>
       <c r="B419" t="b">
@@ -4628,7 +4616,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>dats.so.kiyah</t>
+          <t>say._baker</t>
         </is>
       </c>
       <c r="B420" t="b">
@@ -4638,7 +4626,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>najamanaee</t>
+          <t>jeremiah_p13</t>
         </is>
       </c>
       <c r="B421" t="b">
@@ -4648,7 +4636,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>meraki._creationz</t>
+          <t>audrakaeperry</t>
         </is>
       </c>
       <c r="B422" t="b">
@@ -4658,7 +4646,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>dejarochae</t>
+          <t>bagchasnx</t>
         </is>
       </c>
       <c r="B423" t="b">
@@ -4668,7 +4656,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>makayyy.xo</t>
+          <t>reesehaulenbeek</t>
         </is>
       </c>
       <c r="B424" t="b">
@@ -4678,7 +4666,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>drizz.dk</t>
+          <t>daniniia</t>
         </is>
       </c>
       <c r="B425" t="b">
@@ -4688,7 +4676,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>mistaken_nii</t>
+          <t>makaylaboney</t>
         </is>
       </c>
       <c r="B426" t="b">
@@ -4698,7 +4686,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>lowkeyavi03</t>
+          <t>kaylaa.ivey</t>
         </is>
       </c>
       <c r="B427" t="b">
@@ -4708,7 +4696,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>vb.sean</t>
+          <t>baller.maliyah</t>
         </is>
       </c>
       <c r="B428" t="b">
@@ -4718,7 +4706,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>br0wnnsugga_</t>
+          <t>kaayniicole</t>
         </is>
       </c>
       <c r="B429" t="b">
@@ -4728,7 +4716,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>benji_collawn</t>
+          <t>sadlytoons</t>
         </is>
       </c>
       <c r="B430" t="b">
@@ -4738,7 +4726,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>colormeinkguy</t>
+          <t>therealcapois</t>
         </is>
       </c>
       <c r="B431" t="b">
@@ -4748,7 +4736,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>72_tribbey</t>
+          <t>_aayanna._</t>
         </is>
       </c>
       <c r="B432" t="b">
@@ -4758,140 +4746,10 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>allyson.abraham</t>
+          <t>m.quette</t>
         </is>
       </c>
       <c r="B433" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="434">
-      <c r="A434" t="inlineStr">
-        <is>
-          <t>j.cbfw</t>
-        </is>
-      </c>
-      <c r="B434" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="435">
-      <c r="A435" t="inlineStr">
-        <is>
-          <t>akosuuaa</t>
-        </is>
-      </c>
-      <c r="B435" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="436">
-      <c r="A436" t="inlineStr">
-        <is>
-          <t>bakedwithrandy</t>
-        </is>
-      </c>
-      <c r="B436" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="437">
-      <c r="A437" t="inlineStr">
-        <is>
-          <t>niaw0e</t>
-        </is>
-      </c>
-      <c r="B437" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="438">
-      <c r="A438" t="inlineStr">
-        <is>
-          <t>btomlinson152</t>
-        </is>
-      </c>
-      <c r="B438" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="439">
-      <c r="A439" t="inlineStr">
-        <is>
-          <t>henryzmonroe</t>
-        </is>
-      </c>
-      <c r="B439" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="440">
-      <c r="A440" t="inlineStr">
-        <is>
-          <t>murvintaylor</t>
-        </is>
-      </c>
-      <c r="B440" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="441">
-      <c r="A441" t="inlineStr">
-        <is>
-          <t>monarchdining</t>
-        </is>
-      </c>
-      <c r="B441" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="442">
-      <c r="A442" t="inlineStr">
-        <is>
-          <t>peytonnshumate</t>
-        </is>
-      </c>
-      <c r="B442" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="443">
-      <c r="A443" t="inlineStr">
-        <is>
-          <t>jvst_dr3</t>
-        </is>
-      </c>
-      <c r="B443" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="444">
-      <c r="A444" t="inlineStr">
-        <is>
-          <t>whooiscici</t>
-        </is>
-      </c>
-      <c r="B444" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="445">
-      <c r="A445" t="inlineStr">
-        <is>
-          <t>angel_012104</t>
-        </is>
-      </c>
-      <c r="B445" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="446">
-      <c r="A446" t="inlineStr">
-        <is>
-          <t>yfosean2suave</t>
-        </is>
-      </c>
-      <c r="B446" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Marketing/odu.roomme.xlsx
+++ b/Marketing/odu.roomme.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Followers" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B433"/>
+  <dimension ref="A1:B421"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,12 +434,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Follower</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Contacted</t>
         </is>
@@ -436,1307 +448,1307 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>rxssell._</t>
+          <t>justin.jayg</t>
         </is>
       </c>
       <c r="B2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>domhavinn</t>
+          <t>n_amxni</t>
         </is>
       </c>
       <c r="B3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>rileyml_24</t>
+          <t>david_hertzler</t>
         </is>
       </c>
       <c r="B4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>symonehopeee</t>
+          <t>ogkscoot</t>
         </is>
       </c>
       <c r="B5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>rahshadthesungod</t>
+          <t>brixnnanicole_</t>
         </is>
       </c>
       <c r="B6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>pov_drew12</t>
+          <t>makayyy.xo</t>
         </is>
       </c>
       <c r="B7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>gabby.amarti</t>
+          <t>hey.itsdayyy_</t>
         </is>
       </c>
       <c r="B8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>carolinneemitchelll</t>
+          <t>miracle.carranza</t>
         </is>
       </c>
       <c r="B9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jazzy.j_3</t>
+          <t>k.gpld</t>
         </is>
       </c>
       <c r="B10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>koko.klassics</t>
+          <t>joymoneybaby2</t>
         </is>
       </c>
       <c r="B11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ugh.niiiii</t>
+          <t>rhett_taylor</t>
         </is>
       </c>
       <c r="B12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3k.drayko</t>
+          <t>v.hoang23</t>
         </is>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>xoxo.monte_</t>
+          <t>djmercer</t>
         </is>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>cjlanc777</t>
+          <t>amariya_13</t>
         </is>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>da_realjp</t>
+          <t>kitsuxmarie</t>
         </is>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>m.moseleyjr</t>
+          <t>alexmendrinos17</t>
         </is>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>reginaeeeeee</t>
+          <t>makaylaboney</t>
         </is>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>bev__waz__here</t>
+          <t>ako.jhen</t>
         </is>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>miracle.carranza</t>
+          <t>luv.smj</t>
         </is>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>r1l3yyy_</t>
+          <t>t.timberlin10</t>
         </is>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>braxy.z</t>
+          <t>reilly_houper</t>
         </is>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>j.cbfw</t>
+          <t>777.giannaa</t>
         </is>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>hassanmo.11</t>
+          <t>_chrissyg_03</t>
         </is>
       </c>
       <c r="B24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>vb.sean</t>
+          <t>ashley.altvater</t>
         </is>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>storyof0nesty</t>
+          <t>_mobbin.matt_</t>
         </is>
       </c>
       <c r="B26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ellie.lepley</t>
+          <t>benji_collawn</t>
         </is>
       </c>
       <c r="B27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>t.eelah</t>
+          <t>lil_leprechaun24</t>
         </is>
       </c>
       <c r="B28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>nicole_011105</t>
+          <t>vibewitharin</t>
         </is>
       </c>
       <c r="B29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>xoxo._.samara</t>
+          <t>c.mcav</t>
         </is>
       </c>
       <c r="B30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>charleighshay</t>
+          <t>_.shiino._</t>
         </is>
       </c>
       <c r="B31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>jaelynstrohl</t>
+          <t>b_thedon04</t>
         </is>
       </c>
       <c r="B32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>djmercer</t>
+          <t>siyannaaa</t>
         </is>
       </c>
       <c r="B33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>__.iambree</t>
+          <t>itsjust__jasmine</t>
         </is>
       </c>
       <c r="B34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>care.degss</t>
+          <t>wb_mk6</t>
         </is>
       </c>
       <c r="B35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>scootj.5</t>
+          <t>brianna_velasquez_</t>
         </is>
       </c>
       <c r="B36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>aashle1ghh</t>
+          <t>thebonnetburglar</t>
         </is>
       </c>
       <c r="B37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>marissa_.h._</t>
+          <t>ky.meah</t>
         </is>
       </c>
       <c r="B38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>trishie.lizard</t>
+          <t>madzzz9</t>
         </is>
       </c>
       <c r="B39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>thenormalcris</t>
+          <t>blssdbeachmom2</t>
         </is>
       </c>
       <c r="B40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>korevet</t>
+          <t>_.bpayne._</t>
         </is>
       </c>
       <c r="B41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>leeleeana_</t>
+          <t>monarchdining</t>
         </is>
       </c>
       <c r="B42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>emjayfelder</t>
+          <t>nehae005</t>
         </is>
       </c>
       <c r="B43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>quanowtff</t>
+          <t>lovelyniyah._</t>
         </is>
       </c>
       <c r="B44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>kiyadivinee</t>
+          <t>kurly_mauii</t>
         </is>
       </c>
       <c r="B45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>just_.ivyy</t>
+          <t>storyof0nesty</t>
         </is>
       </c>
       <c r="B46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ariiibabiii_</t>
+          <t>yeh.dii_</t>
         </is>
       </c>
       <c r="B47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ky.naaa</t>
+          <t>jaclyn_16</t>
         </is>
       </c>
       <c r="B48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ciaramuug</t>
+          <t>_xo.torii</t>
         </is>
       </c>
       <c r="B49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>tolu._3</t>
+          <t>amandaawilsonn_</t>
         </is>
       </c>
       <c r="B50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>iam_colinn_</t>
+          <t>mmason_009</t>
         </is>
       </c>
       <c r="B51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>galen.a.june</t>
+          <t>heluvvmiahh</t>
         </is>
       </c>
       <c r="B52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>odurecwell</t>
+          <t>zander_curl</t>
         </is>
       </c>
       <c r="B53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>_xo.torii</t>
+          <t>baller.maliyah</t>
         </is>
       </c>
       <c r="B54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>vishal.moudgill30</t>
+          <t>zeemontee</t>
         </is>
       </c>
       <c r="B55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>kkeiramac</t>
+          <t>jphil.13</t>
         </is>
       </c>
       <c r="B56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>becca72101</t>
+          <t>reagan.wales</t>
         </is>
       </c>
       <c r="B57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>_dershonormon4</t>
+          <t>ej_kash</t>
         </is>
       </c>
       <c r="B58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>pyttt.noelle</t>
+          <t>mariamj.n</t>
         </is>
       </c>
       <c r="B59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>maddyrxse</t>
+          <t>alisaromannnn</t>
         </is>
       </c>
       <c r="B60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>queen_panther_og</t>
+          <t>tsankner</t>
         </is>
       </c>
       <c r="B61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>themaggiehaynes_</t>
+          <t>sydney.metzger</t>
         </is>
       </c>
       <c r="B62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>renaycionna</t>
+          <t>exoticliyah__</t>
         </is>
       </c>
       <c r="B63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>zach_may.ffl</t>
+          <t>jxrdan.s</t>
         </is>
       </c>
       <c r="B64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>syyd.ni</t>
+          <t>kkeiramac</t>
         </is>
       </c>
       <c r="B65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>maliyah.terry</t>
+          <t>ok_.tay</t>
         </is>
       </c>
       <c r="B66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>benn.wells</t>
+          <t>pretty_lil_bree_</t>
         </is>
       </c>
       <c r="B67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>theyluvv.kyrie1</t>
+          <t>jessiccagriffins</t>
         </is>
       </c>
       <c r="B68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>mol_seevounm23</t>
+          <t>thatprettyscorpio</t>
         </is>
       </c>
       <c r="B69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>_fran.m27</t>
+          <t>mistaken_nii</t>
         </is>
       </c>
       <c r="B70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>yo_marshawn</t>
+          <t>_duhhitsneee</t>
         </is>
       </c>
       <c r="B71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>blakebennett05</t>
+          <t>_mocha.exe</t>
         </is>
       </c>
       <c r="B72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>makayyy.xo</t>
+          <t>kelydeleonn</t>
         </is>
       </c>
       <c r="B73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>tiannanashe_</t>
+          <t>bemnet1.6</t>
         </is>
       </c>
       <c r="B74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>alexisdrayton</t>
+          <t>is_it_ky</t>
         </is>
       </c>
       <c r="B75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>bodenbeep._.sam</t>
+          <t>noeliamccaffery</t>
         </is>
       </c>
       <c r="B76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>kvshmari</t>
+          <t>anna_banana2705</t>
         </is>
       </c>
       <c r="B77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>itsmalikjayvonn</t>
+          <t>red789000</t>
         </is>
       </c>
       <c r="B78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>theyluv.genisus</t>
+          <t>lissette_.tenesaca</t>
         </is>
       </c>
       <c r="B79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>phinajamanaee</t>
+          <t>yanirachane1</t>
         </is>
       </c>
       <c r="B80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>amourxdana</t>
+          <t>janiicrepe_</t>
         </is>
       </c>
       <c r="B81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>cierra.333</t>
+          <t>lik2hawd</t>
         </is>
       </c>
       <c r="B82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>luke.ydwog</t>
+          <t>da_realjp</t>
         </is>
       </c>
       <c r="B83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>briannakirchner</t>
+          <t>rxssell._</t>
         </is>
       </c>
       <c r="B84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>deezymartinez_</t>
+          <t>artoo_223</t>
         </is>
       </c>
       <c r="B85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>d.eme.tria</t>
+          <t>maliyah.terry</t>
         </is>
       </c>
       <c r="B86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>b_thedon04</t>
+          <t>itsmeyasmineee</t>
         </is>
       </c>
       <c r="B87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>vivhammondd</t>
+          <t>trishie.lizard</t>
         </is>
       </c>
       <c r="B88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>reagan.wales</t>
+          <t>1.only_christian</t>
         </is>
       </c>
       <c r="B89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>jmarrriiii</t>
+          <t>va.caudd_</t>
         </is>
       </c>
       <c r="B90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>wxrmtxxl</t>
+          <t>757_bias</t>
         </is>
       </c>
       <c r="B91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>1jmanny</t>
+          <t>aneesareel</t>
         </is>
       </c>
       <c r="B92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>i.am.drew3x</t>
+          <t>kylahdenaee_</t>
         </is>
       </c>
       <c r="B93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>behanzin.2x</t>
+          <t>it_parker12</t>
         </is>
       </c>
       <c r="B94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>benji_collawn</t>
+          <t>theereallashayy</t>
         </is>
       </c>
       <c r="B95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>jeremiahboyyd</t>
+          <t>lavenderthaylen</t>
         </is>
       </c>
       <c r="B96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>rebehoni</t>
+          <t>brionniii</t>
         </is>
       </c>
       <c r="B97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>mekhicooper_</t>
+          <t>ew_kass</t>
         </is>
       </c>
       <c r="B98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>kev.tottin</t>
+          <t>seun_olayinka15</t>
         </is>
       </c>
       <c r="B99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>hello_kerri_</t>
+          <t>god.com_plex</t>
         </is>
       </c>
       <c r="B100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>nas._g0krzy</t>
+          <t>kayy.kurlss</t>
         </is>
       </c>
       <c r="B101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>chismosa420</t>
+          <t>odu_admissions</t>
         </is>
       </c>
       <c r="B102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>alexa_evans_</t>
+          <t>peyton_banuski_</t>
         </is>
       </c>
       <c r="B103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>tonyidowu._</t>
+          <t>oduwomensgenderstudies</t>
         </is>
       </c>
       <c r="B104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>noeliamccaffery</t>
+          <t>just._.khamari</t>
         </is>
       </c>
       <c r="B105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>superswagsarah</t>
+          <t>doitforyay</t>
         </is>
       </c>
       <c r="B106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>ha.alle</t>
+          <t>yrn._.malxolm</t>
         </is>
       </c>
       <c r="B107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>777.giannaa</t>
+          <t>samhouser24</t>
         </is>
       </c>
       <c r="B108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>issa_cadance</t>
+          <t>trinaaa.nguyen</t>
         </is>
       </c>
       <c r="B109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>masonh1871</t>
+          <t>a_tray_ee</t>
         </is>
       </c>
       <c r="B110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>melody_alfred</t>
+          <t>_tiyaaa.xo</t>
         </is>
       </c>
       <c r="B111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2xmiah</t>
+          <t>bayeisenhour</t>
         </is>
       </c>
       <c r="B112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>jojo_26x</t>
+          <t>theyadore._miracle</t>
         </is>
       </c>
       <c r="B113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>a_n_e_y_a</t>
+          <t>katie.latigona</t>
         </is>
       </c>
       <c r="B114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>ps.quanya</t>
+          <t>oliviancottrell</t>
         </is>
       </c>
       <c r="B115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>madi.abrielleee</t>
+          <t>_samyrahh_</t>
         </is>
       </c>
       <c r="B116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>anna_banana2705</t>
+          <t>yourfaveasian.sophiaa</t>
         </is>
       </c>
       <c r="B117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>chloe.bastiaans</t>
+          <t>gloria_marshall_</t>
         </is>
       </c>
       <c r="B118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>issa.bellax</t>
+          <t>ha.alle</t>
         </is>
       </c>
       <c r="B119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>viviennegsoto</t>
+          <t>myahdent</t>
         </is>
       </c>
       <c r="B120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>niyahcamilla</t>
+          <t>dom.blackston</t>
         </is>
       </c>
       <c r="B121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>lyssey__</t>
+          <t>bev__waz__here</t>
         </is>
       </c>
       <c r="B122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>oduintervarsity</t>
+          <t>madisonfleger</t>
         </is>
       </c>
       <c r="B123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>lavenderthaylen</t>
+          <t>an.dy0405</t>
         </is>
       </c>
       <c r="B124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>thelux.experience_</t>
+          <t>earth.2summerrr</t>
         </is>
       </c>
       <c r="B125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>liv_alauna.25k</t>
+          <t>amayamassie</t>
         </is>
       </c>
       <c r="B126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>mochav.exe</t>
+          <t>riley.lyles</t>
         </is>
       </c>
       <c r="B127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>theylovemiyaa._</t>
+          <t>itsdesbtw</t>
         </is>
       </c>
       <c r="B128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>a.stxckz</t>
+          <t>m.4dds</t>
         </is>
       </c>
       <c r="B129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>ej_kash</t>
+          <t>oliviaashardae</t>
         </is>
       </c>
       <c r="B130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>da.nasia.aa</t>
+          <t>ny_a4</t>
         </is>
       </c>
       <c r="B131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>la.mikaaaaa</t>
+          <t>explcit.marquess</t>
         </is>
       </c>
       <c r="B132" t="b">
@@ -1746,7 +1758,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>niyah_rishea04</t>
+          <t>just.jamir_</t>
         </is>
       </c>
       <c r="B133" t="b">
@@ -1756,7 +1768,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>m0ney.mink_</t>
+          <t>liljessie_motts</t>
         </is>
       </c>
       <c r="B134" t="b">
@@ -1766,7 +1778,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>klassiccdolll</t>
+          <t>odu_fits</t>
         </is>
       </c>
       <c r="B135" t="b">
@@ -1776,7 +1788,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>thesweetestsour722</t>
+          <t>grayson.757</t>
         </is>
       </c>
       <c r="B136" t="b">
@@ -1786,7 +1798,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>serenity.deann</t>
+          <t>oliviaphillips._</t>
         </is>
       </c>
       <c r="B137" t="b">
@@ -1796,7 +1808,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>cj.rbh</t>
+          <t>envyjudy._</t>
         </is>
       </c>
       <c r="B138" t="b">
@@ -1806,7 +1818,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>_.llouieee</t>
+          <t>_.bossupjaay._</t>
         </is>
       </c>
       <c r="B139" t="b">
@@ -1816,7 +1828,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>vibeewithnyy</t>
+          <t>patty__rick_</t>
         </is>
       </c>
       <c r="B140" t="b">
@@ -1826,7 +1838,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>6penc0r</t>
+          <t>abrrry15</t>
         </is>
       </c>
       <c r="B141" t="b">
@@ -1836,7 +1848,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>_k.xnnedy</t>
+          <t>itssss._sydney_</t>
         </is>
       </c>
       <c r="B142" t="b">
@@ -1846,7 +1858,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>hey.its_isabella</t>
+          <t>deeazyyt</t>
         </is>
       </c>
       <c r="B143" t="b">
@@ -1856,7 +1868,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>ryunsagee</t>
+          <t>angeloliotta12</t>
         </is>
       </c>
       <c r="B144" t="b">
@@ -1866,7 +1878,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>moc_milena23</t>
+          <t>darren_gocrzy52</t>
         </is>
       </c>
       <c r="B145" t="b">
@@ -1876,7 +1888,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>br0wnnsugga_</t>
+          <t>sarahbrinell</t>
         </is>
       </c>
       <c r="B146" t="b">
@@ -1886,7 +1898,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>kdeezy_._</t>
+          <t>benn.wells</t>
         </is>
       </c>
       <c r="B147" t="b">
@@ -1896,7 +1908,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>dag.ayelee</t>
+          <t>jakaylaaaaa_</t>
         </is>
       </c>
       <c r="B148" t="b">
@@ -1906,7 +1918,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>toriaanicoleee</t>
+          <t>audrakaeperry</t>
         </is>
       </c>
       <c r="B149" t="b">
@@ -1916,7 +1928,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>nataly_diaz23</t>
+          <t>ionkno.nb</t>
         </is>
       </c>
       <c r="B150" t="b">
@@ -1926,7 +1938,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>k.i.t.t.a.n.a</t>
+          <t>lilianamilaniii</t>
         </is>
       </c>
       <c r="B151" t="b">
@@ -1936,7 +1948,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>tania.anyaa</t>
+          <t>miamontague</t>
         </is>
       </c>
       <c r="B152" t="b">
@@ -1946,7 +1958,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>ms.milaniaaa</t>
+          <t>le_lovebell</t>
         </is>
       </c>
       <c r="B153" t="b">
@@ -1956,7 +1968,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>222.rita</t>
+          <t>ari.stone_30</t>
         </is>
       </c>
       <c r="B154" t="b">
@@ -1966,7 +1978,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>justlivin__lj05</t>
+          <t>npc.von</t>
         </is>
       </c>
       <c r="B155" t="b">
@@ -1976,7 +1988,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>odumonarchmayhem</t>
+          <t>nbajayd007</t>
         </is>
       </c>
       <c r="B156" t="b">
@@ -1986,7 +1998,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>luv.catieee</t>
+          <t>itsfatmataaa</t>
         </is>
       </c>
       <c r="B157" t="b">
@@ -1996,7 +2008,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>itsjuss.aysia</t>
+          <t>symonehopeee</t>
         </is>
       </c>
       <c r="B158" t="b">
@@ -2006,7 +2018,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>stelluhc</t>
+          <t>___riahabiba</t>
         </is>
       </c>
       <c r="B159" t="b">
@@ -2016,7 +2028,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>richards_emersonn</t>
+          <t>amaaarreeia</t>
         </is>
       </c>
       <c r="B160" t="b">
@@ -2026,7 +2038,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>eyonnamonaeee</t>
+          <t>frogparty9</t>
         </is>
       </c>
       <c r="B161" t="b">
@@ -2036,7 +2048,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>bratlyn1998</t>
+          <t>kaylaa.ivey</t>
         </is>
       </c>
       <c r="B162" t="b">
@@ -2046,7 +2058,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>laneca2</t>
+          <t>mari_yurrr</t>
         </is>
       </c>
       <c r="B163" t="b">
@@ -2056,7 +2068,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>labonte.abbey</t>
+          <t>oducru</t>
         </is>
       </c>
       <c r="B164" t="b">
@@ -2066,7 +2078,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>dmv.jazz</t>
+          <t>w.beau2</t>
         </is>
       </c>
       <c r="B165" t="b">
@@ -2076,7 +2088,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>iiaamlizz__</t>
+          <t>harpersapisces</t>
         </is>
       </c>
       <c r="B166" t="b">
@@ -2086,7 +2098,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>n0nl0vin.ny</t>
+          <t>ilynasia</t>
         </is>
       </c>
       <c r="B167" t="b">
@@ -2096,7 +2108,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>ilynasia</t>
+          <t>_fran.m27</t>
         </is>
       </c>
       <c r="B168" t="b">
@@ -2106,7 +2118,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>ssokoo_</t>
+          <t>naja.brielle</t>
         </is>
       </c>
       <c r="B169" t="b">
@@ -2116,7 +2128,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>theonlymantha</t>
+          <t>cam.in.general</t>
         </is>
       </c>
       <c r="B170" t="b">
@@ -2126,7 +2138,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>payton.wrighttt</t>
+          <t>superswagsarah</t>
         </is>
       </c>
       <c r="B171" t="b">
@@ -2136,7 +2148,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>3xmiah</t>
+          <t>emersyynj</t>
         </is>
       </c>
       <c r="B172" t="b">
@@ -2146,7 +2158,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>_tiyaaa.xo</t>
+          <t>ryunsagee</t>
         </is>
       </c>
       <c r="B173" t="b">
@@ -2156,7 +2168,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>vr_tre</t>
+          <t>zeke.4x</t>
         </is>
       </c>
       <c r="B174" t="b">
@@ -2166,7 +2178,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>itgir1p</t>
+          <t>txrriion</t>
         </is>
       </c>
       <c r="B175" t="b">
@@ -2176,7 +2188,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>heylyssaaa</t>
+          <t>arow010305</t>
         </is>
       </c>
       <c r="B176" t="b">
@@ -2186,7 +2198,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>_joshalyn_mlh_</t>
+          <t>sidney.stith</t>
         </is>
       </c>
       <c r="B177" t="b">
@@ -2196,7 +2208,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>juliashrvz</t>
+          <t>iirieara</t>
         </is>
       </c>
       <c r="B178" t="b">
@@ -2206,7 +2218,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>macyvmarshall</t>
+          <t>rebeccasaniaa</t>
         </is>
       </c>
       <c r="B179" t="b">
@@ -2216,7 +2228,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>_good.vibes.2x_</t>
+          <t>mylesw5</t>
         </is>
       </c>
       <c r="B180" t="b">
@@ -2226,7 +2238,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>walkerwoood</t>
+          <t>summyhill</t>
         </is>
       </c>
       <c r="B181" t="b">
@@ -2236,7 +2248,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>npc.von</t>
+          <t>trinitycole_</t>
         </is>
       </c>
       <c r="B182" t="b">
@@ -2246,7 +2258,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>zonnie101</t>
+          <t>mol_seevounm23</t>
         </is>
       </c>
       <c r="B183" t="b">
@@ -2256,7 +2268,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>_.genesis25._</t>
+          <t>k_knobl</t>
         </is>
       </c>
       <c r="B184" t="b">
@@ -2266,7 +2278,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>eli_w445</t>
+          <t>dmvburkio</t>
         </is>
       </c>
       <c r="B185" t="b">
@@ -2276,7 +2288,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>_pipermccoy</t>
+          <t>devlin_may1</t>
         </is>
       </c>
       <c r="B186" t="b">
@@ -2286,7 +2298,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>tajjani_</t>
+          <t>koby.lonzell</t>
         </is>
       </c>
       <c r="B187" t="b">
@@ -2296,7 +2308,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>_tname.kala</t>
+          <t>justt.india</t>
         </is>
       </c>
       <c r="B188" t="b">
@@ -2306,7 +2318,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>donte_montague</t>
+          <t>real_marksamuel</t>
         </is>
       </c>
       <c r="B189" t="b">
@@ -2316,7 +2328,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>sirena._.rane</t>
+          <t>__ffff00__</t>
         </is>
       </c>
       <c r="B190" t="b">
@@ -2326,7 +2338,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>_.jt2hott</t>
+          <t>marissa_.h._</t>
         </is>
       </c>
       <c r="B191" t="b">
@@ -2336,7 +2348,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>cch.rle</t>
+          <t>puma2xx._</t>
         </is>
       </c>
       <c r="B192" t="b">
@@ -2346,7 +2358,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>itz_.aaron</t>
+          <t>breno__williams</t>
         </is>
       </c>
       <c r="B193" t="b">
@@ -2356,7 +2368,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>code_i.b</t>
+          <t>jaylen_newman1</t>
         </is>
       </c>
       <c r="B194" t="b">
@@ -2366,7 +2378,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>viisinterlude</t>
+          <t>ybb.rora</t>
         </is>
       </c>
       <c r="B195" t="b">
@@ -2376,7 +2388,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>b_rizzleeeee</t>
+          <t>lexiibiancaa</t>
         </is>
       </c>
       <c r="B196" t="b">
@@ -2386,7 +2398,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>eelenammarie</t>
+          <t>222.rita</t>
         </is>
       </c>
       <c r="B197" t="b">
@@ -2396,7 +2408,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>jen.asha</t>
+          <t>kennedymarie.davis</t>
         </is>
       </c>
       <c r="B198" t="b">
@@ -2406,7 +2418,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>eriicadawn</t>
+          <t>vb.sean</t>
         </is>
       </c>
       <c r="B199" t="b">
@@ -2416,7 +2428,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>alexandrajay._</t>
+          <t>lilyamaris</t>
         </is>
       </c>
       <c r="B200" t="b">
@@ -2426,7 +2438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>mahalnicole</t>
+          <t>ayo.siri</t>
         </is>
       </c>
       <c r="B201" t="b">
@@ -2436,7 +2448,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>colormeinkguy</t>
+          <t>odusfinest25</t>
         </is>
       </c>
       <c r="B202" t="b">
@@ -2446,7 +2458,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>kevinbgloverll</t>
+          <t>sobraxtty._zxk</t>
         </is>
       </c>
       <c r="B203" t="b">
@@ -2456,7 +2468,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>brockboy808</t>
+          <t>pr0m133</t>
         </is>
       </c>
       <c r="B204" t="b">
@@ -2466,7 +2478,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>yonnii_g_film</t>
+          <t>javieri_04</t>
         </is>
       </c>
       <c r="B205" t="b">
@@ -2476,7 +2488,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>hey.itsdayyy_</t>
+          <t>lisaawisaa_</t>
         </is>
       </c>
       <c r="B206" t="b">
@@ -2486,7 +2498,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>jasminpiggott</t>
+          <t>ethan.hampton_</t>
         </is>
       </c>
       <c r="B207" t="b">
@@ -2496,7 +2508,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>_nadia.2x</t>
+          <t>danielle_fayeeee</t>
         </is>
       </c>
       <c r="B208" t="b">
@@ -2506,7 +2518,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>jakeiraannae</t>
+          <t>m0ney.mink_</t>
         </is>
       </c>
       <c r="B209" t="b">
@@ -2516,7 +2528,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>_.bpayne._</t>
+          <t>_jacob_shore</t>
         </is>
       </c>
       <c r="B210" t="b">
@@ -2526,7 +2538,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>nolawit.a</t>
+          <t>jeremiahboyyd</t>
         </is>
       </c>
       <c r="B211" t="b">
@@ -2536,7 +2548,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>k_knobl</t>
+          <t>matooskii</t>
         </is>
       </c>
       <c r="B212" t="b">
@@ -2546,7 +2558,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>sierra.haun</t>
+          <t>1i1chick</t>
         </is>
       </c>
       <c r="B213" t="b">
@@ -2556,7 +2568,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>thatprettyscorpio</t>
+          <t>emma70000847744747_</t>
         </is>
       </c>
       <c r="B214" t="b">
@@ -2566,7 +2578,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>noah.caliendo</t>
+          <t>amenberu_</t>
         </is>
       </c>
       <c r="B215" t="b">
@@ -2576,7 +2588,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>so_itsdamari</t>
+          <t>diary.of.christi</t>
         </is>
       </c>
       <c r="B216" t="b">
@@ -2586,7 +2598,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>_.davidjohnson_</t>
+          <t>o.camara_</t>
         </is>
       </c>
       <c r="B217" t="b">
@@ -2596,7 +2608,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>truthfullyelise</t>
+          <t>hello_kerri_</t>
         </is>
       </c>
       <c r="B218" t="b">
@@ -2606,7 +2618,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>amandaawilsonn_</t>
+          <t>jazzy.j_3</t>
         </is>
       </c>
       <c r="B219" t="b">
@@ -2616,7 +2628,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>this_is_normal_alright</t>
+          <t>flynnv_</t>
         </is>
       </c>
       <c r="B220" t="b">
@@ -2626,7 +2638,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>nayamelanie</t>
+          <t>nyybabyy._</t>
         </is>
       </c>
       <c r="B221" t="b">
@@ -2636,7 +2648,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>chx._nel</t>
+          <t>lexiluthor05</t>
         </is>
       </c>
       <c r="B222" t="b">
@@ -2646,7 +2658,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>monarchdining</t>
+          <t>meyahgardner</t>
         </is>
       </c>
       <c r="B223" t="b">
@@ -2656,7 +2668,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>j9inee__</t>
+          <t>samyahxmonet</t>
         </is>
       </c>
       <c r="B224" t="b">
@@ -2666,7 +2678,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>aloha.etc</t>
+          <t>jacksand324</t>
         </is>
       </c>
       <c r="B225" t="b">
@@ -2676,7 +2688,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>is_it_ky</t>
+          <t>nataleemarieee</t>
         </is>
       </c>
       <c r="B226" t="b">
@@ -2686,7 +2698,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>sillylucifer666</t>
+          <t>mikeyla.bagley</t>
         </is>
       </c>
       <c r="B227" t="b">
@@ -2696,7 +2708,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>gowdy.ekul</t>
+          <t>reginaeeeeee</t>
         </is>
       </c>
       <c r="B228" t="b">
@@ -2706,7 +2718,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>lillian_copeland_15</t>
+          <t>arianaaa400</t>
         </is>
       </c>
       <c r="B229" t="b">
@@ -2716,7 +2728,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>marco_pontorno1</t>
+          <t>jenny.fr_</t>
         </is>
       </c>
       <c r="B230" t="b">
@@ -2726,7 +2738,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>aynakojhen</t>
+          <t>miyahh.nicolee</t>
         </is>
       </c>
       <c r="B231" t="b">
@@ -2736,7 +2748,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>lilianamilaniii</t>
+          <t>eia_l_j_h</t>
         </is>
       </c>
       <c r="B232" t="b">
@@ -2746,7 +2758,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>jenny.fr_</t>
+          <t>braeden_megenity</t>
         </is>
       </c>
       <c r="B233" t="b">
@@ -2756,7 +2768,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>emersyynj</t>
+          <t>tis.mont</t>
         </is>
       </c>
       <c r="B234" t="b">
@@ -2766,7 +2778,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>jalyn.k_</t>
+          <t>austins0625</t>
         </is>
       </c>
       <c r="B235" t="b">
@@ -2776,7 +2788,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>mary_haney_</t>
+          <t>_.genesis25._</t>
         </is>
       </c>
       <c r="B236" t="b">
@@ -2786,7 +2798,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>ayanna_j1943</t>
+          <t>dag.ayelee</t>
         </is>
       </c>
       <c r="B237" t="b">
@@ -2796,7 +2808,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>jayme_the_emby</t>
+          <t>jacktowwnsend</t>
         </is>
       </c>
       <c r="B238" t="b">
@@ -2806,7 +2818,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>brbnata</t>
+          <t>__stewart001</t>
         </is>
       </c>
       <c r="B239" t="b">
@@ -2816,7 +2828,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>deeazyyt</t>
+          <t>amirra.aaa</t>
         </is>
       </c>
       <c r="B240" t="b">
@@ -2826,7 +2838,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>knockoffbillylenz</t>
+          <t>taylorzareno</t>
         </is>
       </c>
       <c r="B241" t="b">
@@ -2836,7 +2848,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>v.hoang23</t>
+          <t>itss.kyiaa</t>
         </is>
       </c>
       <c r="B242" t="b">
@@ -2846,7 +2858,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>rebeccasaniaa</t>
+          <t>757.kolby</t>
         </is>
       </c>
       <c r="B243" t="b">
@@ -2856,7 +2868,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>katie.latigona</t>
+          <t>t.eelah</t>
         </is>
       </c>
       <c r="B244" t="b">
@@ -2866,7 +2878,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>arow010305</t>
+          <t>e_marching19</t>
         </is>
       </c>
       <c r="B245" t="b">
@@ -2876,7 +2888,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>kyrayasmine</t>
+          <t>_.r.x.ch.x.l._</t>
         </is>
       </c>
       <c r="B246" t="b">
@@ -2886,7 +2898,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>allyson.abraham</t>
+          <t>dmv.jazz</t>
         </is>
       </c>
       <c r="B247" t="b">
@@ -2896,7 +2908,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>patty__rick_</t>
+          <t>rhealevinn</t>
         </is>
       </c>
       <c r="B248" t="b">
@@ -2906,7 +2918,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>yourgurld3xxi</t>
+          <t>simply._ariyana</t>
         </is>
       </c>
       <c r="B249" t="b">
@@ -2916,7 +2928,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>duchieeszn_</t>
+          <t>_liltori</t>
         </is>
       </c>
       <c r="B250" t="b">
@@ -2926,7 +2938,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>puma2xx._</t>
+          <t>zo.outside</t>
         </is>
       </c>
       <c r="B251" t="b">
@@ -2936,7 +2948,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>kenroji</t>
+          <t>1nonly_dez</t>
         </is>
       </c>
       <c r="B252" t="b">
@@ -2946,7 +2958,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>ciarrathurston</t>
+          <t>222.megannn</t>
         </is>
       </c>
       <c r="B253" t="b">
@@ -2956,7 +2968,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>rhealevinn</t>
+          <t>deanna._.kay</t>
         </is>
       </c>
       <c r="B254" t="b">
@@ -2966,7 +2978,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>shiannig_</t>
+          <t>goated_dom</t>
         </is>
       </c>
       <c r="B255" t="b">
@@ -2976,7 +2988,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>mayleen113</t>
+          <t>_.llouieee</t>
         </is>
       </c>
       <c r="B256" t="b">
@@ -2986,7 +2998,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>sophie.cluck</t>
+          <t>shiannig_</t>
         </is>
       </c>
       <c r="B257" t="b">
@@ -2996,7 +3008,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>ayden.garcia00</t>
+          <t>quanowtff</t>
         </is>
       </c>
       <c r="B258" t="b">
@@ -3006,7 +3018,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>justimki</t>
+          <t>ky.naaa</t>
         </is>
       </c>
       <c r="B259" t="b">
@@ -3016,7 +3028,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>african_giant_19</t>
+          <t>offical.jareddonegan</t>
         </is>
       </c>
       <c r="B260" t="b">
@@ -3026,7 +3038,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>bri_era</t>
+          <t>__ashimijnr__</t>
         </is>
       </c>
       <c r="B261" t="b">
@@ -3036,7 +3048,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>koby.lonzell</t>
+          <t>shawnfii_</t>
         </is>
       </c>
       <c r="B262" t="b">
@@ -3046,7 +3058,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>a.fraley6</t>
+          <t>sammy_leigh86</t>
         </is>
       </c>
       <c r="B263" t="b">
@@ -3056,7 +3068,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>breah.shenell</t>
+          <t>yeahhitssniinaa</t>
         </is>
       </c>
       <c r="B264" t="b">
@@ -3066,7 +3078,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>1i1chick</t>
+          <t>its.jakaylam</t>
         </is>
       </c>
       <c r="B265" t="b">
@@ -3076,7 +3088,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>dats.so.kiyah</t>
+          <t>stevenswitzer_</t>
         </is>
       </c>
       <c r="B266" t="b">
@@ -3086,7 +3098,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>nataleemarieee</t>
+          <t>nevaehkendal</t>
         </is>
       </c>
       <c r="B267" t="b">
@@ -3096,7 +3108,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>_diana._.r</t>
+          <t>shania.woolery</t>
         </is>
       </c>
       <c r="B268" t="b">
@@ -3106,7 +3118,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>annasdelacruzz</t>
+          <t>oduphc</t>
         </is>
       </c>
       <c r="B269" t="b">
@@ -3116,7 +3128,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>ariellies</t>
+          <t>marco_pontorno1</t>
         </is>
       </c>
       <c r="B270" t="b">
@@ -3126,7 +3138,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>itsfatmataaa</t>
+          <t>ij_rey</t>
         </is>
       </c>
       <c r="B271" t="b">
@@ -3136,7 +3148,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>just.jamir_</t>
+          <t>_jayneshe</t>
         </is>
       </c>
       <c r="B272" t="b">
@@ -3146,7 +3158,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>chrissy._.17</t>
+          <t>raphael_joseph_777</t>
         </is>
       </c>
       <c r="B273" t="b">
@@ -3156,7 +3168,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>alisaromannnn</t>
+          <t>srboone030627</t>
         </is>
       </c>
       <c r="B274" t="b">
@@ -3166,7 +3178,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>brionniii</t>
+          <t>shortyyy.kara</t>
         </is>
       </c>
       <c r="B275" t="b">
@@ -3176,7 +3188,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>odusfinest25</t>
+          <t>dyasia.naveah</t>
         </is>
       </c>
       <c r="B276" t="b">
@@ -3186,7 +3198,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>ripbjay</t>
+          <t>ayanna_j1943</t>
         </is>
       </c>
       <c r="B277" t="b">
@@ -3196,7 +3208,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>nyssanoemii</t>
+          <t>bellae.scott</t>
         </is>
       </c>
       <c r="B278" t="b">
@@ -3206,7 +3218,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>siyannaaa</t>
+          <t>gocrzy.t</t>
         </is>
       </c>
       <c r="B279" t="b">
@@ -3216,7 +3228,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>riley.lyles</t>
+          <t>arinbatu_1164</t>
         </is>
       </c>
       <c r="B280" t="b">
@@ -3226,7 +3238,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>mallorryy.b</t>
+          <t>queenliz4ev</t>
         </is>
       </c>
       <c r="B281" t="b">
@@ -3236,7 +3248,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>kylie.lesina</t>
+          <t>onetake.christian_</t>
         </is>
       </c>
       <c r="B282" t="b">
@@ -3246,7 +3258,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>saniaamichelleee_</t>
+          <t>odu_set</t>
         </is>
       </c>
       <c r="B283" t="b">
@@ -3256,7 +3268,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>_rylielittle_</t>
+          <t>noah.caliendo</t>
         </is>
       </c>
       <c r="B284" t="b">
@@ -3266,7 +3278,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>_luvjadaaa</t>
+          <t>divine._._.warrior</t>
         </is>
       </c>
       <c r="B285" t="b">
@@ -3276,7 +3288,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>itsdesbtw</t>
+          <t>jaelynstrohl</t>
         </is>
       </c>
       <c r="B286" t="b">
@@ -3286,7 +3298,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>sir_savage_ok</t>
+          <t>kyrayasmine</t>
         </is>
       </c>
       <c r="B287" t="b">
@@ -3296,7 +3308,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>akosuuaa</t>
+          <t>j.cbfw</t>
         </is>
       </c>
       <c r="B288" t="b">
@@ -3306,7 +3318,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>just._.khamari</t>
+          <t>wicc.nate</t>
         </is>
       </c>
       <c r="B289" t="b">
@@ -3316,7 +3328,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>rj_the_goat_</t>
+          <t>bri_era</t>
         </is>
       </c>
       <c r="B290" t="b">
@@ -3326,7 +3338,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>itsjust__jasmine</t>
+          <t>darius_.d1</t>
         </is>
       </c>
       <c r="B291" t="b">
@@ -3336,7 +3348,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>natalieolsonnnn</t>
+          <t>_getlikekayyy</t>
         </is>
       </c>
       <c r="B292" t="b">
@@ -3346,7 +3358,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>madsciencist</t>
+          <t>mayleen113</t>
         </is>
       </c>
       <c r="B293" t="b">
@@ -3356,7 +3368,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>craxy_beautiful143</t>
+          <t>emilybeachhhh</t>
         </is>
       </c>
       <c r="B294" t="b">
@@ -3366,7 +3378,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>peyton.milania</t>
+          <t>mr.2muchsexy</t>
         </is>
       </c>
       <c r="B295" t="b">
@@ -3376,7 +3388,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>henryzmonroe</t>
+          <t>pablo.m1randa</t>
         </is>
       </c>
       <c r="B296" t="b">
@@ -3386,7 +3398,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>_duhhitsneee</t>
+          <t>okidokihuman</t>
         </is>
       </c>
       <c r="B297" t="b">
@@ -3396,7 +3408,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>jsnathann</t>
+          <t>lanah.skye</t>
         </is>
       </c>
       <c r="B298" t="b">
@@ -3406,7 +3418,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>brixnnanicole_</t>
+          <t>jasmineleigh.png</t>
         </is>
       </c>
       <c r="B299" t="b">
@@ -3416,7 +3428,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>omegaphialphaodu</t>
+          <t>scaredmui</t>
         </is>
       </c>
       <c r="B300" t="b">
@@ -3426,7 +3438,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>804._leekk</t>
+          <t>peytonnshumate</t>
         </is>
       </c>
       <c r="B301" t="b">
@@ -3436,7 +3448,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>zeemontee</t>
+          <t>mackenzienicollee</t>
         </is>
       </c>
       <c r="B302" t="b">
@@ -3446,7 +3458,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>eia_l_j_h</t>
+          <t>d.eme.tria</t>
         </is>
       </c>
       <c r="B303" t="b">
@@ -3456,7 +3468,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>xxlaurenhubb</t>
+          <t>its.markeiraaa</t>
         </is>
       </c>
       <c r="B304" t="b">
@@ -3466,7 +3478,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>luv.smj</t>
+          <t>vishal.moudgill30</t>
         </is>
       </c>
       <c r="B305" t="b">
@@ -3476,7 +3488,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>k.gpld</t>
+          <t>j.brownvswrld2</t>
         </is>
       </c>
       <c r="B306" t="b">
@@ -3486,7 +3498,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>_.ashlyngrace</t>
+          <t>kaaymakhia</t>
         </is>
       </c>
       <c r="B307" t="b">
@@ -3496,7 +3508,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>c.mcav</t>
+          <t>meraki._creationz</t>
         </is>
       </c>
       <c r="B308" t="b">
@@ -3506,7 +3518,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>whyh8._ty</t>
+          <t>carolinneemitchelll</t>
         </is>
       </c>
       <c r="B309" t="b">
@@ -3516,7 +3528,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>clarence4._</t>
+          <t>trinxbabyy</t>
         </is>
       </c>
       <c r="B310" t="b">
@@ -3526,7 +3538,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>elizabean1211</t>
+          <t>koko.klassics</t>
         </is>
       </c>
       <c r="B311" t="b">
@@ -3536,7 +3548,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>ryaahdagreat</t>
+          <t>codename.ajj</t>
         </is>
       </c>
       <c r="B312" t="b">
@@ -3546,7 +3558,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>heluvvmiahh</t>
+          <t>3k.drayko</t>
         </is>
       </c>
       <c r="B313" t="b">
@@ -3556,7 +3568,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>naja.brielle</t>
+          <t>ps.quanya</t>
         </is>
       </c>
       <c r="B314" t="b">
@@ -3566,7 +3578,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>222.megannn</t>
+          <t>_dabrattjae</t>
         </is>
       </c>
       <c r="B315" t="b">
@@ -3576,7 +3588,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>nevaehkendal</t>
+          <t>__.iambree</t>
         </is>
       </c>
       <c r="B316" t="b">
@@ -3586,7 +3598,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>amour.oliviaa</t>
+          <t>r1anr31d</t>
         </is>
       </c>
       <c r="B317" t="b">
@@ -3596,7 +3608,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>ca.nani</t>
+          <t>amaldjibo</t>
         </is>
       </c>
       <c r="B318" t="b">
@@ -3606,7 +3618,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>katielutz__</t>
+          <t>poundtown_e</t>
         </is>
       </c>
       <c r="B319" t="b">
@@ -3616,7 +3628,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>codename.ajj</t>
+          <t>chx._nel</t>
         </is>
       </c>
       <c r="B320" t="b">
@@ -3626,7 +3638,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>1b0ss._e</t>
+          <t>nxtedworchak</t>
         </is>
       </c>
       <c r="B321" t="b">
@@ -3636,7 +3648,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>giannarios4105</t>
+          <t>kdeezy_._</t>
         </is>
       </c>
       <c r="B322" t="b">
@@ -3646,7 +3658,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>alyssaronann</t>
+          <t>vvillmarsh</t>
         </is>
       </c>
       <c r="B323" t="b">
@@ -3656,7 +3668,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>kayylapowwell</t>
+          <t>_annikaaaa__</t>
         </is>
       </c>
       <c r="B324" t="b">
@@ -3666,7 +3678,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>oliviaphillips._</t>
+          <t>ashe.istired.exe</t>
         </is>
       </c>
       <c r="B325" t="b">
@@ -3676,7 +3688,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>804_doni</t>
+          <t>khemaniiii</t>
         </is>
       </c>
       <c r="B326" t="b">
@@ -3686,7 +3698,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>tara.sank</t>
+          <t>mary_haney_</t>
         </is>
       </c>
       <c r="B327" t="b">
@@ -3696,7 +3708,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>dylan_t29</t>
+          <t>ciaramuug</t>
         </is>
       </c>
       <c r="B328" t="b">
@@ -3706,7 +3718,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>meyahgardner</t>
+          <t>akosuuaa</t>
         </is>
       </c>
       <c r="B329" t="b">
@@ -3716,7 +3728,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>__trah__</t>
+          <t>mikaylawomack</t>
         </is>
       </c>
       <c r="B330" t="b">
@@ -3726,7 +3738,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>jackf004</t>
+          <t>_.maddie._.elise.__</t>
         </is>
       </c>
       <c r="B331" t="b">
@@ -3736,7 +3748,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>__stewart001</t>
+          <t>rocky2fast</t>
         </is>
       </c>
       <c r="B332" t="b">
@@ -3746,7 +3758,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>odu_set</t>
+          <t>i.miachka</t>
         </is>
       </c>
       <c r="B333" t="b">
@@ -3756,7 +3768,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>elhxdg</t>
+          <t>ellie.lepley</t>
         </is>
       </c>
       <c r="B334" t="b">
@@ -3766,7 +3778,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>_mariahjj_</t>
+          <t>kj.yam</t>
         </is>
       </c>
       <c r="B335" t="b">
@@ -3776,7 +3788,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>shavarrr</t>
+          <t>4imani4</t>
         </is>
       </c>
       <c r="B336" t="b">
@@ -3786,7 +3798,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>lilyamaris</t>
+          <t>bribri_msdiva</t>
         </is>
       </c>
       <c r="B337" t="b">
@@ -3796,7 +3808,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>xottic.franny</t>
+          <t>tonyidowu._</t>
         </is>
       </c>
       <c r="B338" t="b">
@@ -3806,7 +3818,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>aaymaaxco</t>
+          <t>thereallquis</t>
         </is>
       </c>
       <c r="B339" t="b">
@@ -3816,7 +3828,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>qutieee.t</t>
+          <t>_estchandler_</t>
         </is>
       </c>
       <c r="B340" t="b">
@@ -3826,7 +3838,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>_trixiebankss_</t>
+          <t>_alicia.lynn</t>
         </is>
       </c>
       <c r="B341" t="b">
@@ -3836,7 +3848,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>janiicrepe_</t>
+          <t>amelia_valentinaa</t>
         </is>
       </c>
       <c r="B342" t="b">
@@ -3846,7 +3858,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>jadenrare</t>
+          <t>caplot_hades</t>
         </is>
       </c>
       <c r="B343" t="b">
@@ -3856,7 +3868,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>emilyanaliesee</t>
+          <t>xottic.franny</t>
         </is>
       </c>
       <c r="B344" t="b">
@@ -3866,7 +3878,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>summyhill</t>
+          <t>mallorryy.b</t>
         </is>
       </c>
       <c r="B345" t="b">
@@ -3876,7 +3888,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>brey.anna_</t>
+          <t>lijah__original</t>
         </is>
       </c>
       <c r="B346" t="b">
@@ -3886,7 +3898,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>redisnotokay</t>
+          <t>karsanct</t>
         </is>
       </c>
       <c r="B347" t="b">
@@ -3896,7 +3908,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>_maddy_wright_</t>
+          <t>j._.niah</t>
         </is>
       </c>
       <c r="B348" t="b">
@@ -3906,7 +3918,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>_.bossupjaay._</t>
+          <t>joooleyah</t>
         </is>
       </c>
       <c r="B349" t="b">
@@ -3916,7 +3928,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>_.maddie._.elise.__</t>
+          <t>renaycionna</t>
         </is>
       </c>
       <c r="B350" t="b">
@@ -3926,7 +3938,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>nadia.boggz</t>
+          <t>sxpremechi</t>
         </is>
       </c>
       <c r="B351" t="b">
@@ -3936,7 +3948,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>babyyyy.nasia</t>
+          <t>destanybrace</t>
         </is>
       </c>
       <c r="B352" t="b">
@@ -3946,7 +3958,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>sarahbrinell</t>
+          <t>ahluwaliasarab</t>
         </is>
       </c>
       <c r="B353" t="b">
@@ -3956,7 +3968,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>srboone030627</t>
+          <t>h.garrcia</t>
         </is>
       </c>
       <c r="B354" t="b">
@@ -3966,7 +3978,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>_.kaylaa5</t>
+          <t>tara.sank</t>
         </is>
       </c>
       <c r="B355" t="b">
@@ -3976,7 +3988,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>odu_admissions</t>
+          <t>luva.laney</t>
         </is>
       </c>
       <c r="B356" t="b">
@@ -3986,7 +3998,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>olivia._colleen</t>
+          <t>connor_p28</t>
         </is>
       </c>
       <c r="B357" t="b">
@@ -3996,7 +4008,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>angeloliotta12</t>
+          <t>xoxo.monte_</t>
         </is>
       </c>
       <c r="B358" t="b">
@@ -4006,7 +4018,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>rando_guy1234</t>
+          <t>sydjb26</t>
         </is>
       </c>
       <c r="B359" t="b">
@@ -4016,7 +4028,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>muchluv444._lae</t>
+          <t>_cassidy_na</t>
         </is>
       </c>
       <c r="B360" t="b">
@@ -4026,7 +4038,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>nyybabyy._</t>
+          <t>jadenduckedoff</t>
         </is>
       </c>
       <c r="B361" t="b">
@@ -4036,7 +4048,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>jddaavviiss</t>
+          <t>this_is_normal_alright</t>
         </is>
       </c>
       <c r="B362" t="b">
@@ -4046,7 +4058,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>ionkno.nb</t>
+          <t>tjolsen13</t>
         </is>
       </c>
       <c r="B363" t="b">
@@ -4056,7 +4068,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>oduvegans</t>
+          <t>angel_012104</t>
         </is>
       </c>
       <c r="B364" t="b">
@@ -4066,7 +4078,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>btomlinson152</t>
+          <t>_maddy_wright_</t>
         </is>
       </c>
       <c r="B365" t="b">
@@ -4076,7 +4088,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>chandlerryannee</t>
+          <t>rockstarjayyy_</t>
         </is>
       </c>
       <c r="B366" t="b">
@@ -4086,7 +4098,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>blakeemitchell</t>
+          <t>bby_.monet_</t>
         </is>
       </c>
       <c r="B367" t="b">
@@ -4096,7 +4108,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>h.garrcia</t>
+          <t>eriicadawn</t>
         </is>
       </c>
       <c r="B368" t="b">
@@ -4106,7 +4118,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>lulldiaaa_</t>
+          <t>eli_w445</t>
         </is>
       </c>
       <c r="B369" t="b">
@@ -4116,7 +4128,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>nasir.2x</t>
+          <t>eman__walker</t>
         </is>
       </c>
       <c r="B370" t="b">
@@ -4126,7 +4138,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>ffltality</t>
+          <t>jadenrare</t>
         </is>
       </c>
       <c r="B371" t="b">
@@ -4136,7 +4148,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>taylorzareno</t>
+          <t>_good.vibes.2x_</t>
         </is>
       </c>
       <c r="B372" t="b">
@@ -4146,7 +4158,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>fbx.chrome</t>
+          <t>kandii.ee</t>
         </is>
       </c>
       <c r="B373" t="b">
@@ -4156,7 +4168,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>j.xiiiovu</t>
+          <t>aynakojhen</t>
         </is>
       </c>
       <c r="B374" t="b">
@@ -4166,7 +4178,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>kjp4</t>
+          <t>jameraakoto</t>
         </is>
       </c>
       <c r="B375" t="b">
@@ -4176,7 +4188,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>peytonnshumate</t>
+          <t>leeleeana_</t>
         </is>
       </c>
       <c r="B376" t="b">
@@ -4186,7 +4198,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>rae.ehde</t>
+          <t>salazar.madeleine</t>
         </is>
       </c>
       <c r="B377" t="b">
@@ -4196,7 +4208,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>_glama_gurl_</t>
+          <t>lillian_copeland_15</t>
         </is>
       </c>
       <c r="B378" t="b">
@@ -4206,7 +4218,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>nika_pathak</t>
+          <t>kumor1._</t>
         </is>
       </c>
       <c r="B379" t="b">
@@ -4216,7 +4228,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>justin.jayg</t>
+          <t>757_jakek</t>
         </is>
       </c>
       <c r="B380" t="b">
@@ -4226,7 +4238,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>amyaajanaee</t>
+          <t>madisonxhales</t>
         </is>
       </c>
       <c r="B381" t="b">
@@ -4236,7 +4248,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>deanna._.kay</t>
+          <t>mol_zions23</t>
         </is>
       </c>
       <c r="B382" t="b">
@@ -4246,7 +4258,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>nx.gxlden</t>
+          <t>bdbr3n</t>
         </is>
       </c>
       <c r="B383" t="b">
@@ -4256,7 +4268,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>amirra.aaa</t>
+          <t>kreative_kiera</t>
         </is>
       </c>
       <c r="B384" t="b">
@@ -4266,7 +4278,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>theereallashayy</t>
+          <t>__trah__</t>
         </is>
       </c>
       <c r="B385" t="b">
@@ -4276,7 +4288,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>luva.laney</t>
+          <t>redisnotokay</t>
         </is>
       </c>
       <c r="B386" t="b">
@@ -4286,7 +4298,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>2xx_t</t>
+          <t>jamayaaaa__</t>
         </is>
       </c>
       <c r="B387" t="b">
@@ -4296,7 +4308,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>khemaniiii</t>
+          <t>jay.dinnnnn</t>
         </is>
       </c>
       <c r="B388" t="b">
@@ -4306,7 +4318,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>odu_bov_rep</t>
+          <t>_.ashlyngrace</t>
         </is>
       </c>
       <c r="B389" t="b">
@@ -4316,7 +4328,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>_.shiino._</t>
+          <t>beenduffy</t>
         </is>
       </c>
       <c r="B390" t="b">
@@ -4326,7 +4338,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>elijah.sledge</t>
+          <t>sillylucifer666</t>
         </is>
       </c>
       <c r="B391" t="b">
@@ -4336,7 +4348,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>danielle_fayeeee</t>
+          <t>daelanaking</t>
         </is>
       </c>
       <c r="B392" t="b">
@@ -4346,7 +4358,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>joooleyah</t>
+          <t>channyn_b</t>
         </is>
       </c>
       <c r="B393" t="b">
@@ -4356,7 +4368,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>eman__walker</t>
+          <t>x.o.evie</t>
         </is>
       </c>
       <c r="B394" t="b">
@@ -4366,7 +4378,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>ky.meah</t>
+          <t>brady._.j</t>
         </is>
       </c>
       <c r="B395" t="b">
@@ -4376,7 +4388,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>rafaeljimenez0</t>
+          <t>theonlymantha</t>
         </is>
       </c>
       <c r="B396" t="b">
@@ -4386,7 +4398,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>denimroberson</t>
+          <t>nikki_welp</t>
         </is>
       </c>
       <c r="B397" t="b">
@@ -4396,7 +4408,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>24k_.g</t>
+          <t>deamonteeee</t>
         </is>
       </c>
       <c r="B398" t="b">
@@ -4406,7 +4418,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>kumor1._</t>
+          <t>ag_whalen</t>
         </is>
       </c>
       <c r="B399" t="b">
@@ -4416,7 +4428,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>odu_fits</t>
+          <t>lyssey__</t>
         </is>
       </c>
       <c r="B400" t="b">
@@ -4426,7 +4438,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>malasiaaa.__</t>
+          <t>lil_brie_x</t>
         </is>
       </c>
       <c r="B401" t="b">
@@ -4436,7 +4448,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>kayy.kurlss</t>
+          <t>jan_.niece</t>
         </is>
       </c>
       <c r="B402" t="b">
@@ -4446,7 +4458,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>sebas2x__</t>
+          <t>whyh8._ty</t>
         </is>
       </c>
       <c r="B403" t="b">
@@ -4456,7 +4468,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>jamayaaaa__</t>
+          <t>luv.catieee</t>
         </is>
       </c>
       <c r="B404" t="b">
@@ -4466,7 +4478,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>scaredmui</t>
+          <t>nyssanoemii</t>
         </is>
       </c>
       <c r="B405" t="b">
@@ -4476,7 +4488,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>weluv.dannii</t>
+          <t>maddisonhovorka</t>
         </is>
       </c>
       <c r="B406" t="b">
@@ -4486,7 +4498,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>yeh.dii_</t>
+          <t>_nadia.2x</t>
         </is>
       </c>
       <c r="B407" t="b">
@@ -4496,7 +4508,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>miamontague</t>
+          <t>blakeemitchell</t>
         </is>
       </c>
       <c r="B408" t="b">
@@ -4506,7 +4518,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>_samyrahh_</t>
+          <t>izo_l3e</t>
         </is>
       </c>
       <c r="B409" t="b">
@@ -4516,7 +4528,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>megann.rogers</t>
+          <t>heyychriissy</t>
         </is>
       </c>
       <c r="B410" t="b">
@@ -4526,7 +4538,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>it_parker12</t>
+          <t>danielstomov</t>
         </is>
       </c>
       <c r="B411" t="b">
@@ -4536,7 +4548,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>meraki._creationz</t>
+          <t>serenity.deann</t>
         </is>
       </c>
       <c r="B412" t="b">
@@ -4546,7 +4558,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>braeden_megenity</t>
+          <t>ngregory31</t>
         </is>
       </c>
       <c r="B413" t="b">
@@ -4556,7 +4568,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>madisonfleger</t>
+          <t>craxy_beautiful143</t>
         </is>
       </c>
       <c r="B414" t="b">
@@ -4566,7 +4578,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>ny_a4</t>
+          <t>fbx.chrome</t>
         </is>
       </c>
       <c r="B415" t="b">
@@ -4576,7 +4588,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>frogparty9</t>
+          <t>nyyali._</t>
         </is>
       </c>
       <c r="B416" t="b">
@@ -4586,7 +4598,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>_mobbin.matt_</t>
+          <t>dmv_bereket</t>
         </is>
       </c>
       <c r="B417" t="b">
@@ -4596,7 +4608,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>sweet_tangerine_dreams</t>
+          <t>jjthegoldfishh</t>
         </is>
       </c>
       <c r="B418" t="b">
@@ -4606,7 +4618,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>aneesareel</t>
+          <t>eyonnamonaeee</t>
         </is>
       </c>
       <c r="B419" t="b">
@@ -4616,7 +4628,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>say._baker</t>
+          <t>tania.anyaa</t>
         </is>
       </c>
       <c r="B420" t="b">
@@ -4626,130 +4638,10 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>jeremiah_p13</t>
+          <t>blakebennett05</t>
         </is>
       </c>
       <c r="B421" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" t="inlineStr">
-        <is>
-          <t>audrakaeperry</t>
-        </is>
-      </c>
-      <c r="B422" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="423">
-      <c r="A423" t="inlineStr">
-        <is>
-          <t>bagchasnx</t>
-        </is>
-      </c>
-      <c r="B423" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="424">
-      <c r="A424" t="inlineStr">
-        <is>
-          <t>reesehaulenbeek</t>
-        </is>
-      </c>
-      <c r="B424" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="425">
-      <c r="A425" t="inlineStr">
-        <is>
-          <t>daniniia</t>
-        </is>
-      </c>
-      <c r="B425" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="426">
-      <c r="A426" t="inlineStr">
-        <is>
-          <t>makaylaboney</t>
-        </is>
-      </c>
-      <c r="B426" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="427">
-      <c r="A427" t="inlineStr">
-        <is>
-          <t>kaylaa.ivey</t>
-        </is>
-      </c>
-      <c r="B427" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" t="inlineStr">
-        <is>
-          <t>baller.maliyah</t>
-        </is>
-      </c>
-      <c r="B428" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="429">
-      <c r="A429" t="inlineStr">
-        <is>
-          <t>kaayniicole</t>
-        </is>
-      </c>
-      <c r="B429" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="430">
-      <c r="A430" t="inlineStr">
-        <is>
-          <t>sadlytoons</t>
-        </is>
-      </c>
-      <c r="B430" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="431">
-      <c r="A431" t="inlineStr">
-        <is>
-          <t>therealcapois</t>
-        </is>
-      </c>
-      <c r="B431" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="432">
-      <c r="A432" t="inlineStr">
-        <is>
-          <t>_aayanna._</t>
-        </is>
-      </c>
-      <c r="B432" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="433">
-      <c r="A433" t="inlineStr">
-        <is>
-          <t>m.quette</t>
-        </is>
-      </c>
-      <c r="B433" t="b">
         <v>0</v>
       </c>
     </row>
